--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\plan\策划案\战斗\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBCE55-177B-4C67-9515-6B7BEA84BA93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA97C6-47AF-4791-A77D-89FCFBDBA257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,9 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,7 +800,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1322,6 +1318,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1873,38 +1870,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AC28" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="C1:AC28" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AC34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="C1:AC34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="26"/>
     <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{3ABDB000-A48D-43AE-B45C-97BDD2171745}" name="技能类型" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{A2C44567-4D04-448D-B510-5BBC9CEFB2D9}" name="ACT条速度" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{7B7EE486-2B33-46A4-850E-FE81E686F065}" name="ACT秒" dataDxfId="0">
+    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3ABDB000-A48D-43AE-B45C-97BDD2171745}" name="技能类型" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{A2C44567-4D04-448D-B510-5BBC9CEFB2D9}" name="ACT条速度" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{7B7EE486-2B33-46A4-850E-FE81E686F065}" name="ACT秒" dataDxfId="14">
       <calculatedColumnFormula>10000/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BF5883F4-9515-4296-BAA6-EE8907A89192}" name="自身怒气" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{5907300A-736B-4C73-9B90-A543866F3C3C}" name="消耗MP" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{CDDA707B-D347-4FF6-87DA-424E0D935A3E}" name="初始CD" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{BAC0605C-4D75-47A9-966F-F88AE32FC0D8}" name="回转CD" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="施法范围" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="目标范围长" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="目标范围宽" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{BF5883F4-9515-4296-BAA6-EE8907A89192}" name="自身怒气" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{5907300A-736B-4C73-9B90-A543866F3C3C}" name="消耗MP" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{CDDA707B-D347-4FF6-87DA-424E0D935A3E}" name="初始CD" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{BAC0605C-4D75-47A9-966F-F88AE32FC0D8}" name="回转CD" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="施法范围" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="目标范围长" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="目标范围宽" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2173,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,22 +2206,22 @@
       <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -2272,10 +2269,10 @@
       <c r="AA1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2354,10 +2351,10 @@
       <c r="AA2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3658,8 +3655,12 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="12">
+        <v>105001</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3668,27 +3669,61 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>5000</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2</v>
+      </c>
+      <c r="P23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1</v>
+      </c>
+      <c r="W23" s="6">
+        <v>4</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>1010011</v>
+      </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="13">
+        <v>105002</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3697,27 +3732,61 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
+      <c r="M24" s="8">
+        <v>2</v>
+      </c>
+      <c r="N24" s="8">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="8">
+        <v>1</v>
+      </c>
+      <c r="U24" s="8">
+        <v>10</v>
+      </c>
+      <c r="V24" s="8">
+        <v>1</v>
+      </c>
+      <c r="W24" s="8">
+        <v>4</v>
+      </c>
+      <c r="X24" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1010011</v>
+      </c>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="12">
+        <v>105003</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3726,27 +3795,61 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
+      <c r="M25" s="6">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="6">
+        <v>-100</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>40</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1</v>
+      </c>
+      <c r="W25" s="6">
+        <v>4</v>
+      </c>
+      <c r="X25" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>1010011</v>
+      </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="13">
+        <v>105004</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3755,27 +3858,61 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="M26" s="8">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2000</v>
+      </c>
+      <c r="O26" s="8">
+        <v>5</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>20</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="8">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8">
+        <v>20</v>
+      </c>
+      <c r="V26" s="8">
+        <v>1</v>
+      </c>
+      <c r="W26" s="8">
+        <v>4</v>
+      </c>
+      <c r="X26" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>1010011</v>
+      </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="12">
+        <v>106001</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3784,27 +3921,62 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>5000</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" ref="O27:O34" si="1">10000/N27</f>
+        <v>2</v>
+      </c>
+      <c r="P27" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>12</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <v>4</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>1010011</v>
+      </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="13">
+        <v>106002</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3813,50 +3985,438 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
+      <c r="M28" s="8">
+        <v>2</v>
+      </c>
+      <c r="N28" s="8">
+        <v>10000</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1</v>
+      </c>
+      <c r="U28" s="8">
+        <v>16</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>4</v>
+      </c>
+      <c r="X28" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>1010011</v>
+      </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
+      <c r="C29" s="12">
+        <v>106003</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6">
+        <v>3</v>
+      </c>
+      <c r="N29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="P29" s="6">
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>2000</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>40</v>
+      </c>
+      <c r="V29" s="6">
+        <v>1</v>
+      </c>
+      <c r="W29" s="6">
+        <v>4</v>
+      </c>
+      <c r="X29" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>1010011</v>
+      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="13">
+        <v>106004</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8">
+        <v>4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2000</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>20</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1500</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8">
+        <v>20</v>
+      </c>
+      <c r="V30" s="8">
+        <v>1</v>
+      </c>
+      <c r="W30" s="8">
+        <v>4</v>
+      </c>
+      <c r="X30" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>1010011</v>
+      </c>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C31" s="12">
+        <v>107001</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>5000</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P31" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6">
+        <v>12</v>
+      </c>
+      <c r="V31" s="6">
+        <v>1</v>
+      </c>
+      <c r="W31" s="6">
+        <v>4</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>1010011</v>
+      </c>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C32" s="13">
+        <v>107002</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8">
+        <v>10000</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="U32" s="8">
+        <v>16</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8">
+        <v>4</v>
+      </c>
+      <c r="X32" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1010011</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C33" s="12">
+        <v>107003</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>20000</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="6">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>2000</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6">
+        <v>40</v>
+      </c>
+      <c r="V33" s="6">
+        <v>1</v>
+      </c>
+      <c r="W33" s="6">
+        <v>4</v>
+      </c>
+      <c r="X33" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>1010011</v>
+      </c>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C34" s="13">
+        <v>107004</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="8">
+        <v>2000</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>20</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>1500</v>
+      </c>
+      <c r="T34" s="8">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8">
+        <v>20</v>
+      </c>
+      <c r="V34" s="8">
+        <v>1</v>
+      </c>
+      <c r="W34" s="8">
+        <v>4</v>
+      </c>
+      <c r="X34" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>1010011</v>
+      </c>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA97C6-47AF-4791-A77D-89FCFBDBA257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120859DA-DB5F-4738-AE77-E663D34C0831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,15 +258,6 @@
   </si>
   <si>
     <t>(索引到字典表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入战斗后，首次可使用该技能的冷却CD
-(毫秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次技能使用后，每次使用技能需要间隔的最少CD(毫秒)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,13 +440,6 @@
   </si>
   <si>
     <t>ACT条动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法后
-速度条
-10000值/格
-10000格/秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,6 +519,27 @@
   </si>
   <si>
     <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法后
+速度条
+1表示整个条
+%条/秒
+参数&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次技能使用后，每次使用技能需要间隔的最少CD(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗后，首次可使用该技能的冷却CD
+(秒)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2173,7 +2178,7 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2198,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>5</v>
@@ -2210,16 +2215,16 @@
         <v>15</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>16</v>
@@ -2231,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>19</v>
@@ -2252,28 +2257,28 @@
         <v>28</v>
       </c>
       <c r="V1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="AB1" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2281,10 +2286,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -2294,68 +2299,68 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -2366,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -2378,16 +2383,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>17</v>
@@ -2433,7 +2438,7 @@
         <v>39</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -2446,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -2458,16 +2463,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -2476,7 +2481,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
@@ -2513,14 +2518,14 @@
         <v>47</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2570,13 +2575,13 @@
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>23</v>
@@ -2588,26 +2593,26 @@
         <v>9</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>9</v>
@@ -2616,16 +2621,16 @@
         <v>9</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -2649,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="6">
-        <f>10000/N7</f>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P7" s="6">
@@ -2713,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="N8" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O22" si="0">10000/N8</f>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P8" s="8">
@@ -2729,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T8" s="8">
         <v>1</v>
@@ -2777,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P9" s="6">
@@ -2793,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T9" s="6">
         <v>1</v>
@@ -2841,10 +2846,10 @@
         <v>4</v>
       </c>
       <c r="N10" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P10" s="8">
@@ -2857,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T10" s="8">
         <v>1</v>
@@ -2905,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P11" s="6">
@@ -2969,10 +2974,10 @@
         <v>2</v>
       </c>
       <c r="N12" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P12" s="8">
@@ -2985,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T12" s="8">
         <v>1</v>
@@ -3033,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="N13" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P13" s="6">
@@ -3049,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T13" s="6">
         <v>1</v>
@@ -3097,10 +3102,10 @@
         <v>4</v>
       </c>
       <c r="N14" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P14" s="8">
@@ -3113,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T14" s="8">
         <v>1</v>
@@ -3161,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P15" s="6">
@@ -3225,10 +3230,10 @@
         <v>2</v>
       </c>
       <c r="N16" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P16" s="8">
@@ -3241,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T16" s="8">
         <v>1</v>
@@ -3289,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="N17" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P17" s="6">
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T17" s="6">
         <v>1</v>
@@ -3353,10 +3358,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P18" s="8">
@@ -3369,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T18" s="8">
         <v>1</v>
@@ -3417,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P19" s="6">
@@ -3481,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P20" s="8">
@@ -3497,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T20" s="8">
         <v>1</v>
@@ -3545,10 +3550,10 @@
         <v>3</v>
       </c>
       <c r="N21" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P21" s="6">
@@ -3561,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -3609,10 +3614,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P22" s="8">
@@ -3625,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T22" s="8">
         <v>1</v>
@@ -3673,9 +3678,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="6">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P23" s="6">
@@ -3736,9 +3742,10 @@
         <v>2</v>
       </c>
       <c r="N24" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P24" s="8">
@@ -3751,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T24" s="8">
         <v>1</v>
@@ -3799,9 +3806,10 @@
         <v>3</v>
       </c>
       <c r="N25" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O25" s="6">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P25" s="6">
@@ -3814,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T25" s="6">
         <v>1</v>
@@ -3862,9 +3870,10 @@
         <v>4</v>
       </c>
       <c r="N26" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="8">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P26" s="8">
@@ -3877,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T26" s="8">
         <v>1</v>
@@ -3925,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27:O34" si="1">10000/N27</f>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P27" s="6">
@@ -3989,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="N28" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P28" s="8">
@@ -4005,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T28" s="8">
         <v>1</v>
@@ -4053,10 +4062,10 @@
         <v>3</v>
       </c>
       <c r="N29" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P29" s="6">
@@ -4069,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T29" s="6">
         <v>1</v>
@@ -4117,10 +4126,10 @@
         <v>4</v>
       </c>
       <c r="N30" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P30" s="8">
@@ -4133,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T30" s="8">
         <v>1</v>
@@ -4181,10 +4190,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="6">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
       <c r="P31" s="6">
@@ -4245,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="N32" s="8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
       <c r="P32" s="8">
@@ -4261,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="T32" s="8">
         <v>1</v>
@@ -4309,10 +4318,10 @@
         <v>3</v>
       </c>
       <c r="N33" s="6">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
       <c r="P33" s="6">
@@ -4325,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="6">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="T33" s="6">
         <v>1</v>
@@ -4373,10 +4382,10 @@
         <v>4</v>
       </c>
       <c r="N34" s="8">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="1"/>
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
       <c r="P34" s="8">
@@ -4389,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="T34" s="8">
         <v>1</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120859DA-DB5F-4738-AE77-E663D34C0831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BB2B3-243D-4767-BEC6-E02EF395ECA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,12 +315,6 @@
   <si>
     <t>多个技能效果
 数组格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以自身
-为圆心
-距离米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,6 +534,62 @@
   <si>
     <t>进入战斗后，首次可使用该技能的冷却CD
 (秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离目标多远使用技能
+近战&lt;目标长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弹道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是弹道的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用模型上
+的插槽ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中消息点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击动作编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中的时间点数组
+[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与命中数量相同，被击动作编号
+[]string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,11 +833,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1324,6 +1377,228 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1875,19 +2150,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AC34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="C1:AC34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="26"/>
-    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="20"/>
-    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AI34" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="C1:AI34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="27"/>
+    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{6E7D3F46-4A3D-4D38-B359-FE07A4079767}" name="命中消息点" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{38F5469B-B50A-447A-94E2-227AAA95BA4B}" name="被击动作编号" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{5A9F6830-8322-4EB4-A36B-D92752656B11}" name="弹道初始位置" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{3F5FA866-1408-4A54-848B-79617FC1D727}" name="插槽ID" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{3D757DC9-E31E-4011-9972-17FCD11CA685}" name="是否弹道" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{9D219D1E-C382-4CBB-A03F-A5A973C866AF}" name="弹道速度" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{3ABDB000-A48D-43AE-B45C-97BDD2171745}" name="技能类型" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{A2C44567-4D04-448D-B510-5BBC9CEFB2D9}" name="ACT条速度" dataDxfId="15"/>
     <tableColumn id="28" xr3:uid="{7B7EE486-2B33-46A4-850E-FE81E686F065}" name="ACT秒" dataDxfId="14">
@@ -1898,7 +2179,7 @@
     <tableColumn id="10" xr3:uid="{CDDA707B-D347-4FF6-87DA-424E0D935A3E}" name="初始CD" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{BAC0605C-4D75-47A9-966F-F88AE32FC0D8}" name="回转CD" dataDxfId="10"/>
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="施法范围" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="7"/>
     <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="目标范围长" dataDxfId="5"/>
@@ -2175,24 +2456,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="10.625" style="1"/>
-    <col min="14" max="16" width="11.75" style="1" customWidth="1"/>
-    <col min="17" max="22" width="10.625" style="1"/>
-    <col min="23" max="25" width="12.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.625" style="1"/>
+    <col min="1" max="18" width="10.625" style="1"/>
+    <col min="20" max="20" width="10.625" style="1"/>
+    <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
+    <col min="24" max="29" width="10.625" style="1"/>
+    <col min="30" max="32" width="12.125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>5</v>
@@ -2215,81 +2497,99 @@
         <v>15</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="U1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="18" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -2299,71 +2599,87 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="19" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2371,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -2383,67 +2699,73 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -2463,69 +2785,75 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="T4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2554,8 +2882,14 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2575,56 +2909,44 @@
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="T6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>9</v>
@@ -2632,10 +2954,28 @@
       <c r="AA6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
+      <c r="AB6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C7" s="12">
         <v>101001</v>
       </c>
@@ -2650,56 +2990,62 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
         <v>0.5</v>
       </c>
-      <c r="O7" s="6">
+      <c r="U7" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="V7" s="6">
         <v>10</v>
       </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
         <v>2</v>
       </c>
-      <c r="V7" s="6">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
-        <v>4</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="13">
         <v>101002</v>
       </c>
@@ -2714,56 +3060,62 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P8" s="8">
+      <c r="V8" s="8">
         <v>20</v>
       </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>1</v>
-      </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8">
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
         <v>10</v>
       </c>
-      <c r="V8" s="8">
-        <v>1</v>
-      </c>
-      <c r="W8" s="8">
-        <v>4</v>
-      </c>
-      <c r="X8" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
         <v>5</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AG8" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <v>101003</v>
       </c>
@@ -2778,56 +3130,62 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
         <v>3</v>
       </c>
-      <c r="N9" s="6">
+      <c r="T9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="U9" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P9" s="6">
+      <c r="V9" s="6">
         <v>-100</v>
       </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
         <v>2</v>
       </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
         <v>40</v>
       </c>
-      <c r="V9" s="6">
-        <v>1</v>
-      </c>
-      <c r="W9" s="6">
-        <v>4</v>
-      </c>
-      <c r="X9" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
+      <c r="AB9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6">
         <v>5</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AG9" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C10" s="13">
         <v>101004</v>
       </c>
@@ -2842,56 +3200,62 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8">
-        <v>4</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8">
+        <v>4</v>
+      </c>
+      <c r="T10" s="8">
         <v>0.2</v>
       </c>
-      <c r="O10" s="6">
+      <c r="U10" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
         <v>20</v>
       </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8">
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
         <v>1.5</v>
       </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-      <c r="U10" s="8">
+      <c r="Z10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8">
         <v>20</v>
       </c>
-      <c r="V10" s="8">
-        <v>1</v>
-      </c>
-      <c r="W10" s="8">
-        <v>4</v>
-      </c>
-      <c r="X10" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
+      <c r="AB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
         <v>5</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AG10" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <v>102001</v>
       </c>
@@ -2906,39 +3270,27 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
         <v>0.5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="U11" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P11" s="6">
+      <c r="V11" s="6">
         <v>10</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>4</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1</v>
-      </c>
       <c r="W11" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X11" s="6">
         <v>0</v>
@@ -2950,12 +3302,30 @@
         <v>1</v>
       </c>
       <c r="AA11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C12" s="13">
         <v>102002</v>
       </c>
@@ -2970,56 +3340,62 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8">
         <v>2</v>
       </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P12" s="8">
+      <c r="V12" s="8">
         <v>20</v>
       </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="8">
         <v>10</v>
       </c>
-      <c r="V12" s="8">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8">
-        <v>4</v>
-      </c>
-      <c r="X12" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
+      <c r="AB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
         <v>5</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AG12" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C13" s="12">
         <v>102003</v>
       </c>
@@ -3034,56 +3410,62 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
         <v>3</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T13" s="6">
         <v>2</v>
       </c>
-      <c r="O13" s="6">
+      <c r="U13" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P13" s="6">
+      <c r="V13" s="6">
         <v>-100</v>
       </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
         <v>2</v>
       </c>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
+      <c r="Z13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="6">
         <v>40</v>
       </c>
-      <c r="V13" s="6">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6">
-        <v>4</v>
-      </c>
-      <c r="X13" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="AB13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
         <v>5</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AG13" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C14" s="13">
         <v>102004</v>
       </c>
@@ -3098,56 +3480,62 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8">
-        <v>4</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8">
+        <v>4</v>
+      </c>
+      <c r="T14" s="8">
         <v>0.2</v>
       </c>
-      <c r="O14" s="6">
+      <c r="U14" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
         <v>20</v>
       </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
         <v>1.5</v>
       </c>
-      <c r="T14" s="8">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8">
+      <c r="Z14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="8">
         <v>20</v>
       </c>
-      <c r="V14" s="8">
-        <v>1</v>
-      </c>
-      <c r="W14" s="8">
-        <v>4</v>
-      </c>
-      <c r="X14" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
+      <c r="AB14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
         <v>5</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AG14" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C15" s="12">
         <v>103001</v>
       </c>
@@ -3162,56 +3550,62 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="6">
         <v>0.5</v>
       </c>
-      <c r="O15" s="6">
+      <c r="U15" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P15" s="6">
+      <c r="V15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6">
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="6">
         <v>12</v>
       </c>
-      <c r="V15" s="6">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6">
-        <v>4</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="6">
+      <c r="AB15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C16" s="13">
         <v>103002</v>
       </c>
@@ -3226,56 +3620,62 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8">
         <v>2</v>
       </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="T16" s="8">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P16" s="8">
+      <c r="V16" s="8">
         <v>20</v>
       </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="8">
-        <v>1</v>
-      </c>
-      <c r="T16" s="8">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8">
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
         <v>16</v>
       </c>
-      <c r="V16" s="8">
-        <v>1</v>
-      </c>
-      <c r="W16" s="8">
-        <v>4</v>
-      </c>
-      <c r="X16" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
+      <c r="AB16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
         <v>5</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AG16" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>103003</v>
       </c>
@@ -3290,56 +3690,62 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6">
         <v>3</v>
       </c>
-      <c r="N17" s="6">
+      <c r="T17" s="6">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="U17" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P17" s="6">
+      <c r="V17" s="6">
         <v>-100</v>
       </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
         <v>2</v>
       </c>
-      <c r="T17" s="6">
-        <v>1</v>
-      </c>
-      <c r="U17" s="6">
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
         <v>40</v>
       </c>
-      <c r="V17" s="6">
-        <v>1</v>
-      </c>
-      <c r="W17" s="6">
-        <v>4</v>
-      </c>
-      <c r="X17" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="6">
+      <c r="AB17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
         <v>5</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AG17" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>103004</v>
       </c>
@@ -3354,56 +3760,62 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8">
-        <v>4</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8">
+        <v>4</v>
+      </c>
+      <c r="T18" s="8">
         <v>0.2</v>
       </c>
-      <c r="O18" s="6">
+      <c r="U18" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
         <v>20</v>
       </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
         <v>1.5</v>
       </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-      <c r="U18" s="8">
+      <c r="Z18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="8">
         <v>20</v>
       </c>
-      <c r="V18" s="8">
-        <v>1</v>
-      </c>
-      <c r="W18" s="8">
-        <v>4</v>
-      </c>
-      <c r="X18" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8">
+      <c r="AB18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
         <v>5</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AG18" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>104001</v>
       </c>
@@ -3418,56 +3830,62 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
         <v>0.5</v>
       </c>
-      <c r="O19" s="6">
+      <c r="U19" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P19" s="6">
+      <c r="V19" s="6">
         <v>10</v>
       </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6">
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="6">
         <v>12</v>
       </c>
-      <c r="V19" s="6">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6">
-        <v>4</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="6">
+      <c r="AB19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>104002</v>
       </c>
@@ -3482,56 +3900,62 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8">
         <v>2</v>
       </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="T20" s="8">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P20" s="8">
+      <c r="V20" s="8">
         <v>20</v>
       </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="8">
-        <v>1</v>
-      </c>
-      <c r="T20" s="8">
-        <v>1</v>
-      </c>
-      <c r="U20" s="8">
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="8">
         <v>16</v>
       </c>
-      <c r="V20" s="8">
-        <v>1</v>
-      </c>
-      <c r="W20" s="8">
-        <v>4</v>
-      </c>
-      <c r="X20" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="8">
+      <c r="AB20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
         <v>5</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AG20" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>104003</v>
       </c>
@@ -3546,56 +3970,62 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6">
         <v>3</v>
       </c>
-      <c r="N21" s="6">
+      <c r="T21" s="6">
         <v>2</v>
       </c>
-      <c r="O21" s="6">
+      <c r="U21" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P21" s="6">
+      <c r="V21" s="6">
         <v>-100</v>
       </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
         <v>2</v>
       </c>
-      <c r="T21" s="6">
-        <v>1</v>
-      </c>
-      <c r="U21" s="6">
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6">
         <v>40</v>
       </c>
-      <c r="V21" s="6">
-        <v>1</v>
-      </c>
-      <c r="W21" s="6">
-        <v>4</v>
-      </c>
-      <c r="X21" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
+      <c r="AB21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="6">
         <v>5</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AG21" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>104004</v>
       </c>
@@ -3610,56 +4040,62 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8">
-        <v>4</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8">
+        <v>4</v>
+      </c>
+      <c r="T22" s="8">
         <v>0.2</v>
       </c>
-      <c r="O22" s="6">
+      <c r="U22" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
         <v>20</v>
       </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
         <v>1.5</v>
       </c>
-      <c r="T22" s="8">
-        <v>1</v>
-      </c>
-      <c r="U22" s="8">
+      <c r="Z22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="8">
         <v>20</v>
       </c>
-      <c r="V22" s="8">
-        <v>1</v>
-      </c>
-      <c r="W22" s="8">
-        <v>4</v>
-      </c>
-      <c r="X22" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="8">
+      <c r="AB22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
         <v>5</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AG22" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>105001</v>
       </c>
@@ -3674,56 +4110,62 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6">
         <v>0.5</v>
       </c>
-      <c r="O23" s="6">
+      <c r="U23" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P23" s="6">
+      <c r="V23" s="6">
         <v>10</v>
       </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>1</v>
-      </c>
-      <c r="U23" s="6">
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="6">
         <v>2</v>
       </c>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6">
-        <v>4</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="6">
+      <c r="AB23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>105002</v>
       </c>
@@ -3738,56 +4180,62 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8">
         <v>2</v>
       </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="T24" s="8">
+        <v>1</v>
+      </c>
+      <c r="U24" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P24" s="8">
+      <c r="V24" s="8">
         <v>20</v>
       </c>
-      <c r="Q24" s="8">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8">
-        <v>0</v>
-      </c>
-      <c r="S24" s="8">
-        <v>1</v>
-      </c>
-      <c r="T24" s="8">
-        <v>1</v>
-      </c>
-      <c r="U24" s="8">
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="8">
         <v>10</v>
       </c>
-      <c r="V24" s="8">
-        <v>1</v>
-      </c>
-      <c r="W24" s="8">
-        <v>4</v>
-      </c>
-      <c r="X24" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="8">
+      <c r="AB24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
         <v>5</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AG24" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>105003</v>
       </c>
@@ -3802,56 +4250,62 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6">
         <v>3</v>
       </c>
-      <c r="N25" s="6">
+      <c r="T25" s="6">
         <v>2</v>
       </c>
-      <c r="O25" s="6">
+      <c r="U25" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P25" s="6">
+      <c r="V25" s="6">
         <v>-100</v>
       </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
         <v>2</v>
       </c>
-      <c r="T25" s="6">
-        <v>1</v>
-      </c>
-      <c r="U25" s="6">
+      <c r="Z25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="6">
         <v>40</v>
       </c>
-      <c r="V25" s="6">
-        <v>1</v>
-      </c>
-      <c r="W25" s="6">
-        <v>4</v>
-      </c>
-      <c r="X25" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
+      <c r="AB25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
         <v>5</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AG25" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>105004</v>
       </c>
@@ -3866,56 +4320,62 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8">
-        <v>4</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8">
+        <v>4</v>
+      </c>
+      <c r="T26" s="8">
         <v>0.2</v>
       </c>
-      <c r="O26" s="8">
+      <c r="U26" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
+      <c r="V26" s="8">
+        <v>0</v>
+      </c>
+      <c r="W26" s="8">
         <v>20</v>
       </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="8">
         <v>1.5</v>
       </c>
-      <c r="T26" s="8">
-        <v>1</v>
-      </c>
-      <c r="U26" s="8">
+      <c r="Z26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="8">
         <v>20</v>
       </c>
-      <c r="V26" s="8">
-        <v>1</v>
-      </c>
-      <c r="W26" s="8">
-        <v>4</v>
-      </c>
-      <c r="X26" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="8">
+      <c r="AB26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
         <v>5</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AG26" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>106001</v>
       </c>
@@ -3930,56 +4390,62 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6">
-        <v>1</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6">
         <v>0.5</v>
       </c>
-      <c r="O27" s="6">
+      <c r="U27" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P27" s="6">
+      <c r="V27" s="6">
         <v>10</v>
       </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
-        <v>1</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="6">
         <v>12</v>
       </c>
-      <c r="V27" s="6">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6">
-        <v>4</v>
-      </c>
-      <c r="X27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="6">
+      <c r="AB27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>106002</v>
       </c>
@@ -3994,56 +4460,62 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8">
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8">
         <v>2</v>
       </c>
-      <c r="N28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
+      <c r="T28" s="8">
+        <v>1</v>
+      </c>
+      <c r="U28" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P28" s="8">
+      <c r="V28" s="8">
         <v>20</v>
       </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8">
-        <v>1</v>
-      </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="8">
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="8">
         <v>16</v>
       </c>
-      <c r="V28" s="8">
-        <v>1</v>
-      </c>
-      <c r="W28" s="8">
-        <v>4</v>
-      </c>
-      <c r="X28" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="8">
+      <c r="AB28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
         <v>5</v>
       </c>
-      <c r="AA28" s="8">
+      <c r="AG28" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>106003</v>
       </c>
@@ -4058,56 +4530,62 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
         <v>3</v>
       </c>
-      <c r="N29" s="6">
+      <c r="T29" s="6">
         <v>2</v>
       </c>
-      <c r="O29" s="6">
+      <c r="U29" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P29" s="6">
+      <c r="V29" s="6">
         <v>-100</v>
       </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="6">
         <v>2</v>
       </c>
-      <c r="T29" s="6">
-        <v>1</v>
-      </c>
-      <c r="U29" s="6">
+      <c r="Z29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="6">
         <v>40</v>
       </c>
-      <c r="V29" s="6">
-        <v>1</v>
-      </c>
-      <c r="W29" s="6">
-        <v>4</v>
-      </c>
-      <c r="X29" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="6">
+      <c r="AB29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="6">
         <v>5</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AG29" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>106004</v>
       </c>
@@ -4122,56 +4600,62 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8">
-        <v>4</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8">
+        <v>4</v>
+      </c>
+      <c r="T30" s="8">
         <v>0.2</v>
       </c>
-      <c r="O30" s="6">
+      <c r="U30" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8">
         <v>20</v>
       </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="8">
         <v>1.5</v>
       </c>
-      <c r="T30" s="8">
-        <v>1</v>
-      </c>
-      <c r="U30" s="8">
+      <c r="Z30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="8">
         <v>20</v>
       </c>
-      <c r="V30" s="8">
-        <v>1</v>
-      </c>
-      <c r="W30" s="8">
-        <v>4</v>
-      </c>
-      <c r="X30" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="8">
+      <c r="AB30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
         <v>5</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AG30" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>107001</v>
       </c>
@@ -4186,56 +4670,62 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <v>1</v>
-      </c>
-      <c r="N31" s="6">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <v>1</v>
+      </c>
+      <c r="T31" s="6">
         <v>0.5</v>
       </c>
-      <c r="O31" s="6">
+      <c r="U31" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="P31" s="6">
+      <c r="V31" s="6">
         <v>10</v>
       </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6">
-        <v>1</v>
-      </c>
-      <c r="U31" s="6">
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="6">
         <v>12</v>
       </c>
-      <c r="V31" s="6">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6">
-        <v>4</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="6">
+      <c r="AB31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>107002</v>
       </c>
@@ -4250,56 +4740,62 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8">
         <v>2</v>
       </c>
-      <c r="N32" s="8">
-        <v>1</v>
-      </c>
-      <c r="O32" s="6">
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="U32" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="P32" s="8">
+      <c r="V32" s="8">
         <v>20</v>
       </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>1</v>
-      </c>
-      <c r="T32" s="8">
-        <v>1</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8">
         <v>16</v>
       </c>
-      <c r="V32" s="8">
-        <v>1</v>
-      </c>
-      <c r="W32" s="8">
-        <v>4</v>
-      </c>
-      <c r="X32" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8">
+      <c r="AB32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
         <v>5</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AG32" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
     </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>107003</v>
       </c>
@@ -4314,56 +4810,62 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
         <v>3</v>
       </c>
-      <c r="N33" s="6">
+      <c r="T33" s="6">
         <v>2</v>
       </c>
-      <c r="O33" s="6">
+      <c r="U33" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="P33" s="6">
+      <c r="V33" s="6">
         <v>-100</v>
       </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="6">
         <v>2</v>
       </c>
-      <c r="T33" s="6">
-        <v>1</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="Z33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="6">
         <v>40</v>
       </c>
-      <c r="V33" s="6">
-        <v>1</v>
-      </c>
-      <c r="W33" s="6">
-        <v>4</v>
-      </c>
-      <c r="X33" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="6">
+      <c r="AB33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
         <v>5</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="AG33" s="6">
         <v>1010011</v>
       </c>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>107004</v>
       </c>
@@ -4378,54 +4880,60 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8">
-        <v>4</v>
-      </c>
-      <c r="N34" s="8">
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8">
+        <v>4</v>
+      </c>
+      <c r="T34" s="8">
         <v>0.2</v>
       </c>
-      <c r="O34" s="6">
+      <c r="U34" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
         <v>20</v>
       </c>
-      <c r="R34" s="8">
-        <v>0</v>
-      </c>
-      <c r="S34" s="8">
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8">
         <v>1.5</v>
       </c>
-      <c r="T34" s="8">
-        <v>1</v>
-      </c>
-      <c r="U34" s="8">
+      <c r="Z34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="8">
         <v>20</v>
       </c>
-      <c r="V34" s="8">
-        <v>1</v>
-      </c>
-      <c r="W34" s="8">
-        <v>4</v>
-      </c>
-      <c r="X34" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
+      <c r="AB34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
         <v>5</v>
       </c>
-      <c r="AA34" s="8">
+      <c r="AG34" s="8">
         <v>1010011</v>
       </c>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BB2B3-243D-4767-BEC6-E02EF395ECA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173D322-D86B-4DC4-9220-E5F7391AD114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,14 +278,6 @@
   </si>
   <si>
     <t>主目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标范围长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标范围宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否弹道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +547,6 @@
   </si>
   <si>
     <t>插槽ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认是0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,13 +567,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中的时间点数组
-[]number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与命中数量相同，被击动作编号
-[]string</t>
+    <t>isBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弹道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹物体
+飞行速度
+米/秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是0
+bulletLocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中消息点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitTimePoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中消息
+时间点数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beHitPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与命中数量相同，timeline上受击目标被击动作编号
+播放X次受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能
+发起类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-从自身
+2-从目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLaunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,11 +921,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2150,44 +2275,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AI34" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="C1:AI34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
-  <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="32"/>
-    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="28"/>
-    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="25"/>
-    <tableColumn id="33" xr3:uid="{6E7D3F46-4A3D-4D38-B359-FE07A4079767}" name="命中消息点" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{38F5469B-B50A-447A-94E2-227AAA95BA4B}" name="被击动作编号" dataDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{5A9F6830-8322-4EB4-A36B-D92752656B11}" name="弹道初始位置" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{3F5FA866-1408-4A54-848B-79617FC1D727}" name="插槽ID" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{3D757DC9-E31E-4011-9972-17FCD11CA685}" name="是否弹道" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{9D219D1E-C382-4CBB-A03F-A5A973C866AF}" name="弹道速度" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{3ABDB000-A48D-43AE-B45C-97BDD2171745}" name="技能类型" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{A2C44567-4D04-448D-B510-5BBC9CEFB2D9}" name="ACT条速度" dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{7B7EE486-2B33-46A4-850E-FE81E686F065}" name="ACT秒" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AJ34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="C1:AJ34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="29"/>
+    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="26"/>
+    <tableColumn id="33" xr3:uid="{6E7D3F46-4A3D-4D38-B359-FE07A4079767}" name="命中消息点" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{38F5469B-B50A-447A-94E2-227AAA95BA4B}" name="被击动作编号" dataDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{E8E90E8F-1995-4C61-A68C-8B81AC41A07E}" name="技能动画" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{5A9F6830-8322-4EB4-A36B-D92752656B11}" name="弹道初始位置" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{3F5FA866-1408-4A54-848B-79617FC1D727}" name="插槽ID" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{3D757DC9-E31E-4011-9972-17FCD11CA685}" name="是否弹道" dataDxfId="19"/>
+    <tableColumn id="30" xr3:uid="{9D219D1E-C382-4CBB-A03F-A5A973C866AF}" name="子弹速度" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{3ABDB000-A48D-43AE-B45C-97BDD2171745}" name="技能类型" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{A2C44567-4D04-448D-B510-5BBC9CEFB2D9}" name="ACT条速度" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{7B7EE486-2B33-46A4-850E-FE81E686F065}" name="ACT秒" dataDxfId="15">
       <calculatedColumnFormula>10000/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BF5883F4-9515-4296-BAA6-EE8907A89192}" name="自身怒气" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{5907300A-736B-4C73-9B90-A543866F3C3C}" name="消耗MP" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{CDDA707B-D347-4FF6-87DA-424E0D935A3E}" name="初始CD" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{BAC0605C-4D75-47A9-966F-F88AE32FC0D8}" name="回转CD" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="目标范围长" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="目标范围宽" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BF5883F4-9515-4296-BAA6-EE8907A89192}" name="自身怒气" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{5907300A-736B-4C73-9B90-A543866F3C3C}" name="消耗MP" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{CDDA707B-D347-4FF6-87DA-424E0D935A3E}" name="初始CD" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{BAC0605C-4D75-47A9-966F-F88AE32FC0D8}" name="回转CD" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2456,25 +2582,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="10.625" style="1"/>
-    <col min="20" max="20" width="10.625" style="1"/>
+    <col min="1" max="10" width="10.625" style="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="20" width="10.625" style="1"/>
     <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
-    <col min="24" max="29" width="10.625" style="1"/>
-    <col min="30" max="32" width="12.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.625" style="1"/>
+    <col min="24" max="30" width="10.625" style="1"/>
+    <col min="31" max="33" width="12.125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>5</v>
@@ -2497,46 +2625,46 @@
         <v>15</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>22</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>19</v>
@@ -2554,42 +2682,45 @@
         <v>33</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AC1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="AE1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="AI1" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -2599,95 +2730,100 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -2699,26 +2835,36 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="S3" s="7" t="s">
         <v>30</v>
       </c>
@@ -2748,24 +2894,27 @@
         <v>40</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH3" s="7"/>
+      <c r="AH3" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -2785,31 +2934,41 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="S4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
@@ -2834,26 +2993,29 @@
         <v>29</v>
       </c>
       <c r="AC4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="7"/>
+      <c r="AH4" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2888,8 +3050,9 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2909,16 +3072,20 @@
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
@@ -2926,56 +3093,65 @@
         <v>23</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AC6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="AE6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AG6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH6" s="7"/>
+      <c r="AH6" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C7" s="12">
         <v>101001</v>
       </c>
@@ -3022,30 +3198,33 @@
         <v>1</v>
       </c>
       <c r="AA7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="6">
         <v>1</v>
       </c>
-      <c r="AC7" s="6">
-        <v>2</v>
+      <c r="AC7" s="21">
+        <v>1</v>
       </c>
       <c r="AD7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C8" s="13">
         <v>101002</v>
       </c>
@@ -3092,30 +3271,33 @@
         <v>1</v>
       </c>
       <c r="AA8" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="8">
         <v>1</v>
       </c>
       <c r="AC8" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="8">
         <v>4</v>
       </c>
       <c r="AE8" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
         <v>5</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AH8" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <v>101003</v>
       </c>
@@ -3167,25 +3349,28 @@
       <c r="AB9" s="6">
         <v>1</v>
       </c>
-      <c r="AC9" s="6">
-        <v>4</v>
+      <c r="AC9" s="21">
+        <v>2</v>
       </c>
       <c r="AD9" s="6">
         <v>4</v>
       </c>
       <c r="AE9" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6">
         <v>5</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AH9" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C10" s="13">
         <v>101004</v>
       </c>
@@ -3232,30 +3417,33 @@
         <v>1</v>
       </c>
       <c r="AA10" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="8">
         <v>1</v>
       </c>
       <c r="AC10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="8">
         <v>4</v>
       </c>
       <c r="AE10" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
         <v>5</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AH10" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <v>102001</v>
       </c>
@@ -3302,30 +3490,33 @@
         <v>1</v>
       </c>
       <c r="AA11" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="6">
         <v>1</v>
       </c>
-      <c r="AC11" s="6">
-        <v>4</v>
+      <c r="AC11" s="21">
+        <v>1</v>
       </c>
       <c r="AD11" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C12" s="13">
         <v>102002</v>
       </c>
@@ -3372,30 +3563,33 @@
         <v>1</v>
       </c>
       <c r="AA12" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="8">
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="8">
         <v>4</v>
       </c>
       <c r="AE12" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
         <v>5</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AH12" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C13" s="12">
         <v>102003</v>
       </c>
@@ -3447,25 +3641,28 @@
       <c r="AB13" s="6">
         <v>1</v>
       </c>
-      <c r="AC13" s="6">
-        <v>4</v>
+      <c r="AC13" s="21">
+        <v>2</v>
       </c>
       <c r="AD13" s="6">
         <v>4</v>
       </c>
       <c r="AE13" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6">
         <v>5</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AH13" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C14" s="13">
         <v>102004</v>
       </c>
@@ -3512,30 +3709,33 @@
         <v>1</v>
       </c>
       <c r="AA14" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="8">
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="8">
         <v>4</v>
       </c>
       <c r="AE14" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
         <v>5</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AH14" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C15" s="12">
         <v>103001</v>
       </c>
@@ -3582,30 +3782,33 @@
         <v>1</v>
       </c>
       <c r="AA15" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB15" s="6">
         <v>1</v>
       </c>
-      <c r="AC15" s="6">
-        <v>4</v>
+      <c r="AC15" s="21">
+        <v>1</v>
       </c>
       <c r="AD15" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C16" s="13">
         <v>103002</v>
       </c>
@@ -3652,30 +3855,33 @@
         <v>1</v>
       </c>
       <c r="AA16" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB16" s="8">
         <v>1</v>
       </c>
       <c r="AC16" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="8">
         <v>4</v>
       </c>
       <c r="AE16" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
         <v>5</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AH16" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>103003</v>
       </c>
@@ -3727,25 +3933,28 @@
       <c r="AB17" s="6">
         <v>1</v>
       </c>
-      <c r="AC17" s="6">
-        <v>4</v>
+      <c r="AC17" s="21">
+        <v>2</v>
       </c>
       <c r="AD17" s="6">
         <v>4</v>
       </c>
       <c r="AE17" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="6">
         <v>5</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AH17" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>103004</v>
       </c>
@@ -3792,30 +4001,33 @@
         <v>1</v>
       </c>
       <c r="AA18" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="8">
         <v>1</v>
       </c>
       <c r="AC18" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="8">
         <v>4</v>
       </c>
       <c r="AE18" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
         <v>5</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AH18" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
     </row>
-    <row r="19" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>104001</v>
       </c>
@@ -3862,30 +4074,33 @@
         <v>1</v>
       </c>
       <c r="AA19" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="6">
         <v>1</v>
       </c>
-      <c r="AC19" s="6">
-        <v>4</v>
+      <c r="AC19" s="21">
+        <v>1</v>
       </c>
       <c r="AD19" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE19" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>104002</v>
       </c>
@@ -3932,30 +4147,33 @@
         <v>1</v>
       </c>
       <c r="AA20" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB20" s="8">
         <v>1</v>
       </c>
       <c r="AC20" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="8">
         <v>4</v>
       </c>
       <c r="AE20" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
         <v>5</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AH20" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>104003</v>
       </c>
@@ -4007,25 +4225,28 @@
       <c r="AB21" s="6">
         <v>1</v>
       </c>
-      <c r="AC21" s="6">
-        <v>4</v>
+      <c r="AC21" s="21">
+        <v>2</v>
       </c>
       <c r="AD21" s="6">
         <v>4</v>
       </c>
       <c r="AE21" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6">
         <v>5</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AH21" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>104004</v>
       </c>
@@ -4072,30 +4293,33 @@
         <v>1</v>
       </c>
       <c r="AA22" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB22" s="8">
         <v>1</v>
       </c>
       <c r="AC22" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD22" s="8">
         <v>4</v>
       </c>
       <c r="AE22" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
         <v>5</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AH22" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>105001</v>
       </c>
@@ -4142,30 +4366,33 @@
         <v>1</v>
       </c>
       <c r="AA23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="6">
         <v>1</v>
       </c>
-      <c r="AC23" s="6">
-        <v>4</v>
+      <c r="AC23" s="21">
+        <v>1</v>
       </c>
       <c r="AD23" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE23" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>105002</v>
       </c>
@@ -4212,30 +4439,33 @@
         <v>1</v>
       </c>
       <c r="AA24" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB24" s="8">
         <v>1</v>
       </c>
       <c r="AC24" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD24" s="8">
         <v>4</v>
       </c>
       <c r="AE24" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
         <v>5</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AH24" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>105003</v>
       </c>
@@ -4287,25 +4517,28 @@
       <c r="AB25" s="6">
         <v>1</v>
       </c>
-      <c r="AC25" s="6">
-        <v>4</v>
+      <c r="AC25" s="21">
+        <v>2</v>
       </c>
       <c r="AD25" s="6">
         <v>4</v>
       </c>
       <c r="AE25" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
         <v>5</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AH25" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>105004</v>
       </c>
@@ -4352,30 +4585,33 @@
         <v>1</v>
       </c>
       <c r="AA26" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB26" s="8">
         <v>1</v>
       </c>
       <c r="AC26" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="8">
         <v>4</v>
       </c>
       <c r="AE26" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
         <v>5</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AH26" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>106001</v>
       </c>
@@ -4422,30 +4658,33 @@
         <v>1</v>
       </c>
       <c r="AA27" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB27" s="6">
         <v>1</v>
       </c>
-      <c r="AC27" s="6">
-        <v>4</v>
+      <c r="AC27" s="21">
+        <v>1</v>
       </c>
       <c r="AD27" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE27" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>106002</v>
       </c>
@@ -4492,30 +4731,33 @@
         <v>1</v>
       </c>
       <c r="AA28" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB28" s="8">
         <v>1</v>
       </c>
       <c r="AC28" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="8">
         <v>4</v>
       </c>
       <c r="AE28" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
         <v>5</v>
       </c>
-      <c r="AG28" s="8">
+      <c r="AH28" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>106003</v>
       </c>
@@ -4567,25 +4809,28 @@
       <c r="AB29" s="6">
         <v>1</v>
       </c>
-      <c r="AC29" s="6">
-        <v>4</v>
+      <c r="AC29" s="21">
+        <v>2</v>
       </c>
       <c r="AD29" s="6">
         <v>4</v>
       </c>
       <c r="AE29" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
         <v>5</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AH29" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>106004</v>
       </c>
@@ -4632,30 +4877,33 @@
         <v>1</v>
       </c>
       <c r="AA30" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB30" s="8">
         <v>1</v>
       </c>
       <c r="AC30" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD30" s="8">
         <v>4</v>
       </c>
       <c r="AE30" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
         <v>5</v>
       </c>
-      <c r="AG30" s="8">
+      <c r="AH30" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>107001</v>
       </c>
@@ -4702,30 +4950,33 @@
         <v>1</v>
       </c>
       <c r="AA31" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB31" s="6">
         <v>1</v>
       </c>
-      <c r="AC31" s="6">
-        <v>4</v>
+      <c r="AC31" s="21">
+        <v>1</v>
       </c>
       <c r="AD31" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE31" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>107002</v>
       </c>
@@ -4772,30 +5023,33 @@
         <v>1</v>
       </c>
       <c r="AA32" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB32" s="8">
         <v>1</v>
       </c>
       <c r="AC32" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="8">
         <v>4</v>
       </c>
       <c r="AE32" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
         <v>5</v>
       </c>
-      <c r="AG32" s="8">
+      <c r="AH32" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>107003</v>
       </c>
@@ -4847,25 +5101,28 @@
       <c r="AB33" s="6">
         <v>1</v>
       </c>
-      <c r="AC33" s="6">
-        <v>4</v>
+      <c r="AC33" s="21">
+        <v>2</v>
       </c>
       <c r="AD33" s="6">
         <v>4</v>
       </c>
       <c r="AE33" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
         <v>5</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AH33" s="6">
         <v>1010011</v>
       </c>
-      <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>107004</v>
       </c>
@@ -4912,35 +5169,39 @@
         <v>1</v>
       </c>
       <c r="AA34" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB34" s="8">
         <v>1</v>
       </c>
       <c r="AC34" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="8">
         <v>4</v>
       </c>
       <c r="AE34" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
         <v>5</v>
       </c>
-      <c r="AG34" s="8">
+      <c r="AH34" s="8">
         <v>1010011</v>
       </c>
-      <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173D322-D86B-4DC4-9220-E5F7391AD114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFF686-757B-45F4-B38E-DD3D39292B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,13 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-选定空间
-2-选定自身
-3-友军单体
-4-敌军单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主目标类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,11 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-从自身
-2-从目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillLaunch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +663,18 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自身周围
+1-选定空间
+2-友军单体
+3-敌军单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-以自身
+2-以目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2306,14 +2306,14 @@
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
-    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2596,8 +2596,8 @@
     <col min="13" max="20" width="10.625" style="1"/>
     <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
     <col min="24" max="30" width="10.625" style="1"/>
-    <col min="31" max="33" width="12.125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="10.625" style="1"/>
   </cols>
@@ -2613,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>5</v>
@@ -2625,37 +2625,37 @@
         <v>15</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>50</v>
@@ -2664,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>19</v>
@@ -2682,34 +2682,34 @@
         <v>33</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" s="15" t="s">
-        <v>130</v>
-      </c>
       <c r="AG1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -2730,89 +2730,89 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -2823,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -2835,35 +2835,35 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>30</v>
@@ -2894,7 +2894,7 @@
         <v>40</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>41</v>
@@ -2909,7 +2909,7 @@
         <v>39</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -2922,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -2934,41 +2934,41 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
@@ -2993,7 +2993,7 @@
         <v>29</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>44</v>
@@ -3008,14 +3008,14 @@
         <v>47</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3072,19 +3072,19 @@
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>23</v>
@@ -3094,59 +3094,59 @@
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="6">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="AD8" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="8">
         <v>4</v>
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="6">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="AD10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="8">
         <v>4</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="AD11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="6">
         <v>4</v>
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="8">
         <v>4</v>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="6">
         <v>4</v>
@@ -3718,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="AD14" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="8">
         <v>4</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="6">
         <v>2</v>
@@ -3864,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="8">
         <v>4</v>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="6">
         <v>4</v>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="AD18" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="8">
         <v>4</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="AD19" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="6">
         <v>2</v>
@@ -4156,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="8">
         <v>4</v>
@@ -4229,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE21" s="6">
         <v>4</v>
@@ -4302,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="AD22" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="8">
         <v>4</v>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="AD23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="6">
         <v>2</v>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="AD24" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="8">
         <v>4</v>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="AD25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" s="6">
         <v>4</v>
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="AD26" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" s="8">
         <v>4</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AD27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" s="6">
         <v>2</v>
@@ -4740,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="AD28" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" s="8">
         <v>4</v>
@@ -4813,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="AD29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="6">
         <v>4</v>
@@ -4886,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="AD30" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" s="8">
         <v>4</v>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="AD31" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE31" s="6">
         <v>2</v>
@@ -5032,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="AD32" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="8">
         <v>4</v>
@@ -5105,7 +5105,7 @@
         <v>2</v>
       </c>
       <c r="AD33" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE33" s="6">
         <v>4</v>
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="AD34" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE34" s="8">
         <v>4</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFF686-757B-45F4-B38E-DD3D39292B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2028FC4-3A37-4D1C-8033-A0589910380E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -2306,14 +2306,14 @@
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
-    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="0"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2595,11 +2595,11 @@
     <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
     <col min="13" max="20" width="10.625" style="1"/>
     <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
-    <col min="24" max="30" width="10.625" style="1"/>
-    <col min="31" max="32" width="12.125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.625" style="1"/>
+    <col min="24" max="31" width="10.625" style="1"/>
+    <col min="32" max="33" width="12.125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
@@ -2688,10 +2688,10 @@
         <v>53</v>
       </c>
       <c r="AC1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="AE1" s="15" t="s">
         <v>128</v>
@@ -2791,10 +2791,10 @@
         <v>90</v>
       </c>
       <c r="AC2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>89</v>
@@ -2894,10 +2894,10 @@
         <v>40</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="AE3" s="7" t="s">
         <v>42</v>
@@ -2993,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="AC4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="AE4" s="7" t="s">
         <v>45</v>
@@ -3131,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="AC6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="AE6" s="7" t="s">
         <v>96</v>
@@ -3204,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="AC7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6">
         <v>3</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>1</v>
       </c>
       <c r="AE7" s="6">
         <v>2</v>
@@ -3277,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="AC8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="8">
         <v>4</v>
@@ -3350,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="AC9" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="6">
         <v>3</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>2</v>
       </c>
       <c r="AE9" s="6">
         <v>4</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="AC10" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="8">
         <v>4</v>
@@ -3496,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="AC11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="6">
         <v>3</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>1</v>
       </c>
       <c r="AE11" s="6">
         <v>4</v>
@@ -3569,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="8">
         <v>4</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="AC13" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="6">
         <v>3</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>2</v>
       </c>
       <c r="AE13" s="6">
         <v>4</v>
@@ -3715,10 +3715,10 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="8">
         <v>4</v>
@@ -3788,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="AC15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="6">
         <v>3</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>1</v>
       </c>
       <c r="AE15" s="6">
         <v>2</v>
@@ -3861,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="AC16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="8">
         <v>4</v>
@@ -3934,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="AC17" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="6">
         <v>3</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>2</v>
       </c>
       <c r="AE17" s="6">
         <v>4</v>
@@ -4007,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="AC18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="8">
         <v>4</v>
@@ -4080,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="AC19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="6">
         <v>3</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>1</v>
       </c>
       <c r="AE19" s="6">
         <v>2</v>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AC20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="8">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="AC21" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="6">
         <v>3</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>2</v>
       </c>
       <c r="AE21" s="6">
         <v>4</v>
@@ -4299,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AC22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22" s="8">
         <v>4</v>
@@ -4372,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="AC23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6">
         <v>3</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>1</v>
       </c>
       <c r="AE23" s="6">
         <v>2</v>
@@ -4445,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="AC24" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="8">
         <v>4</v>
@@ -4518,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="AC25" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="6">
         <v>3</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>2</v>
       </c>
       <c r="AE25" s="6">
         <v>4</v>
@@ -4591,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="AC26" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="8">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="AC27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
         <v>3</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>1</v>
       </c>
       <c r="AE27" s="6">
         <v>2</v>
@@ -4737,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="AC28" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="8">
         <v>4</v>
@@ -4810,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="AC29" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="6">
         <v>3</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>2</v>
       </c>
       <c r="AE29" s="6">
         <v>4</v>
@@ -4883,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="AC30" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD30" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="8">
         <v>4</v>
@@ -4956,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="AC31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="6">
         <v>3</v>
+      </c>
+      <c r="AD31" s="21">
+        <v>1</v>
       </c>
       <c r="AE31" s="6">
         <v>2</v>
@@ -5029,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="AC32" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD32" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE32" s="8">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="AC33" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="6">
         <v>3</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>2</v>
       </c>
       <c r="AE33" s="6">
         <v>4</v>
@@ -5175,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="AC34" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD34" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="8">
         <v>4</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2028FC4-3A37-4D1C-8033-A0589910380E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFF686-757B-45F4-B38E-DD3D39292B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -2306,14 +2306,14 @@
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="0"/>
-    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{5457B104-DB84-4AFB-86B6-8E837635CACE}" name="技能效果" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{C8756896-E46D-4763-9CAA-7FE80B81D848}" name="引导技能_x000a_跳数" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{0F0F19EC-5984-4308-A14D-39F32E66077B}" name="引导技能_x000a_间隔" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2595,11 +2595,11 @@
     <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
     <col min="13" max="20" width="10.625" style="1"/>
     <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
-    <col min="24" max="31" width="10.625" style="1"/>
-    <col min="32" max="33" width="12.125" style="1" customWidth="1"/>
-    <col min="34" max="35" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.625" style="1"/>
+    <col min="24" max="30" width="10.625" style="1"/>
+    <col min="31" max="32" width="12.125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
@@ -2688,10 +2688,10 @@
         <v>53</v>
       </c>
       <c r="AC1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="AE1" s="15" t="s">
         <v>128</v>
@@ -2791,10 +2791,10 @@
         <v>90</v>
       </c>
       <c r="AC2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>89</v>
@@ -2894,10 +2894,10 @@
         <v>40</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="AE3" s="7" t="s">
         <v>42</v>
@@ -2993,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="AC4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="AE4" s="7" t="s">
         <v>45</v>
@@ -3131,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="AC6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="AE6" s="7" t="s">
         <v>96</v>
@@ -3204,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="AC7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6">
         <v>3</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>1</v>
       </c>
       <c r="AE7" s="6">
         <v>2</v>
@@ -3277,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="AC8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="8">
         <v>3</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>2</v>
       </c>
       <c r="AE8" s="8">
         <v>4</v>
@@ -3350,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="AC9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="6">
         <v>3</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>2</v>
       </c>
       <c r="AE9" s="6">
         <v>4</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="AC10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="8">
         <v>3</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>2</v>
       </c>
       <c r="AE10" s="8">
         <v>4</v>
@@ -3496,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="AC11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="6">
         <v>3</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>1</v>
       </c>
       <c r="AE11" s="6">
         <v>4</v>
@@ -3569,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="8">
         <v>3</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>2</v>
       </c>
       <c r="AE12" s="8">
         <v>4</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="AC13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="6">
         <v>3</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>2</v>
       </c>
       <c r="AE13" s="6">
         <v>4</v>
@@ -3715,10 +3715,10 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="8">
         <v>3</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>2</v>
       </c>
       <c r="AE14" s="8">
         <v>4</v>
@@ -3788,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="AC15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6">
         <v>3</v>
-      </c>
-      <c r="AD15" s="21">
-        <v>1</v>
       </c>
       <c r="AE15" s="6">
         <v>2</v>
@@ -3861,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="AC16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="8">
         <v>3</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>2</v>
       </c>
       <c r="AE16" s="8">
         <v>4</v>
@@ -3934,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="AC17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="6">
         <v>3</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>2</v>
       </c>
       <c r="AE17" s="6">
         <v>4</v>
@@ -4007,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="AC18" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="8">
         <v>3</v>
-      </c>
-      <c r="AD18" s="8">
-        <v>2</v>
       </c>
       <c r="AE18" s="8">
         <v>4</v>
@@ -4080,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="AC19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="6">
         <v>3</v>
-      </c>
-      <c r="AD19" s="21">
-        <v>1</v>
       </c>
       <c r="AE19" s="6">
         <v>2</v>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AC20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="8">
         <v>3</v>
-      </c>
-      <c r="AD20" s="8">
-        <v>2</v>
       </c>
       <c r="AE20" s="8">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="AC21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="6">
         <v>3</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>2</v>
       </c>
       <c r="AE21" s="6">
         <v>4</v>
@@ -4299,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AC22" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="8">
         <v>3</v>
-      </c>
-      <c r="AD22" s="8">
-        <v>2</v>
       </c>
       <c r="AE22" s="8">
         <v>4</v>
@@ -4372,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="AC23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="6">
         <v>3</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>1</v>
       </c>
       <c r="AE23" s="6">
         <v>2</v>
@@ -4445,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="AC24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="8">
         <v>3</v>
-      </c>
-      <c r="AD24" s="8">
-        <v>2</v>
       </c>
       <c r="AE24" s="8">
         <v>4</v>
@@ -4518,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="AC25" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="6">
         <v>3</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>2</v>
       </c>
       <c r="AE25" s="6">
         <v>4</v>
@@ -4591,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="AC26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="8">
         <v>3</v>
-      </c>
-      <c r="AD26" s="8">
-        <v>2</v>
       </c>
       <c r="AE26" s="8">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="AC27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="6">
         <v>3</v>
-      </c>
-      <c r="AD27" s="21">
-        <v>1</v>
       </c>
       <c r="AE27" s="6">
         <v>2</v>
@@ -4737,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="AC28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="8">
         <v>3</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>2</v>
       </c>
       <c r="AE28" s="8">
         <v>4</v>
@@ -4810,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="AC29" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="6">
         <v>3</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>2</v>
       </c>
       <c r="AE29" s="6">
         <v>4</v>
@@ -4883,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="AC30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="8">
         <v>3</v>
-      </c>
-      <c r="AD30" s="8">
-        <v>2</v>
       </c>
       <c r="AE30" s="8">
         <v>4</v>
@@ -4956,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="AC31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="6">
         <v>3</v>
-      </c>
-      <c r="AD31" s="21">
-        <v>1</v>
       </c>
       <c r="AE31" s="6">
         <v>2</v>
@@ -5029,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="AC32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="8">
         <v>3</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>2</v>
       </c>
       <c r="AE32" s="8">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="AC33" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="6">
         <v>3</v>
-      </c>
-      <c r="AD33" s="21">
-        <v>2</v>
       </c>
       <c r="AE33" s="6">
         <v>4</v>
@@ -5175,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="AC34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="8">
         <v>3</v>
-      </c>
-      <c r="AD34" s="8">
-        <v>2</v>
       </c>
       <c r="AE34" s="8">
         <v>4</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFF686-757B-45F4-B38E-DD3D39292B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0F2E65-C0C0-46DB-9283-BECF2D652783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,11 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>距离目标多远使用技能
-近战&lt;目标长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否弹道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +670,47 @@
   <si>
     <t>1-以自身
 2-以目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能过程动作的时长，后期在timeline里配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离目标多远使用技能
+近战&lt;目标长
+0-表示不限距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +964,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -1502,6 +1538,43 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2275,17 +2348,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AJ34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="C1:AJ34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="29"/>
-    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AK34" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="C1:AK34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="30"/>
+    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{D79C255C-C536-4BD4-9DD7-4FB6CCABA651}" name="动作时长" dataDxfId="26"/>
     <tableColumn id="33" xr3:uid="{6E7D3F46-4A3D-4D38-B359-FE07A4079767}" name="命中消息点" dataDxfId="25"/>
     <tableColumn id="32" xr3:uid="{38F5469B-B50A-447A-94E2-227AAA95BA4B}" name="被击动作编号" dataDxfId="24"/>
     <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="23"/>
@@ -2306,8 +2380,8 @@
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
-    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="7"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="5"/>
     <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="4"/>
     <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
@@ -2582,27 +2656,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.625" style="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="20" width="10.625" style="1"/>
-    <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
-    <col min="24" max="30" width="10.625" style="1"/>
-    <col min="31" max="32" width="12.125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.625" style="1"/>
+    <col min="1" max="11" width="10.625" style="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="21" width="10.625" style="1"/>
+    <col min="22" max="24" width="11.75" style="1" customWidth="1"/>
+    <col min="25" max="27" width="10.625" style="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="10.625" style="1"/>
+    <col min="33" max="34" width="12.125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2634,85 +2710,88 @@
         <v>73</v>
       </c>
       <c r="K1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>54</v>
       </c>
       <c r="AE1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AF1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2739,83 +2818,86 @@
         <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>103</v>
+      <c r="P2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="AB2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="AD2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AK2" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2844,77 +2926,80 @@
         <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AE3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2943,77 +3028,80 @@
         <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AE4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
@@ -3051,8 +3139,9 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3081,37 +3170,37 @@
         <v>71</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
         <v>96</v>
       </c>
@@ -3122,36 +3211,39 @@
         <v>96</v>
       </c>
       <c r="Z6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AC6" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AF6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="AG6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AI6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C7" s="12">
         <v>101001</v>
       </c>
@@ -3161,10 +3253,16 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -3172,22 +3270,20 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
+      <c r="S7" s="6"/>
       <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
         <v>0.5</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>10</v>
       </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
       <c r="X7" s="6">
         <v>0</v>
       </c>
@@ -3195,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="6">
         <v>1</v>
@@ -3203,28 +3299,31 @@
       <c r="AB7" s="6">
         <v>1</v>
       </c>
-      <c r="AC7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6">
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="21">
         <v>3</v>
       </c>
-      <c r="AE7" s="6">
-        <v>2</v>
+      <c r="AE7" s="21">
+        <v>1</v>
       </c>
       <c r="AF7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" s="13">
         <v>101002</v>
       </c>
@@ -3234,10 +3333,16 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -3245,59 +3350,60 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="8">
-        <v>2</v>
-      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
+        <v>2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>20</v>
       </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
       <c r="X8" s="8">
         <v>0</v>
       </c>
       <c r="Y8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="8">
         <v>1</v>
       </c>
       <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
         <v>8</v>
       </c>
-      <c r="AB8" s="8">
-        <v>1</v>
-      </c>
       <c r="AC8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="8">
         <v>3</v>
       </c>
       <c r="AE8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="8">
         <v>4</v>
       </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
       <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
         <v>5</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AI8" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <v>101003</v>
       </c>
@@ -3307,10 +3413,16 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -3318,59 +3430,60 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
         <v>3</v>
       </c>
-      <c r="T9" s="6">
-        <v>2</v>
-      </c>
       <c r="U9" s="6">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>-100</v>
       </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
       <c r="X9" s="6">
         <v>0</v>
       </c>
       <c r="Y9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="21">
         <v>3</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="6">
         <v>4</v>
       </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
       <c r="AG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
         <v>5</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AI9" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C10" s="13">
         <v>101004</v>
       </c>
@@ -3380,10 +3493,16 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -3391,59 +3510,60 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>4</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>0.2</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
       <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
         <v>20</v>
       </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
       <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z10" s="8">
-        <v>1</v>
-      </c>
       <c r="AA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8">
         <v>18</v>
       </c>
-      <c r="AB10" s="8">
-        <v>1</v>
-      </c>
       <c r="AC10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="8">
         <v>3</v>
       </c>
       <c r="AE10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="8">
         <v>4</v>
       </c>
-      <c r="AF10" s="8">
-        <v>0</v>
-      </c>
       <c r="AG10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
         <v>5</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AI10" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <v>102001</v>
       </c>
@@ -3453,10 +3573,16 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -3464,22 +3590,20 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
+      <c r="S11" s="6"/>
       <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
         <v>0.5</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>10</v>
       </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
       <c r="X11" s="6">
         <v>0</v>
       </c>
@@ -3487,36 +3611,39 @@
         <v>0</v>
       </c>
       <c r="Z11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="21">
         <v>3</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="6">
         <v>4</v>
       </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
       <c r="AG11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="13">
         <v>102002</v>
       </c>
@@ -3526,10 +3653,16 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -3537,59 +3670,60 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="8">
-        <v>2</v>
-      </c>
+      <c r="S12" s="8"/>
       <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
+        <v>2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>20</v>
       </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
       <c r="X12" s="8">
         <v>0</v>
       </c>
       <c r="Y12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="8">
         <v>1</v>
       </c>
       <c r="AA12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8">
         <v>8</v>
       </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
       <c r="AC12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="8">
         <v>3</v>
       </c>
       <c r="AE12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="8">
         <v>4</v>
       </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
       <c r="AG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
         <v>5</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AI12" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C13" s="12">
         <v>102003</v>
       </c>
@@ -3599,10 +3733,16 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3610,59 +3750,60 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6">
         <v>3</v>
       </c>
-      <c r="T13" s="6">
-        <v>2</v>
-      </c>
       <c r="U13" s="6">
+        <v>2</v>
+      </c>
+      <c r="V13" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="6">
         <v>-100</v>
       </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
       <c r="X13" s="6">
         <v>0</v>
       </c>
       <c r="Y13" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="21">
         <v>3</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="6">
         <v>4</v>
       </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
       <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
         <v>5</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AI13" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C14" s="13">
         <v>102004</v>
       </c>
@@ -3672,10 +3813,16 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -3683,59 +3830,60 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="8">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8">
         <v>4</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
         <v>0.2</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
       <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
         <v>20</v>
       </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
       <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z14" s="8">
-        <v>1</v>
-      </c>
       <c r="AA14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="8">
         <v>18</v>
       </c>
-      <c r="AB14" s="8">
-        <v>1</v>
-      </c>
       <c r="AC14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="8">
         <v>3</v>
       </c>
       <c r="AE14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="8">
         <v>4</v>
       </c>
-      <c r="AF14" s="8">
-        <v>0</v>
-      </c>
       <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
         <v>5</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AI14" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C15" s="12">
         <v>103001</v>
       </c>
@@ -3745,10 +3893,16 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -3756,22 +3910,20 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
+      <c r="S15" s="6"/>
       <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
         <v>0.5</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="6">
         <v>10</v>
       </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
       <c r="X15" s="6">
         <v>0</v>
       </c>
@@ -3779,36 +3931,39 @@
         <v>0</v>
       </c>
       <c r="Z15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="6">
         <v>11</v>
       </c>
-      <c r="AB15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="6">
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="21">
         <v>3</v>
       </c>
-      <c r="AE15" s="6">
-        <v>2</v>
+      <c r="AE15" s="21">
+        <v>1</v>
       </c>
       <c r="AF15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C16" s="13">
         <v>103002</v>
       </c>
@@ -3818,10 +3973,16 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -3829,59 +3990,60 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8">
-        <v>2</v>
-      </c>
+      <c r="S16" s="8"/>
       <c r="T16" s="8">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
+        <v>2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>20</v>
       </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
       <c r="X16" s="8">
         <v>0</v>
       </c>
       <c r="Y16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="8">
         <v>1</v>
       </c>
       <c r="AA16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="8">
         <v>14</v>
       </c>
-      <c r="AB16" s="8">
-        <v>1</v>
-      </c>
       <c r="AC16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="8">
         <v>3</v>
       </c>
       <c r="AE16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="8">
         <v>4</v>
       </c>
-      <c r="AF16" s="8">
-        <v>0</v>
-      </c>
       <c r="AG16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8">
         <v>5</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AI16" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>103003</v>
       </c>
@@ -3891,10 +4053,16 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -3902,59 +4070,60 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
         <v>3</v>
       </c>
-      <c r="T17" s="6">
-        <v>2</v>
-      </c>
       <c r="U17" s="6">
+        <v>2</v>
+      </c>
+      <c r="V17" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="6">
+      <c r="W17" s="6">
         <v>-100</v>
       </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
       <c r="X17" s="6">
         <v>0</v>
       </c>
       <c r="Y17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="21">
         <v>3</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AE17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="6">
         <v>4</v>
       </c>
-      <c r="AF17" s="6">
-        <v>0</v>
-      </c>
       <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
         <v>5</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AI17" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>103004</v>
       </c>
@@ -3964,10 +4133,16 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -3975,59 +4150,60 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
         <v>4</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>0.2</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V18" s="8">
-        <v>0</v>
-      </c>
       <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
         <v>20</v>
       </c>
-      <c r="X18" s="8">
-        <v>0</v>
-      </c>
       <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z18" s="8">
-        <v>1</v>
-      </c>
       <c r="AA18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="8">
         <v>18</v>
       </c>
-      <c r="AB18" s="8">
-        <v>1</v>
-      </c>
       <c r="AC18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="8">
         <v>3</v>
       </c>
       <c r="AE18" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="8">
         <v>4</v>
       </c>
-      <c r="AF18" s="8">
-        <v>0</v>
-      </c>
       <c r="AG18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8">
         <v>5</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AI18" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>104001</v>
       </c>
@@ -4037,10 +4213,16 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -4048,22 +4230,20 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <v>1</v>
-      </c>
+      <c r="S19" s="6"/>
       <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
         <v>0.5</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V19" s="6">
+      <c r="W19" s="6">
         <v>10</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
       <c r="X19" s="6">
         <v>0</v>
       </c>
@@ -4071,36 +4251,39 @@
         <v>0</v>
       </c>
       <c r="Z19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
         <v>10</v>
       </c>
-      <c r="AB19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="6">
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="21">
         <v>3</v>
       </c>
-      <c r="AE19" s="6">
-        <v>2</v>
+      <c r="AE19" s="21">
+        <v>1</v>
       </c>
       <c r="AF19" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>104002</v>
       </c>
@@ -4110,10 +4293,16 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="J20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -4121,59 +4310,60 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8">
-        <v>2</v>
-      </c>
+      <c r="S20" s="8"/>
       <c r="T20" s="8">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6">
+        <v>2</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V20" s="8">
+      <c r="W20" s="8">
         <v>20</v>
       </c>
-      <c r="W20" s="8">
-        <v>0</v>
-      </c>
       <c r="X20" s="8">
         <v>0</v>
       </c>
       <c r="Y20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="8">
         <v>1</v>
       </c>
       <c r="AA20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="8">
         <v>14</v>
       </c>
-      <c r="AB20" s="8">
-        <v>1</v>
-      </c>
       <c r="AC20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="8">
         <v>3</v>
       </c>
       <c r="AE20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="8">
         <v>4</v>
       </c>
-      <c r="AF20" s="8">
-        <v>0</v>
-      </c>
       <c r="AG20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8">
         <v>5</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AI20" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>104003</v>
       </c>
@@ -4183,10 +4373,16 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -4194,59 +4390,60 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6">
         <v>3</v>
       </c>
-      <c r="T21" s="6">
-        <v>2</v>
-      </c>
       <c r="U21" s="6">
+        <v>2</v>
+      </c>
+      <c r="V21" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="6">
         <v>-100</v>
       </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
       <c r="X21" s="6">
         <v>0</v>
       </c>
       <c r="Y21" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="21">
         <v>3</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AE21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="6">
         <v>4</v>
       </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
       <c r="AG21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6">
         <v>5</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AI21" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>104004</v>
       </c>
@@ -4256,10 +4453,16 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -4267,59 +4470,60 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8">
         <v>4</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <v>0.2</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V22" s="8">
-        <v>0</v>
-      </c>
       <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
         <v>20</v>
       </c>
-      <c r="X22" s="8">
-        <v>0</v>
-      </c>
       <c r="Y22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z22" s="8">
-        <v>1</v>
-      </c>
       <c r="AA22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="8">
         <v>18</v>
       </c>
-      <c r="AB22" s="8">
-        <v>1</v>
-      </c>
       <c r="AC22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="8">
         <v>3</v>
       </c>
       <c r="AE22" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="8">
         <v>4</v>
       </c>
-      <c r="AF22" s="8">
-        <v>0</v>
-      </c>
       <c r="AG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
         <v>5</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AI22" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>105001</v>
       </c>
@@ -4329,10 +4533,16 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -4340,22 +4550,20 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <v>1</v>
-      </c>
+      <c r="S23" s="6"/>
       <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
         <v>0.5</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>10</v>
       </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
       <c r="X23" s="6">
         <v>0</v>
       </c>
@@ -4363,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="6">
         <v>1</v>
@@ -4371,28 +4579,31 @@
       <c r="AB23" s="6">
         <v>1</v>
       </c>
-      <c r="AC23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6">
+      <c r="AC23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="21">
         <v>3</v>
       </c>
-      <c r="AE23" s="6">
-        <v>2</v>
+      <c r="AE23" s="21">
+        <v>1</v>
       </c>
       <c r="AF23" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>105002</v>
       </c>
@@ -4402,10 +4613,16 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4413,59 +4630,60 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="8">
-        <v>2</v>
-      </c>
+      <c r="S24" s="8"/>
       <c r="T24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>20</v>
       </c>
-      <c r="W24" s="8">
-        <v>0</v>
-      </c>
       <c r="X24" s="8">
         <v>0</v>
       </c>
       <c r="Y24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="8">
         <v>1</v>
       </c>
       <c r="AA24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="8">
         <v>8</v>
       </c>
-      <c r="AB24" s="8">
-        <v>1</v>
-      </c>
       <c r="AC24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="8">
         <v>3</v>
       </c>
       <c r="AE24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="8">
         <v>4</v>
       </c>
-      <c r="AF24" s="8">
-        <v>0</v>
-      </c>
       <c r="AG24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
         <v>5</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AI24" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>105003</v>
       </c>
@@ -4475,10 +4693,16 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -4486,59 +4710,60 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6">
         <v>3</v>
       </c>
-      <c r="T25" s="6">
-        <v>2</v>
-      </c>
       <c r="U25" s="6">
+        <v>2</v>
+      </c>
+      <c r="V25" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>-100</v>
       </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
       <c r="X25" s="6">
         <v>0</v>
       </c>
       <c r="Y25" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="21">
         <v>3</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AE25" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="6">
         <v>4</v>
       </c>
-      <c r="AF25" s="6">
-        <v>0</v>
-      </c>
       <c r="AG25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
         <v>5</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AI25" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>105004</v>
       </c>
@@ -4548,10 +4773,16 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="J26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -4559,59 +4790,60 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="8">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
         <v>4</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
         <v>0.2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V26" s="8">
-        <v>0</v>
-      </c>
       <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
         <v>20</v>
       </c>
-      <c r="X26" s="8">
-        <v>0</v>
-      </c>
       <c r="Y26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z26" s="8">
-        <v>1</v>
-      </c>
       <c r="AA26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="8">
         <v>18</v>
       </c>
-      <c r="AB26" s="8">
-        <v>1</v>
-      </c>
       <c r="AC26" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="8">
         <v>3</v>
       </c>
       <c r="AE26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="8">
         <v>4</v>
       </c>
-      <c r="AF26" s="8">
-        <v>0</v>
-      </c>
       <c r="AG26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8">
         <v>5</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AI26" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>106001</v>
       </c>
@@ -4621,10 +4853,16 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -4632,22 +4870,20 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
-        <v>1</v>
-      </c>
+      <c r="S27" s="6"/>
       <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
         <v>0.5</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>10</v>
       </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
       <c r="X27" s="6">
         <v>0</v>
       </c>
@@ -4655,36 +4891,39 @@
         <v>0</v>
       </c>
       <c r="Z27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="6">
         <v>11</v>
       </c>
-      <c r="AB27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="21">
         <v>3</v>
       </c>
-      <c r="AE27" s="6">
-        <v>2</v>
+      <c r="AE27" s="21">
+        <v>1</v>
       </c>
       <c r="AF27" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>106002</v>
       </c>
@@ -4694,10 +4933,16 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="J28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -4705,59 +4950,60 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="8">
-        <v>2</v>
-      </c>
+      <c r="S28" s="8"/>
       <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="6">
+        <v>2</v>
+      </c>
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <v>20</v>
       </c>
-      <c r="W28" s="8">
-        <v>0</v>
-      </c>
       <c r="X28" s="8">
         <v>0</v>
       </c>
       <c r="Y28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="8">
         <v>1</v>
       </c>
       <c r="AA28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="8">
         <v>14</v>
       </c>
-      <c r="AB28" s="8">
-        <v>1</v>
-      </c>
       <c r="AC28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="8">
         <v>3</v>
       </c>
       <c r="AE28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="8">
         <v>4</v>
       </c>
-      <c r="AF28" s="8">
-        <v>0</v>
-      </c>
       <c r="AG28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
         <v>5</v>
       </c>
-      <c r="AH28" s="8">
+      <c r="AI28" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>106003</v>
       </c>
@@ -4767,10 +5013,16 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4778,59 +5030,60 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6">
         <v>3</v>
       </c>
-      <c r="T29" s="6">
-        <v>2</v>
-      </c>
       <c r="U29" s="6">
+        <v>2</v>
+      </c>
+      <c r="V29" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V29" s="6">
+      <c r="W29" s="6">
         <v>-100</v>
       </c>
-      <c r="W29" s="6">
-        <v>0</v>
-      </c>
       <c r="X29" s="6">
         <v>0</v>
       </c>
       <c r="Y29" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="21">
         <v>3</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AE29" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="6">
         <v>4</v>
       </c>
-      <c r="AF29" s="6">
-        <v>0</v>
-      </c>
       <c r="AG29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="6">
         <v>5</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AI29" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>106004</v>
       </c>
@@ -4840,10 +5093,16 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="J30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -4851,59 +5110,60 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="8">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
         <v>4</v>
       </c>
-      <c r="T30" s="8">
+      <c r="U30" s="8">
         <v>0.2</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
       <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
         <v>20</v>
       </c>
-      <c r="X30" s="8">
-        <v>0</v>
-      </c>
       <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z30" s="8">
-        <v>1</v>
-      </c>
       <c r="AA30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="8">
         <v>18</v>
       </c>
-      <c r="AB30" s="8">
-        <v>1</v>
-      </c>
       <c r="AC30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="8">
         <v>3</v>
       </c>
       <c r="AE30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="8">
         <v>4</v>
       </c>
-      <c r="AF30" s="8">
-        <v>0</v>
-      </c>
       <c r="AG30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
         <v>5</v>
       </c>
-      <c r="AH30" s="8">
+      <c r="AI30" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>107001</v>
       </c>
@@ -4913,10 +5173,16 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4924,22 +5190,20 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6">
-        <v>1</v>
-      </c>
+      <c r="S31" s="6"/>
       <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6">
         <v>0.5</v>
       </c>
-      <c r="U31" s="6">
+      <c r="V31" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>10</v>
       </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
       <c r="X31" s="6">
         <v>0</v>
       </c>
@@ -4947,36 +5211,39 @@
         <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="6">
         <v>11</v>
       </c>
-      <c r="AB31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="6">
+      <c r="AC31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="21">
         <v>3</v>
       </c>
-      <c r="AE31" s="6">
-        <v>2</v>
+      <c r="AE31" s="21">
+        <v>1</v>
       </c>
       <c r="AF31" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
     </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>107002</v>
       </c>
@@ -4986,10 +5253,16 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="J32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -4997,59 +5270,60 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="8">
-        <v>2</v>
-      </c>
+      <c r="S32" s="8"/>
       <c r="T32" s="8">
-        <v>1</v>
-      </c>
-      <c r="U32" s="6">
+        <v>2</v>
+      </c>
+      <c r="U32" s="8">
+        <v>1</v>
+      </c>
+      <c r="V32" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>20</v>
       </c>
-      <c r="W32" s="8">
-        <v>0</v>
-      </c>
       <c r="X32" s="8">
         <v>0</v>
       </c>
       <c r="Y32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="8">
         <v>1</v>
       </c>
       <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="8">
         <v>14</v>
       </c>
-      <c r="AB32" s="8">
-        <v>1</v>
-      </c>
       <c r="AC32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="8">
         <v>3</v>
       </c>
       <c r="AE32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="8">
         <v>4</v>
       </c>
-      <c r="AF32" s="8">
-        <v>0</v>
-      </c>
       <c r="AG32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8">
         <v>5</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AI32" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>107003</v>
       </c>
@@ -5059,10 +5333,16 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="6">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -5070,59 +5350,60 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>3</v>
       </c>
-      <c r="T33" s="6">
-        <v>2</v>
-      </c>
       <c r="U33" s="6">
+        <v>2</v>
+      </c>
+      <c r="V33" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>-100</v>
       </c>
-      <c r="W33" s="6">
-        <v>0</v>
-      </c>
       <c r="X33" s="6">
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="21">
         <v>3</v>
       </c>
-      <c r="AE33" s="6">
+      <c r="AE33" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="6">
         <v>4</v>
       </c>
-      <c r="AF33" s="6">
-        <v>0</v>
-      </c>
       <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
         <v>5</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AI33" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>107004</v>
       </c>
@@ -5132,10 +5413,16 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="8">
+        <v>7.3330000000000002</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -5143,57 +5430,58 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="8">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8">
         <v>4</v>
       </c>
-      <c r="T34" s="8">
+      <c r="U34" s="8">
         <v>0.2</v>
       </c>
-      <c r="U34" s="6">
+      <c r="V34" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
       <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
         <v>20</v>
       </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
       <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z34" s="8">
-        <v>1</v>
-      </c>
       <c r="AA34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="8">
         <v>18</v>
       </c>
-      <c r="AB34" s="8">
-        <v>1</v>
-      </c>
       <c r="AC34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="8">
         <v>3</v>
       </c>
       <c r="AE34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="8">
         <v>4</v>
       </c>
-      <c r="AF34" s="8">
-        <v>0</v>
-      </c>
       <c r="AG34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="8">
         <v>5</v>
       </c>
-      <c r="AH34" s="8">
+      <c r="AI34" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0F2E65-C0C0-46DB-9283-BECF2D652783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EFF22-00F7-4D53-90B9-AB3FEEE0C031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="152">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,34 @@
     <t>距离目标多远使用技能
 近战&lt;目标长
 0-表示不限距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.767,1.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8,1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8667,1.333,1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk4,bk5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk3,bk5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,6 +986,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2658,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3263,8 +3294,12 @@
       <c r="K7" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3343,8 +3378,12 @@
       <c r="K8" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -3423,8 +3462,12 @@
       <c r="K9" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -3503,8 +3546,12 @@
       <c r="K10" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -3583,8 +3630,12 @@
       <c r="K11" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -3663,8 +3714,12 @@
       <c r="K12" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -3743,8 +3798,12 @@
       <c r="K13" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -3823,8 +3882,12 @@
       <c r="K14" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -3903,8 +3966,12 @@
       <c r="K15" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3983,8 +4050,12 @@
       <c r="K16" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -4063,8 +4134,12 @@
       <c r="K17" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -4143,8 +4218,12 @@
       <c r="K18" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -4223,8 +4302,12 @@
       <c r="K19" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -4303,8 +4386,12 @@
       <c r="K20" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -4383,8 +4470,12 @@
       <c r="K21" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -4463,8 +4554,12 @@
       <c r="K22" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="L22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -4543,8 +4638,12 @@
       <c r="K23" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -4623,8 +4722,12 @@
       <c r="K24" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -4703,8 +4806,12 @@
       <c r="K25" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -4783,8 +4890,12 @@
       <c r="K26" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="L26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -4863,8 +4974,12 @@
       <c r="K27" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -4943,8 +5058,12 @@
       <c r="K28" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -5023,8 +5142,12 @@
       <c r="K29" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -5103,8 +5226,12 @@
       <c r="K30" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="L30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -5183,8 +5310,12 @@
       <c r="K31" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -5263,8 +5394,12 @@
       <c r="K32" s="8">
         <v>2.8330000000000002</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="L32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -5343,8 +5478,12 @@
       <c r="K33" s="6">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -5423,8 +5562,12 @@
       <c r="K34" s="8">
         <v>7.3330000000000002</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="L34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\worksapce\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5BF65B-1C0C-48BA-945E-ECE1ABB910B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -89,33 +88,6 @@
   </si>
   <si>
     <t>ACT条动作</t>
-  </si>
-  <si>
-    <t>前摇动作</t>
-  </si>
-  <si>
-    <t>技能动作</t>
-  </si>
-  <si>
-    <t>动作时长</t>
-  </si>
-  <si>
-    <t>后摇动作</t>
-  </si>
-  <si>
-    <t>技能动画</t>
-  </si>
-  <si>
-    <t>弹道初始位置</t>
-  </si>
-  <si>
-    <t>插槽ID</t>
-  </si>
-  <si>
-    <t>是否弹道</t>
-  </si>
-  <si>
-    <t>子弹速度</t>
   </si>
   <si>
     <t>目标指向的
@@ -170,9 +142,6 @@
 技能范围内</t>
   </si>
   <si>
-    <t>技能效果</t>
-  </si>
-  <si>
     <t>引导技能
 跳数</t>
   </si>
@@ -196,34 +165,6 @@
   </si>
   <si>
     <t>Act条过程中模型动作</t>
-  </si>
-  <si>
-    <t>技能前摇</t>
-  </si>
-  <si>
-    <t>过程动作</t>
-  </si>
-  <si>
-    <t>技能过程动作的时长，后期在timeline里配置</t>
-  </si>
-  <si>
-    <t>技能表现</t>
-  </si>
-  <si>
-    <t>默认是0
-bulletLocate</t>
-  </si>
-  <si>
-    <t>调用模型上
-的插槽ID</t>
-  </si>
-  <si>
-    <t>是否是弹道的类型</t>
-  </si>
-  <si>
-    <t>子弹物体
-飞行速度
-米/秒</t>
   </si>
   <si>
     <t>配置箭头指向还是抛物线指向</t>
@@ -385,30 +326,6 @@
     <t>waitAct</t>
   </si>
   <si>
-    <t>beforeSkillAct</t>
-  </si>
-  <si>
-    <t>skillAct</t>
-  </si>
-  <si>
-    <t>actTime</t>
-  </si>
-  <si>
-    <t>afterSkillAct</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>slotID</t>
-  </si>
-  <si>
-    <t>isBullet</t>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
-  </si>
-  <si>
     <t>pointingShow</t>
   </si>
   <si>
@@ -472,18 +389,6 @@
     <t>act动作</t>
   </si>
   <si>
-    <t>动作前摇</t>
-  </si>
-  <si>
-    <t>动作过程</t>
-  </si>
-  <si>
-    <t>动作后摇</t>
-  </si>
-  <si>
-    <t>动画</t>
-  </si>
-  <si>
     <t>指向表现配置</t>
   </si>
   <si>
@@ -538,9 +443,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>[]string</t>
-  </si>
-  <si>
     <t>[]int32</t>
   </si>
   <si>
@@ -553,9 +455,6 @@
     <t>wait</t>
   </si>
   <si>
-    <t>atk</t>
-  </si>
-  <si>
     <t>Fx_com_melee_path</t>
   </si>
   <si>
@@ -623,13 +522,38 @@
   </si>
   <si>
     <t>monster08b</t>
+  </si>
+  <si>
+    <t>技能表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeLineID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻需要配多个
+技能就1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +619,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -811,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -858,9 +790,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,11 +808,57 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -897,47 +872,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AL28" totalsRowShown="0">
-  <autoFilter ref="C1:AL28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="前摇动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="技能动作"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="动作时长"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="后摇动作"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="技能动画"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="弹道初始位置"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="插槽ID"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="是否弹道"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="子弹速度"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C1:AD28" totalsRowShown="0">
+  <autoFilter ref="C1:AD28"/>
+  <tableColumns count="28">
+    <tableColumn id="1" name="技能ID"/>
+    <tableColumn id="2" name="技能等级"/>
+    <tableColumn id="3" name="备注"/>
+    <tableColumn id="4" name="技能名称"/>
+    <tableColumn id="5" name="技能描述"/>
+    <tableColumn id="6" name="随机移动"/>
+    <tableColumn id="7" name="技能图标"/>
+    <tableColumn id="8" name="ACT条动作"/>
+    <tableColumn id="18" name="目标指向的_x000a_表现类型"/>
+    <tableColumn id="19" name="技能类型"/>
+    <tableColumn id="20" name="ACT条速度"/>
+    <tableColumn id="21" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="自身怒气"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="消耗MP"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始CD"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
+    <tableColumn id="22" name="自身怒气"/>
+    <tableColumn id="23" name="消耗MP"/>
+    <tableColumn id="24" name="初始CD"/>
+    <tableColumn id="25" name="回转CD"/>
+    <tableColumn id="26" name="次数限制"/>
+    <tableColumn id="27" name="出手范围"/>
+    <tableColumn id="28" name="主目标_x000a_范围类型"/>
+    <tableColumn id="29" name="主目标类型"/>
+    <tableColumn id="30" name="技能_x000a_发起类型"/>
+    <tableColumn id="31" name="技能范围长"/>
+    <tableColumn id="32" name="技能范围宽"/>
+    <tableColumn id="33" name="作用对象_x000a_技能范围内"/>
+    <tableColumn id="39" name="技能表现" dataDxfId="0"/>
+    <tableColumn id="34" name="技能效果"/>
+    <tableColumn id="35" name="引导技能_x000a_跳数"/>
+    <tableColumn id="36" name="引导技能_x000a_间隔"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,32 +1167,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.625" style="2"/>
-    <col min="13" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="19" width="12.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.625" style="2"/>
-    <col min="22" max="24" width="11.75" style="2" customWidth="1"/>
-    <col min="25" max="27" width="10.625" style="2"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="29" width="15.125" style="2" customWidth="1"/>
-    <col min="30" max="32" width="10.625" style="2"/>
-    <col min="33" max="34" width="12.125" style="2" customWidth="1"/>
-    <col min="35" max="36" width="15" style="2" customWidth="1"/>
-    <col min="37" max="37" width="13" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="10.625" style="2"/>
+    <col min="1" max="10" width="10.625" style="2"/>
+    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="2"/>
+    <col min="13" max="15" width="11.75" style="2" customWidth="1"/>
+    <col min="16" max="18" width="10.625" style="2"/>
+    <col min="19" max="19" width="13" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.125" style="2" customWidth="1"/>
+    <col min="21" max="23" width="10.625" style="2"/>
+    <col min="24" max="25" width="12.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1256,407 +1223,315 @@
       <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="AA2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="AC2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="AD2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="AA3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="W4" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="X4" s="12" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1686,119 +1561,89 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="Q6" s="12" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="W6" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="X6" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -1806,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1814,80 +1659,68 @@
         <v>5</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="13">
-        <v>2</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="e">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="13">
+        <v>10</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>1</v>
+      </c>
+      <c r="T7" s="13">
+        <v>1.5</v>
       </c>
       <c r="U7" s="13">
         <v>1</v>
       </c>
-      <c r="V7" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="W7" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.8</v>
+      <c r="V7" s="19">
+        <v>3</v>
+      </c>
+      <c r="W7" s="19">
+        <v>2</v>
       </c>
       <c r="X7" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="13">
         <v>0</v>
       </c>
       <c r="Z7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>1001</v>
       </c>
       <c r="AB7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -1901,80 +1734,70 @@
         <v>5</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2</v>
       </c>
       <c r="M8" s="14">
-        <v>2</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>20</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14">
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>3</v>
       </c>
       <c r="U8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="14">
-        <v>1</v>
-      </c>
-      <c r="W8" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="W8" s="14">
+        <v>2</v>
       </c>
       <c r="X8" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="14">
         <v>0</v>
       </c>
       <c r="Z8" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="14">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="AB8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -1988,78 +1811,68 @@
         <v>5</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
-        <v>133</v>
+      <c r="L9" s="13">
+        <v>3</v>
       </c>
       <c r="M9" s="13">
-        <v>2</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
-        <v>3</v>
-      </c>
-      <c r="V9" s="13">
         <v>10</v>
       </c>
-      <c r="W9" s="13">
+      <c r="N9" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
+      <c r="O9" s="13">
+        <v>-100</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>2</v>
+      </c>
+      <c r="S9" s="13">
+        <v>1</v>
+      </c>
+      <c r="T9" s="13">
+        <v>4</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>3</v>
+      </c>
+      <c r="W9" s="19">
+        <v>2</v>
+      </c>
       <c r="X9" s="13">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="13">
         <v>0</v>
       </c>
       <c r="Z9" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="13">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="AB9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="13">
         <v>1010013</v>
       </c>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -2073,78 +1886,68 @@
         <v>5</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K10" s="14"/>
-      <c r="L10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="13">
-        <v>2</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="L10" s="14">
+        <v>4</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1</v>
+      </c>
+      <c r="T10" s="14">
+        <v>5</v>
+      </c>
       <c r="U10" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>3</v>
+      </c>
+      <c r="W10" s="14">
         <v>2</v>
       </c>
       <c r="X10" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>1001</v>
       </c>
       <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="14">
         <v>1010014</v>
       </c>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -2152,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2160,80 +1963,70 @@
         <v>5</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
       </c>
       <c r="M11" s="13">
-        <v>2</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="U11" s="13">
-        <v>1</v>
-      </c>
-      <c r="V11" s="13">
-        <v>5</v>
-      </c>
-      <c r="W11" s="13">
+        <v>5</v>
+      </c>
+      <c r="N11" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
+      <c r="O11" s="13">
+        <v>10</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <v>1</v>
+      </c>
+      <c r="T11" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="19">
+        <v>3</v>
+      </c>
+      <c r="W11" s="19">
+        <v>2</v>
+      </c>
       <c r="X11" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="13">
         <v>0</v>
       </c>
       <c r="Z11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="AB11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2247,80 +2040,70 @@
         <v>5</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2</v>
       </c>
       <c r="M12" s="14">
-        <v>2</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>20</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>1</v>
+      </c>
+      <c r="S12" s="14">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>3</v>
       </c>
       <c r="U12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="14">
-        <v>1</v>
-      </c>
-      <c r="W12" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="W12" s="14">
+        <v>2</v>
       </c>
       <c r="X12" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="14">
         <v>0</v>
       </c>
       <c r="Z12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>1001</v>
       </c>
       <c r="AB12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2334,78 +2117,68 @@
         <v>5</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>133</v>
+      <c r="L13" s="13">
+        <v>3</v>
       </c>
       <c r="M13" s="13">
-        <v>2</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13">
-        <v>3</v>
-      </c>
-      <c r="V13" s="13">
         <v>10</v>
       </c>
-      <c r="W13" s="13">
+      <c r="N13" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
+      <c r="O13" s="13">
+        <v>-100</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>2</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="13">
+        <v>4</v>
+      </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="19">
+        <v>3</v>
+      </c>
+      <c r="W13" s="19">
+        <v>2</v>
+      </c>
       <c r="X13" s="13">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="13">
         <v>0</v>
       </c>
       <c r="Z13" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="13">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="AB13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="13">
         <v>1010013</v>
       </c>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2419,78 +2192,68 @@
         <v>5</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K14" s="14"/>
-      <c r="L14" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" s="13">
-        <v>2</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="L14" s="14">
+        <v>4</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="S14" s="14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="14">
+        <v>5</v>
+      </c>
       <c r="U14" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="W14" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>3</v>
+      </c>
+      <c r="W14" s="14">
         <v>2</v>
       </c>
       <c r="X14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>1001</v>
       </c>
       <c r="AB14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="14">
         <v>1010014</v>
       </c>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -2498,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2506,78 +2269,68 @@
         <v>5</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>133</v>
+      <c r="L15" s="13">
+        <v>1</v>
       </c>
       <c r="M15" s="13">
-        <v>2</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13">
-        <v>1</v>
-      </c>
-      <c r="V15" s="13">
         <v>1.25</v>
       </c>
-      <c r="W15" s="13">
+      <c r="N15" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.8</v>
       </c>
+      <c r="O15" s="13">
+        <v>10</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+      <c r="T15" s="13">
+        <v>4</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="19">
+        <v>3</v>
+      </c>
+      <c r="W15" s="19">
+        <v>2</v>
+      </c>
       <c r="X15" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="13">
         <v>0</v>
       </c>
       <c r="Z15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AB15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF15" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -2591,78 +2344,68 @@
         <v>5</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14">
+        <v>2</v>
       </c>
       <c r="M16" s="14">
-        <v>2</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>20</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1</v>
+      </c>
+      <c r="S16" s="14">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
+        <v>6</v>
+      </c>
       <c r="U16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" s="14">
         <v>1</v>
       </c>
-      <c r="W16" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+      <c r="W16" s="14">
+        <v>2</v>
       </c>
       <c r="X16" s="14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="14">
         <v>0</v>
       </c>
       <c r="Z16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>1001</v>
       </c>
       <c r="AB16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -2676,78 +2419,68 @@
         <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
-        <v>133</v>
+      <c r="L17" s="13">
+        <v>3</v>
       </c>
       <c r="M17" s="13">
-        <v>2</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13">
-        <v>3</v>
-      </c>
-      <c r="V17" s="13">
         <v>10</v>
       </c>
-      <c r="W17" s="13">
+      <c r="N17" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
+      <c r="O17" s="13">
+        <v>-100</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>2</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="13">
+        <v>6</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="19">
+        <v>3</v>
+      </c>
+      <c r="W17" s="19">
+        <v>2</v>
+      </c>
       <c r="X17" s="13">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="Y17" s="13">
         <v>0</v>
       </c>
       <c r="Z17" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="13">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="AB17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="13">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG17" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="13">
         <v>1010013</v>
       </c>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -2761,78 +2494,68 @@
         <v>5</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K18" s="14"/>
-      <c r="L18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="13">
-        <v>2</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="L18" s="14">
         <v>4</v>
       </c>
-      <c r="V18" s="14">
+      <c r="M18" s="14">
         <v>0.25</v>
       </c>
-      <c r="W18" s="13">
+      <c r="N18" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="S18" s="14">
+        <v>1</v>
+      </c>
+      <c r="T18" s="14">
+        <v>8</v>
+      </c>
+      <c r="U18" s="14">
+        <v>1</v>
+      </c>
+      <c r="V18" s="14">
+        <v>3</v>
+      </c>
+      <c r="W18" s="14">
+        <v>2</v>
+      </c>
       <c r="X18" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>1001</v>
       </c>
       <c r="AB18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="14">
         <v>1010014</v>
       </c>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
@@ -2840,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -2848,78 +2571,68 @@
         <v>5</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13" t="s">
-        <v>133</v>
+      <c r="L19" s="13">
+        <v>1</v>
       </c>
       <c r="M19" s="13">
         <v>2</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13">
-        <v>1</v>
-      </c>
-      <c r="V19" s="13">
-        <v>2</v>
-      </c>
-      <c r="W19" s="13">
+      <c r="N19" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
+      <c r="O19" s="13">
+        <v>10</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>1</v>
+      </c>
+      <c r="T19" s="13">
+        <v>4</v>
+      </c>
+      <c r="U19" s="13">
+        <v>1</v>
+      </c>
+      <c r="V19" s="19">
+        <v>3</v>
+      </c>
+      <c r="W19" s="19">
+        <v>2</v>
+      </c>
       <c r="X19" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="13">
         <v>0</v>
       </c>
       <c r="Z19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AB19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -2933,78 +2646,68 @@
         <v>5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14">
+        <v>2</v>
       </c>
       <c r="M20" s="14">
-        <v>2</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>20</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="14">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>4</v>
+      </c>
       <c r="U20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" s="14">
-        <v>1</v>
-      </c>
-      <c r="W20" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="W20" s="14">
+        <v>2</v>
       </c>
       <c r="X20" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="14">
         <v>0</v>
       </c>
       <c r="Z20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>1001</v>
       </c>
       <c r="AB20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG20" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
     </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -3018,78 +2721,68 @@
         <v>5</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="13" t="s">
-        <v>133</v>
+      <c r="L21" s="13">
+        <v>3</v>
       </c>
       <c r="M21" s="13">
-        <v>2</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13">
-        <v>3</v>
-      </c>
-      <c r="V21" s="13">
         <v>10</v>
       </c>
-      <c r="W21" s="13">
+      <c r="N21" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
+      <c r="O21" s="13">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>2</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1</v>
+      </c>
+      <c r="T21" s="13">
+        <v>6</v>
+      </c>
+      <c r="U21" s="13">
+        <v>1</v>
+      </c>
+      <c r="V21" s="19">
+        <v>3</v>
+      </c>
+      <c r="W21" s="19">
+        <v>2</v>
+      </c>
       <c r="X21" s="13">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
       </c>
       <c r="Z21" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="13">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="AB21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG21" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="13">
         <v>1010013</v>
       </c>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -3103,78 +2796,68 @@
         <v>5</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K22" s="14"/>
-      <c r="L22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="13">
-        <v>2</v>
-      </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14">
+      <c r="L22" s="14">
         <v>4</v>
       </c>
-      <c r="V22" s="14">
+      <c r="M22" s="14">
         <v>0.25</v>
       </c>
-      <c r="W22" s="13">
+      <c r="N22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1</v>
+      </c>
+      <c r="T22" s="14">
+        <v>8</v>
+      </c>
+      <c r="U22" s="14">
+        <v>1</v>
+      </c>
+      <c r="V22" s="14">
+        <v>3</v>
+      </c>
+      <c r="W22" s="14">
+        <v>2</v>
+      </c>
       <c r="X22" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="14">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>1001</v>
       </c>
       <c r="AB22" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG22" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="14">
         <v>1010014</v>
       </c>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
@@ -3182,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -3190,80 +2873,70 @@
         <v>5</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
       </c>
       <c r="M23" s="13">
-        <v>2</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="U23" s="13">
-        <v>1</v>
-      </c>
-      <c r="V23" s="13">
-        <v>5</v>
-      </c>
-      <c r="W23" s="13">
+        <v>5</v>
+      </c>
+      <c r="N23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
+      <c r="O23" s="13">
+        <v>10</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="U23" s="13">
+        <v>1</v>
+      </c>
+      <c r="V23" s="19">
+        <v>3</v>
+      </c>
+      <c r="W23" s="19">
+        <v>2</v>
+      </c>
       <c r="X23" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="13">
         <v>0</v>
       </c>
       <c r="Z23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AB23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AD23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF23" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
     </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -3277,80 +2950,70 @@
         <v>5</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2</v>
       </c>
       <c r="M24" s="14">
-        <v>2</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="N24" s="14">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>20</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1</v>
+      </c>
+      <c r="T24" s="14">
+        <v>1.5</v>
       </c>
       <c r="U24" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W24" s="14">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24" s="14">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" s="14">
         <v>0</v>
       </c>
       <c r="Z24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>1001</v>
       </c>
       <c r="AB24" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="AD24" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="AH24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
     </row>
-    <row r="25" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3358,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -3366,80 +3029,70 @@
         <v>5</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1</v>
       </c>
       <c r="M25" s="13">
-        <v>2</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="U25" s="13">
-        <v>1</v>
-      </c>
-      <c r="V25" s="13">
-        <v>5</v>
-      </c>
-      <c r="W25" s="13">
+        <v>5</v>
+      </c>
+      <c r="N25" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
+      <c r="O25" s="13">
+        <v>10</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>1</v>
+      </c>
+      <c r="T25" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="19">
+        <v>3</v>
+      </c>
+      <c r="W25" s="19">
+        <v>2</v>
+      </c>
       <c r="X25" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="13">
         <v>0</v>
       </c>
       <c r="Z25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AB25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF25" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -3453,80 +3106,70 @@
         <v>5</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="14">
+        <v>2</v>
       </c>
       <c r="M26" s="14">
-        <v>2</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="N26" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="14">
+        <v>20</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <v>1</v>
+      </c>
+      <c r="S26" s="14">
+        <v>1</v>
+      </c>
+      <c r="T26" s="14">
+        <v>1.5</v>
       </c>
       <c r="U26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" s="14">
-        <v>1</v>
-      </c>
-      <c r="W26" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="W26" s="14">
+        <v>2</v>
       </c>
       <c r="X26" s="14">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="Y26" s="14">
         <v>0</v>
       </c>
       <c r="Z26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>1001</v>
       </c>
       <c r="AB26" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="AD26" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF26" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="AH26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ26" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
@@ -3534,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -3542,80 +3185,70 @@
         <v>5</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
       </c>
       <c r="M27" s="13">
-        <v>2</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="U27" s="13">
-        <v>1</v>
-      </c>
-      <c r="V27" s="13">
-        <v>5</v>
-      </c>
-      <c r="W27" s="13">
+        <v>5</v>
+      </c>
+      <c r="N27" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
+      <c r="O27" s="13">
+        <v>10</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <v>4</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1</v>
+      </c>
+      <c r="V27" s="19">
+        <v>3</v>
+      </c>
+      <c r="W27" s="19">
+        <v>2</v>
+      </c>
       <c r="X27" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="13">
         <v>0</v>
       </c>
       <c r="Z27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AB27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="13">
         <v>1010011</v>
       </c>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>107002</v>
       </c>
@@ -3629,78 +3262,68 @@
         <v>5</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="13" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="14">
+        <v>2</v>
       </c>
       <c r="M28" s="14">
-        <v>2</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="N28" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>20</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>1</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1</v>
+      </c>
+      <c r="T28" s="14">
+        <v>4</v>
       </c>
       <c r="U28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" s="14">
-        <v>1</v>
-      </c>
-      <c r="W28" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="W28" s="14">
+        <v>2</v>
       </c>
       <c r="X28" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y28" s="14">
         <v>0</v>
       </c>
       <c r="Z28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>1001</v>
       </c>
       <c r="AB28" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD28" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG28" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="14">
-        <v>5</v>
-      </c>
-      <c r="AJ28" s="14">
         <v>1010012</v>
       </c>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\worksapce\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71B14A-A294-4CD1-8C84-1F88415963ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,39 +873,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C1:AD28" totalsRowShown="0">
-  <autoFilter ref="C1:AD28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AD28" totalsRowShown="0">
+  <autoFilter ref="C1:AD28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="28">
-    <tableColumn id="1" name="技能ID"/>
-    <tableColumn id="2" name="技能等级"/>
-    <tableColumn id="3" name="备注"/>
-    <tableColumn id="4" name="技能名称"/>
-    <tableColumn id="5" name="技能描述"/>
-    <tableColumn id="6" name="随机移动"/>
-    <tableColumn id="7" name="技能图标"/>
-    <tableColumn id="8" name="ACT条动作"/>
-    <tableColumn id="18" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="19" name="技能类型"/>
-    <tableColumn id="20" name="ACT条速度"/>
-    <tableColumn id="21" name="ACT秒">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="自身怒气"/>
-    <tableColumn id="23" name="消耗MP"/>
-    <tableColumn id="24" name="初始CD"/>
-    <tableColumn id="25" name="回转CD"/>
-    <tableColumn id="26" name="次数限制"/>
-    <tableColumn id="27" name="出手范围"/>
-    <tableColumn id="28" name="主目标_x000a_范围类型"/>
-    <tableColumn id="29" name="主目标类型"/>
-    <tableColumn id="30" name="技能_x000a_发起类型"/>
-    <tableColumn id="31" name="技能范围长"/>
-    <tableColumn id="32" name="技能范围宽"/>
-    <tableColumn id="33" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" name="技能表现" dataDxfId="0"/>
-    <tableColumn id="34" name="技能效果"/>
-    <tableColumn id="35" name="引导技能_x000a_跳数"/>
-    <tableColumn id="36" name="引导技能_x000a_间隔"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="自身怒气"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="消耗MP"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始CD"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,11 +1168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2095,10 +2096,10 @@
         <v>5</v>
       </c>
       <c r="AA12" s="13">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="AB12" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\Workspace\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71B14A-A294-4CD1-8C84-1F88415963ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -533,10 +532,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>timeLineID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>表现ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -547,13 +542,91 @@
   <si>
     <t>普攻需要配多个
 技能就1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现2</t>
+  </si>
+  <si>
+    <t>触发吟唱
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱持续
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>continueAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act触发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act持续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineDuration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]number</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -818,11 +891,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -859,6 +965,66 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -873,39 +1039,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AD28" totalsRowShown="0">
-  <autoFilter ref="C1:AD28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C1:AG28" totalsRowShown="0">
+  <autoFilter ref="C1:AG28"/>
+  <tableColumns count="31">
+    <tableColumn id="1" name="技能ID"/>
+    <tableColumn id="2" name="技能等级"/>
+    <tableColumn id="3" name="备注"/>
+    <tableColumn id="4" name="技能名称"/>
+    <tableColumn id="5" name="技能描述"/>
+    <tableColumn id="6" name="随机移动"/>
+    <tableColumn id="7" name="技能图标"/>
+    <tableColumn id="8" name="ACT条动作"/>
+    <tableColumn id="10" name="ACT特效表现" dataDxfId="3"/>
+    <tableColumn id="9" name="ACT特效表现2" dataDxfId="2"/>
+    <tableColumn id="18" name="目标指向的_x000a_表现类型"/>
+    <tableColumn id="19" name="技能类型"/>
+    <tableColumn id="20" name="ACT条速度"/>
+    <tableColumn id="21" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="自身怒气"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="消耗MP"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始CD"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
+    <tableColumn id="22" name="自身怒气"/>
+    <tableColumn id="23" name="消耗MP"/>
+    <tableColumn id="24" name="初始CD"/>
+    <tableColumn id="25" name="回转CD"/>
+    <tableColumn id="26" name="次数限制"/>
+    <tableColumn id="27" name="出手范围"/>
+    <tableColumn id="28" name="主目标_x000a_范围类型"/>
+    <tableColumn id="29" name="主目标类型"/>
+    <tableColumn id="30" name="技能_x000a_发起类型"/>
+    <tableColumn id="31" name="技能范围长"/>
+    <tableColumn id="32" name="技能范围宽"/>
+    <tableColumn id="33" name="作用对象_x000a_技能范围内"/>
+    <tableColumn id="39" name="技能表现" dataDxfId="1"/>
+    <tableColumn id="11" name="表现持续时间" dataDxfId="0"/>
+    <tableColumn id="34" name="技能效果"/>
+    <tableColumn id="35" name="引导技能_x000a_跳数"/>
+    <tableColumn id="36" name="引导技能_x000a_间隔"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,32 +1337,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="10.625" style="2"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="2"/>
-    <col min="13" max="15" width="11.75" style="2" customWidth="1"/>
-    <col min="16" max="18" width="10.625" style="2"/>
-    <col min="19" max="19" width="13" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.125" style="2" customWidth="1"/>
-    <col min="21" max="23" width="10.625" style="2"/>
-    <col min="24" max="25" width="12.125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="15" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="10.58203125" style="2"/>
+    <col min="13" max="13" width="18.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" style="2"/>
+    <col min="15" max="17" width="11.75" style="2" customWidth="1"/>
+    <col min="18" max="20" width="10.58203125" style="2"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.08203125" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.58203125" style="2"/>
+    <col min="26" max="27" width="12.08203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="15" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.625" style="2"/>
+    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1224,68 +1394,77 @@
       <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1309,66 +1488,73 @@
       <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AF2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1394,62 +1580,71 @@
       <c r="J3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1475,62 +1670,71 @@
       <c r="J4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1562,8 +1766,11 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1589,22 +1796,22 @@
       <c r="J6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="12"/>
       <c r="O6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
         <v>96</v>
       </c>
@@ -1612,7 +1819,7 @@
         <v>96</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>96</v>
@@ -1621,30 +1828,39 @@
         <v>95</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>95</v>
       </c>
       <c r="X6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AB6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AC6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AD6" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -1665,63 +1881,70 @@
       <c r="J7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="e">
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>5</v>
+      </c>
+      <c r="P7" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="13">
         <v>10</v>
       </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
       <c r="R7" s="13">
         <v>0</v>
       </c>
       <c r="S7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13">
         <v>1.5</v>
       </c>
-      <c r="U7" s="13">
-        <v>1</v>
-      </c>
-      <c r="V7" s="19">
+      <c r="W7" s="13">
+        <v>1</v>
+      </c>
+      <c r="X7" s="19">
         <v>3</v>
       </c>
-      <c r="W7" s="19">
-        <v>2</v>
-      </c>
-      <c r="X7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0</v>
+      <c r="Y7" s="19">
+        <v>2</v>
       </c>
       <c r="Z7" s="13">
         <v>1</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="24">
         <v>1001</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AD7" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -1740,36 +1963,32 @@
       <c r="J8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="14">
-        <v>2</v>
-      </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
+        <v>2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O8" s="14">
+      <c r="Q8" s="14">
         <v>20</v>
       </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
       <c r="R8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" s="14">
         <v>1</v>
@@ -1778,27 +1997,36 @@
         <v>3</v>
       </c>
       <c r="W8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="14">
         <v>1001</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AD8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -1818,62 +2046,67 @@
         <v>101</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="13">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="O9" s="13">
         <v>10</v>
       </c>
-      <c r="N9" s="13">
+      <c r="P9" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O9" s="13">
+      <c r="Q9" s="13">
         <v>-100</v>
       </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
       <c r="R9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="13">
+        <v>2</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="V9" s="13">
         <v>4</v>
       </c>
-      <c r="U9" s="13">
-        <v>1</v>
-      </c>
-      <c r="V9" s="19">
+      <c r="W9" s="13">
+        <v>1</v>
+      </c>
+      <c r="X9" s="19">
         <v>3</v>
       </c>
-      <c r="W9" s="19">
-        <v>2</v>
-      </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="13">
         <v>3</v>
       </c>
-      <c r="Y9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>5</v>
-      </c>
       <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="13">
         <v>1001</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AD9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -1892,63 +2125,68 @@
       <c r="J10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14">
         <v>4</v>
       </c>
-      <c r="M10" s="14">
+      <c r="O10" s="14">
         <v>0.5</v>
       </c>
-      <c r="N10" s="13">
+      <c r="P10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
         <v>20</v>
       </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
         <v>1.5</v>
       </c>
-      <c r="S10" s="14">
-        <v>1</v>
-      </c>
-      <c r="T10" s="14">
-        <v>5</v>
-      </c>
       <c r="U10" s="14">
         <v>1</v>
       </c>
       <c r="V10" s="14">
+        <v>5</v>
+      </c>
+      <c r="W10" s="14">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14">
         <v>3</v>
       </c>
-      <c r="W10" s="14">
-        <v>2</v>
-      </c>
-      <c r="X10" s="14">
-        <v>2</v>
-      </c>
       <c r="Y10" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="13">
         <v>1001</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AD10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -1969,65 +2207,70 @@
       <c r="J11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>5</v>
-      </c>
       <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
       <c r="R11" s="13">
         <v>0</v>
       </c>
       <c r="S11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13">
         <v>1.5</v>
       </c>
-      <c r="U11" s="13">
-        <v>1</v>
-      </c>
-      <c r="V11" s="19">
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="19">
         <v>3</v>
       </c>
-      <c r="W11" s="19">
-        <v>2</v>
-      </c>
-      <c r="X11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0</v>
+      <c r="Y11" s="19">
+        <v>2</v>
       </c>
       <c r="Z11" s="13">
         <v>1</v>
       </c>
-      <c r="AA11" s="24" t="s">
-        <v>129</v>
+      <c r="AA11" s="13">
+        <v>0</v>
       </c>
       <c r="AB11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE11" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2046,36 +2289,34 @@
       <c r="J12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L12" s="14">
-        <v>2</v>
-      </c>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="N12" s="14">
+        <v>2</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="14">
         <v>20</v>
       </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
       <c r="R12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="14">
         <v>1</v>
@@ -2084,27 +2325,36 @@
         <v>3</v>
       </c>
       <c r="W12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="13">
         <v>1003</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AD12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14">
         <v>1010011</v>
       </c>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2124,62 +2374,67 @@
         <v>101</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
         <v>3</v>
       </c>
-      <c r="M13" s="13">
+      <c r="O13" s="13">
         <v>10</v>
       </c>
-      <c r="N13" s="13">
+      <c r="P13" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O13" s="13">
+      <c r="Q13" s="13">
         <v>-100</v>
       </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
       <c r="R13" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="13">
+        <v>2</v>
+      </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13">
         <v>4</v>
       </c>
-      <c r="U13" s="13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="19">
+      <c r="W13" s="13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
         <v>3</v>
       </c>
-      <c r="W13" s="19">
-        <v>2</v>
-      </c>
-      <c r="X13" s="13">
+      <c r="Y13" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="13">
         <v>3</v>
       </c>
-      <c r="Y13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>5</v>
-      </c>
       <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="13">
         <v>1001</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AD13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2198,63 +2453,68 @@
       <c r="J14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
         <v>4</v>
       </c>
-      <c r="M14" s="14">
+      <c r="O14" s="14">
         <v>0.5</v>
       </c>
-      <c r="N14" s="13">
+      <c r="P14" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
         <v>20</v>
       </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
         <v>1.5</v>
       </c>
-      <c r="S14" s="14">
-        <v>1</v>
-      </c>
-      <c r="T14" s="14">
-        <v>5</v>
-      </c>
       <c r="U14" s="14">
         <v>1</v>
       </c>
       <c r="V14" s="14">
+        <v>5</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
         <v>3</v>
       </c>
-      <c r="W14" s="14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="14">
-        <v>2</v>
-      </c>
       <c r="Y14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="13">
         <v>1001</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AD14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -2276,62 +2536,67 @@
         <v>101</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
         <v>1.25</v>
       </c>
-      <c r="N15" s="13">
+      <c r="P15" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.8</v>
       </c>
-      <c r="O15" s="13">
+      <c r="Q15" s="13">
         <v>10</v>
       </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
       <c r="R15" s="13">
         <v>0</v>
       </c>
       <c r="S15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13">
         <v>4</v>
       </c>
-      <c r="U15" s="13">
-        <v>1</v>
-      </c>
-      <c r="V15" s="19">
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+      <c r="X15" s="19">
         <v>3</v>
       </c>
-      <c r="W15" s="19">
-        <v>2</v>
-      </c>
-      <c r="X15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>0</v>
+      <c r="Y15" s="19">
+        <v>2</v>
       </c>
       <c r="Z15" s="13">
         <v>1</v>
       </c>
       <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="13">
         <v>1001</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AD15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -2351,62 +2616,67 @@
         <v>101</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="14">
-        <v>2</v>
-      </c>
-      <c r="M16" s="14">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="14">
         <v>20</v>
       </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
       <c r="R16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="14">
+        <v>1</v>
+      </c>
+      <c r="U16" s="14">
+        <v>1</v>
+      </c>
+      <c r="V16" s="14">
         <v>6</v>
       </c>
-      <c r="U16" s="14">
-        <v>1</v>
-      </c>
-      <c r="V16" s="14">
-        <v>1</v>
-      </c>
       <c r="W16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="14">
         <v>3</v>
       </c>
-      <c r="Y16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="13">
         <v>1001</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AD16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -2426,62 +2696,67 @@
         <v>101</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13">
         <v>3</v>
       </c>
-      <c r="M17" s="13">
+      <c r="O17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="13">
+      <c r="P17" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O17" s="13">
+      <c r="Q17" s="13">
         <v>-100</v>
       </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
       <c r="R17" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="13">
+        <v>2</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
         <v>6</v>
       </c>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
-      <c r="V17" s="19">
+      <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="19">
         <v>3</v>
       </c>
-      <c r="W17" s="19">
-        <v>2</v>
-      </c>
-      <c r="X17" s="13">
+      <c r="Y17" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="13">
         <v>3</v>
       </c>
-      <c r="Y17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>5</v>
-      </c>
       <c r="AA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="13">
         <v>1001</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AD17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -2500,63 +2775,68 @@
       <c r="J18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14">
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14">
         <v>4</v>
       </c>
-      <c r="M18" s="14">
+      <c r="O18" s="14">
         <v>0.25</v>
       </c>
-      <c r="N18" s="13">
+      <c r="P18" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
         <v>20</v>
       </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="14">
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
         <v>1.5</v>
       </c>
-      <c r="S18" s="14">
-        <v>1</v>
-      </c>
-      <c r="T18" s="14">
+      <c r="U18" s="14">
+        <v>1</v>
+      </c>
+      <c r="V18" s="14">
         <v>8</v>
       </c>
-      <c r="U18" s="14">
-        <v>1</v>
-      </c>
-      <c r="V18" s="14">
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14">
         <v>3</v>
       </c>
-      <c r="W18" s="14">
-        <v>2</v>
-      </c>
-      <c r="X18" s="14">
+      <c r="Y18" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="14">
         <v>4</v>
       </c>
-      <c r="Y18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="13">
         <v>1001</v>
       </c>
-      <c r="AB18" s="14">
+      <c r="AD18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
@@ -2578,62 +2858,67 @@
         <v>101</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2</v>
-      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="13">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13">
+        <v>2</v>
+      </c>
+      <c r="P19" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="O19" s="13">
+      <c r="Q19" s="13">
         <v>10</v>
       </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
       <c r="R19" s="13">
         <v>0</v>
       </c>
       <c r="S19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13">
         <v>4</v>
       </c>
-      <c r="U19" s="13">
-        <v>1</v>
-      </c>
-      <c r="V19" s="19">
+      <c r="W19" s="13">
+        <v>1</v>
+      </c>
+      <c r="X19" s="19">
         <v>3</v>
       </c>
-      <c r="W19" s="19">
-        <v>2</v>
-      </c>
-      <c r="X19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>0</v>
+      <c r="Y19" s="19">
+        <v>2</v>
       </c>
       <c r="Z19" s="13">
         <v>1</v>
       </c>
       <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="13">
         <v>1001</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AD19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -2653,62 +2938,67 @@
         <v>101</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="L20" s="14">
-        <v>2</v>
-      </c>
-      <c r="M20" s="14">
-        <v>1</v>
-      </c>
-      <c r="N20" s="13">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14">
+        <v>2</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O20" s="14">
+      <c r="Q20" s="14">
         <v>20</v>
       </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
       <c r="R20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
+        <v>1</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="V20" s="14">
         <v>4</v>
       </c>
-      <c r="U20" s="14">
-        <v>1</v>
-      </c>
-      <c r="V20" s="14">
+      <c r="W20" s="14">
+        <v>1</v>
+      </c>
+      <c r="X20" s="14">
         <v>3</v>
       </c>
-      <c r="W20" s="14">
-        <v>2</v>
-      </c>
-      <c r="X20" s="14">
-        <v>2</v>
-      </c>
       <c r="Y20" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="13">
         <v>1001</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AD20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -2728,62 +3018,67 @@
         <v>101</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="13">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
         <v>3</v>
       </c>
-      <c r="M21" s="13">
+      <c r="O21" s="13">
         <v>10</v>
       </c>
-      <c r="N21" s="13">
+      <c r="P21" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O21" s="13">
+      <c r="Q21" s="13">
         <v>-100</v>
       </c>
-      <c r="P21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>0</v>
-      </c>
       <c r="R21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="13">
+        <v>2</v>
+      </c>
+      <c r="U21" s="13">
+        <v>1</v>
+      </c>
+      <c r="V21" s="13">
         <v>6</v>
       </c>
-      <c r="U21" s="13">
-        <v>1</v>
-      </c>
-      <c r="V21" s="19">
+      <c r="W21" s="13">
+        <v>1</v>
+      </c>
+      <c r="X21" s="19">
         <v>3</v>
       </c>
-      <c r="W21" s="19">
-        <v>2</v>
-      </c>
-      <c r="X21" s="13">
+      <c r="Y21" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="13">
         <v>3</v>
       </c>
-      <c r="Y21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="13">
-        <v>5</v>
-      </c>
       <c r="AA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="13">
         <v>1001</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AD21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -2802,63 +3097,68 @@
       <c r="J22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14">
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14">
         <v>4</v>
       </c>
-      <c r="M22" s="14">
+      <c r="O22" s="14">
         <v>0.25</v>
       </c>
-      <c r="N22" s="13">
+      <c r="P22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
         <v>20</v>
       </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
         <v>1.5</v>
       </c>
-      <c r="S22" s="14">
-        <v>1</v>
-      </c>
-      <c r="T22" s="14">
+      <c r="U22" s="14">
+        <v>1</v>
+      </c>
+      <c r="V22" s="14">
         <v>8</v>
       </c>
-      <c r="U22" s="14">
-        <v>1</v>
-      </c>
-      <c r="V22" s="14">
+      <c r="W22" s="14">
+        <v>1</v>
+      </c>
+      <c r="X22" s="14">
         <v>3</v>
       </c>
-      <c r="W22" s="14">
-        <v>2</v>
-      </c>
-      <c r="X22" s="14">
+      <c r="Y22" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="14">
         <v>4</v>
       </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="13">
         <v>1001</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AD22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
@@ -2879,65 +3179,70 @@
       <c r="J23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="13">
-        <v>5</v>
-      </c>
       <c r="N23" s="13">
+        <v>1</v>
+      </c>
+      <c r="O23" s="13">
+        <v>5</v>
+      </c>
+      <c r="P23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O23" s="13">
+      <c r="Q23" s="13">
         <v>10</v>
       </c>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
       <c r="R23" s="13">
         <v>0</v>
       </c>
       <c r="S23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13">
         <v>1.5</v>
       </c>
-      <c r="U23" s="13">
-        <v>1</v>
-      </c>
-      <c r="V23" s="19">
+      <c r="W23" s="13">
+        <v>1</v>
+      </c>
+      <c r="X23" s="19">
         <v>3</v>
       </c>
-      <c r="W23" s="19">
-        <v>2</v>
-      </c>
-      <c r="X23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>0</v>
+      <c r="Y23" s="19">
+        <v>2</v>
       </c>
       <c r="Z23" s="13">
         <v>1</v>
       </c>
       <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13">
         <v>1001</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AD23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -2956,65 +3261,70 @@
       <c r="J24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="14">
-        <v>2</v>
-      </c>
-      <c r="M24" s="14">
-        <v>1</v>
-      </c>
       <c r="N24" s="14">
+        <v>2</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O24" s="14">
+      <c r="Q24" s="14">
         <v>20</v>
       </c>
-      <c r="P24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
       <c r="R24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="14">
+        <v>1</v>
+      </c>
+      <c r="U24" s="14">
+        <v>1</v>
+      </c>
+      <c r="V24" s="14">
         <v>1.5</v>
       </c>
-      <c r="U24" s="14">
-        <v>1</v>
-      </c>
-      <c r="V24" s="14">
+      <c r="W24" s="14">
+        <v>1</v>
+      </c>
+      <c r="X24" s="14">
         <v>3</v>
       </c>
-      <c r="W24" s="14">
-        <v>2</v>
-      </c>
-      <c r="X24" s="14">
+      <c r="Y24" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="14">
         <v>2.5</v>
       </c>
-      <c r="Y24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="13">
         <v>1001</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AD24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3035,65 +3345,70 @@
       <c r="J25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="13">
-        <v>5</v>
-      </c>
       <c r="N25" s="13">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13">
+        <v>5</v>
+      </c>
+      <c r="P25" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O25" s="13">
+      <c r="Q25" s="13">
         <v>10</v>
       </c>
-      <c r="P25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
       <c r="R25" s="13">
         <v>0</v>
       </c>
       <c r="S25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13">
         <v>1.5</v>
       </c>
-      <c r="U25" s="13">
-        <v>1</v>
-      </c>
-      <c r="V25" s="19">
+      <c r="W25" s="13">
+        <v>1</v>
+      </c>
+      <c r="X25" s="19">
         <v>3</v>
       </c>
-      <c r="W25" s="19">
-        <v>2</v>
-      </c>
-      <c r="X25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>0</v>
+      <c r="Y25" s="19">
+        <v>2</v>
       </c>
       <c r="Z25" s="13">
         <v>1</v>
       </c>
       <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13">
         <v>1001</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AD25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -3112,65 +3427,70 @@
       <c r="J26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="14">
-        <v>2</v>
-      </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="N26" s="14">
+        <v>2</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O26" s="14">
+      <c r="Q26" s="14">
         <v>20</v>
       </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
       <c r="R26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="14">
+        <v>1</v>
+      </c>
+      <c r="U26" s="14">
+        <v>1</v>
+      </c>
+      <c r="V26" s="14">
         <v>1.5</v>
       </c>
-      <c r="U26" s="14">
-        <v>1</v>
-      </c>
-      <c r="V26" s="14">
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="X26" s="14">
         <v>3</v>
       </c>
-      <c r="W26" s="14">
-        <v>2</v>
-      </c>
-      <c r="X26" s="14">
+      <c r="Y26" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="14">
         <v>2.5</v>
       </c>
-      <c r="Y26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="13">
         <v>1001</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AD26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
@@ -3191,65 +3511,70 @@
       <c r="J27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="13">
-        <v>5</v>
-      </c>
       <c r="N27" s="13">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13">
+        <v>5</v>
+      </c>
+      <c r="P27" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O27" s="13">
+      <c r="Q27" s="13">
         <v>10</v>
       </c>
-      <c r="P27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>0</v>
-      </c>
       <c r="R27" s="13">
         <v>0</v>
       </c>
       <c r="S27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1</v>
+      </c>
+      <c r="V27" s="13">
         <v>4</v>
       </c>
-      <c r="U27" s="13">
-        <v>1</v>
-      </c>
-      <c r="V27" s="19">
+      <c r="W27" s="13">
+        <v>1</v>
+      </c>
+      <c r="X27" s="19">
         <v>3</v>
       </c>
-      <c r="W27" s="19">
-        <v>2</v>
-      </c>
-      <c r="X27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>0</v>
+      <c r="Y27" s="19">
+        <v>2</v>
       </c>
       <c r="Z27" s="13">
         <v>1</v>
       </c>
       <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13">
         <v>1001</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AD27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C28" s="9">
         <v>107002</v>
       </c>
@@ -3268,71 +3593,76 @@
       <c r="J28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="14">
-        <v>2</v>
-      </c>
-      <c r="M28" s="14">
-        <v>1</v>
-      </c>
-      <c r="N28" s="13">
+      <c r="N28" s="14">
+        <v>2</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
+      <c r="P28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O28" s="14">
+      <c r="Q28" s="14">
         <v>20</v>
       </c>
-      <c r="P28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>0</v>
-      </c>
       <c r="R28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="14">
+        <v>1</v>
+      </c>
+      <c r="U28" s="14">
+        <v>1</v>
+      </c>
+      <c r="V28" s="14">
         <v>4</v>
       </c>
-      <c r="U28" s="14">
-        <v>1</v>
-      </c>
-      <c r="V28" s="14">
+      <c r="W28" s="14">
+        <v>1</v>
+      </c>
+      <c r="X28" s="14">
         <v>3</v>
       </c>
-      <c r="W28" s="14">
-        <v>2</v>
-      </c>
-      <c r="X28" s="14">
-        <v>2</v>
-      </c>
       <c r="Y28" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="13">
         <v>1001</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AD28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\Workspace\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38331D3A-EEB2-465E-8C2F-407D9456EDD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -622,11 +623,15 @@
     <t>0.5,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>1010011,1010011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,42 +1044,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C1:AG28" totalsRowShown="0">
-  <autoFilter ref="C1:AG28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AG28" totalsRowShown="0">
+  <autoFilter ref="C1:AG28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" name="技能ID"/>
-    <tableColumn id="2" name="技能等级"/>
-    <tableColumn id="3" name="备注"/>
-    <tableColumn id="4" name="技能名称"/>
-    <tableColumn id="5" name="技能描述"/>
-    <tableColumn id="6" name="随机移动"/>
-    <tableColumn id="7" name="技能图标"/>
-    <tableColumn id="8" name="ACT条动作"/>
-    <tableColumn id="10" name="ACT特效表现" dataDxfId="3"/>
-    <tableColumn id="9" name="ACT特效表现2" dataDxfId="2"/>
-    <tableColumn id="18" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="19" name="技能类型"/>
-    <tableColumn id="20" name="ACT条速度"/>
-    <tableColumn id="21" name="ACT秒">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="自身怒气"/>
-    <tableColumn id="23" name="消耗MP"/>
-    <tableColumn id="24" name="初始CD"/>
-    <tableColumn id="25" name="回转CD"/>
-    <tableColumn id="26" name="次数限制"/>
-    <tableColumn id="27" name="出手范围"/>
-    <tableColumn id="28" name="主目标_x000a_范围类型"/>
-    <tableColumn id="29" name="主目标类型"/>
-    <tableColumn id="30" name="技能_x000a_发起类型"/>
-    <tableColumn id="31" name="技能范围长"/>
-    <tableColumn id="32" name="技能范围宽"/>
-    <tableColumn id="33" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" name="技能表现" dataDxfId="1"/>
-    <tableColumn id="11" name="表现持续时间" dataDxfId="0"/>
-    <tableColumn id="34" name="技能效果"/>
-    <tableColumn id="35" name="引导技能_x000a_跳数"/>
-    <tableColumn id="36" name="引导技能_x000a_间隔"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="自身怒气"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="消耗MP"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始CD"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="表现持续时间" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1337,33 +1342,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.58203125" style="2"/>
+    <col min="1" max="12" width="10.625" style="2"/>
     <col min="13" max="13" width="18.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.58203125" style="2"/>
+    <col min="14" max="14" width="10.625" style="2"/>
     <col min="15" max="17" width="11.75" style="2" customWidth="1"/>
-    <col min="18" max="20" width="10.58203125" style="2"/>
+    <col min="18" max="20" width="10.625" style="2"/>
     <col min="21" max="21" width="13" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.08203125" style="2" customWidth="1"/>
-    <col min="23" max="25" width="10.58203125" style="2"/>
-    <col min="26" max="27" width="12.08203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.625" style="2"/>
+    <col min="26" max="27" width="12.125" style="2" customWidth="1"/>
     <col min="28" max="28" width="15" style="2" customWidth="1"/>
     <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="2" customWidth="1"/>
     <col min="31" max="31" width="15" style="2" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="10.58203125" style="2"/>
+    <col min="33" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1644,7 +1649,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1734,7 +1739,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1770,7 +1775,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1860,7 +1865,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -1944,7 +1949,7 @@
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -2026,7 +2031,7 @@
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -2106,7 +2111,7 @@
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -2186,7 +2191,7 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -2264,13 +2269,13 @@
       <c r="AD11" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AE11" s="13">
-        <v>1010011</v>
+      <c r="AE11" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2354,7 +2359,7 @@
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2434,7 +2439,7 @@
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2514,7 +2519,7 @@
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -2596,7 +2601,7 @@
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -2676,7 +2681,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -2756,7 +2761,7 @@
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -2836,7 +2841,7 @@
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
@@ -2918,7 +2923,7 @@
       <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -2998,7 +3003,7 @@
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -3078,7 +3083,7 @@
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -3158,7 +3163,7 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -3324,7 +3329,7 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3408,7 +3413,7 @@
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -3490,7 +3495,7 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
@@ -3574,7 +3579,7 @@
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>107002</v>
       </c>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38331D3A-EEB2-465E-8C2F-407D9456EDD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFACF6-84F2-40D9-A73A-52FA14505084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,12 +232,6 @@
     </r>
   </si>
   <si>
-    <t>0-自身周围
-1-选定空间
-2-友军单体
-3-敌军单体</t>
-  </si>
-  <si>
     <t>1-以自身
 2-以目标</t>
   </si>
@@ -625,6 +619,39 @@
   </si>
   <si>
     <t>1010011,1010011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-自身周围
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-选定空间
+(弃用)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2-友军单体
+3-敌军单体</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1345,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1400,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>10</v>
@@ -1454,13 +1481,13 @@
         <v>25</v>
       </c>
       <c r="AC1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="AF1" s="20" t="s">
         <v>26</v>
@@ -1494,10 +1521,10 @@
         <v>32</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>136</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>33</v>
@@ -1530,172 +1557,172 @@
       <c r="W2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="AC2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="22"/>
       <c r="AE2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="S4" s="18" t="s">
         <v>16</v>
@@ -1707,41 +1734,41 @@
         <v>18</v>
       </c>
       <c r="V4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1777,90 +1804,90 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="W6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="AB6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -1873,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1881,15 +1908,15 @@
         <v>5</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="13">
         <v>1</v>
@@ -1963,15 +1990,15 @@
         <v>5</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N8" s="14">
         <v>2</v>
@@ -2045,10 +2072,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2125,10 +2152,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2199,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2207,15 +2234,15 @@
         <v>5</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N11" s="13">
         <v>1</v>
@@ -2264,13 +2291,13 @@
         <v>1</v>
       </c>
       <c r="AC11" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE11" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="AE11" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -2289,17 +2316,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="14">
         <v>2</v>
@@ -2373,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -2453,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -2527,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2535,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -2615,10 +2642,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2655,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="X16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="14">
         <v>2</v>
@@ -2695,10 +2722,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -2775,10 +2802,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -2849,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -2857,10 +2884,10 @@
         <v>5</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -2937,10 +2964,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -3017,10 +3044,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -3097,10 +3124,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -3171,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -3179,15 +3206,15 @@
         <v>5</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23" s="13">
         <v>1</v>
@@ -3261,15 +3288,15 @@
         <v>5</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="14">
         <v>2</v>
@@ -3337,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -3345,15 +3372,15 @@
         <v>5</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N25" s="13">
         <v>1</v>
@@ -3427,15 +3454,15 @@
         <v>5</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -3503,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -3511,15 +3538,15 @@
         <v>5</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N27" s="13">
         <v>1</v>
@@ -3593,15 +3620,15 @@
         <v>5</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N28" s="14">
         <v>2</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFACF6-84F2-40D9-A73A-52FA14505084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46747C9-2F50-4E68-B7F9-17495FFD4DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -652,6 +652,10 @@
 2-友军单体
 3-敌军单体</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -925,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2321,7 +2328,9 @@
       <c r="J12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="26" t="s">
+        <v>147</v>
+      </c>
       <c r="L12" s="25" t="s">
         <v>132</v>
       </c>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46747C9-2F50-4E68-B7F9-17495FFD4DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F62254-F6C0-4350-B5E6-CAD456D1D246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="148">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -378,9 +378,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>图标</t>
-  </si>
-  <si>
     <t>act动作</t>
   </si>
   <si>
@@ -528,15 +525,6 @@
   </si>
   <si>
     <t>表现ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻需要配多个
-技能就1个</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -611,10 +599,6 @@
       </rPr>
       <t>]number</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -656,6 +640,22 @@
   </si>
   <si>
     <t>Fx_time_wait_chufa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻支持配多个技能就1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,2002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1379,8 +1379,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,10 +1438,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>10</v>
@@ -1488,13 +1492,13 @@
         <v>25</v>
       </c>
       <c r="AC1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="AF1" s="20" t="s">
         <v>26</v>
@@ -1528,10 +1532,10 @@
         <v>32</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>33</v>
@@ -1565,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Y2" s="11" t="s">
         <v>43</v>
@@ -1580,7 +1584,7 @@
         <v>46</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AD2" s="22"/>
       <c r="AE2" s="11" t="s">
@@ -1620,10 +1624,10 @@
         <v>57</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>58</v>
@@ -1672,10 +1676,10 @@
         <v>72</v>
       </c>
       <c r="AC3" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AD3" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>73</v>
@@ -1703,33 +1707,33 @@
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="S4" s="18" t="s">
         <v>16</v>
@@ -1741,41 +1745,41 @@
         <v>18</v>
       </c>
       <c r="V4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1811,90 +1815,90 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="W6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="AB6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -1907,23 +1911,23 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N7" s="13">
         <v>1</v>
@@ -1975,7 +1979,7 @@
         <v>1001</v>
       </c>
       <c r="AD7" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="13">
         <v>1010011</v>
@@ -1993,19 +1997,19 @@
       <c r="E8" s="9"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>5</v>
+      <c r="H8" s="13">
+        <v>4</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" s="14">
         <v>2</v>
@@ -2027,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U8" s="14">
         <v>1</v>
@@ -2054,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="AC8" s="14">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AD8" s="14">
-        <v>1</v>
+        <v>4.633</v>
       </c>
       <c r="AE8" s="14">
         <v>1010012</v>
@@ -2076,13 +2080,13 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2107,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U9" s="13">
         <v>1</v>
@@ -2134,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="AC9" s="13">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AD9" s="13">
-        <v>1</v>
+        <v>4.633</v>
       </c>
       <c r="AE9" s="13">
         <v>1010013</v>
@@ -2155,14 +2159,14 @@
       <c r="E10" s="9"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <v>5</v>
+      <c r="H10" s="13">
+        <v>4</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2187,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="14">
-        <v>1.5</v>
+        <v>50</v>
       </c>
       <c r="U10" s="14">
         <v>1</v>
@@ -2214,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="AC10" s="13">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AD10" s="13">
-        <v>1</v>
+        <v>4.633</v>
       </c>
       <c r="AE10" s="14">
         <v>1010014</v>
@@ -2233,23 +2237,23 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N11" s="13">
         <v>1</v>
@@ -2298,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="AC11" s="24" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="AD11" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE11" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -2319,23 +2323,23 @@
       <c r="E12" s="9"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <v>5</v>
+      <c r="H12" s="13">
+        <v>4</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="N12" s="14">
         <v>2</v>
@@ -2357,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U12" s="14">
         <v>1</v>
@@ -2384,10 +2388,10 @@
         <v>5</v>
       </c>
       <c r="AC12" s="13">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="AD12" s="13">
-        <v>1</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="AE12" s="14">
         <v>1010011</v>
@@ -2406,17 +2410,19 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="N13" s="13">
         <v>3</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U13" s="13">
         <v>1</v>
@@ -2464,13 +2470,13 @@
         <v>5</v>
       </c>
       <c r="AC13" s="13">
-        <v>1001</v>
+        <v>2004</v>
       </c>
       <c r="AD13" s="13">
-        <v>1</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="AE13" s="13">
-        <v>1010013</v>
+        <v>1010012</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -2485,18 +2491,20 @@
       <c r="E14" s="9"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <v>5</v>
+      <c r="H14" s="13">
+        <v>4</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="N14" s="14">
         <v>4</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="14">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="U14" s="14">
         <v>1</v>
@@ -2544,13 +2552,13 @@
         <v>5</v>
       </c>
       <c r="AC14" s="13">
-        <v>1001</v>
+        <v>2005</v>
       </c>
       <c r="AD14" s="13">
-        <v>1</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="AE14" s="14">
-        <v>1010014</v>
+        <v>1010013</v>
       </c>
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
@@ -2563,18 +2571,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -2626,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="AC15" s="13">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="AD15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="13">
         <v>1010011</v>
@@ -2647,14 +2655,14 @@
       <c r="E16" s="9"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>5</v>
+      <c r="H16" s="13">
+        <v>4</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2679,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U16" s="14">
         <v>1</v>
@@ -2706,10 +2714,10 @@
         <v>5</v>
       </c>
       <c r="AC16" s="13">
-        <v>1001</v>
+        <v>3002</v>
       </c>
       <c r="AD16" s="13">
-        <v>1</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="AE16" s="14">
         <v>1010012</v>
@@ -2728,13 +2736,13 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -2759,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U17" s="13">
         <v>1</v>
@@ -2786,10 +2794,10 @@
         <v>5</v>
       </c>
       <c r="AC17" s="13">
-        <v>1001</v>
+        <v>3003</v>
       </c>
       <c r="AD17" s="13">
-        <v>1</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="AE17" s="13">
         <v>1010013</v>
@@ -2807,14 +2815,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14">
-        <v>5</v>
+      <c r="H18" s="13">
+        <v>4</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -2839,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="14">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="U18" s="14">
         <v>1</v>
@@ -2866,13 +2874,13 @@
         <v>5</v>
       </c>
       <c r="AC18" s="13">
-        <v>1001</v>
+        <v>3004</v>
       </c>
       <c r="AD18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>1010014</v>
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>1010013</v>
       </c>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
@@ -2885,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -2948,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="AC19" s="13">
-        <v>1001</v>
+        <v>4001</v>
       </c>
       <c r="AD19" s="13">
-        <v>1</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="AE19" s="13">
         <v>1010011</v>
@@ -2969,14 +2977,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14">
-        <v>5</v>
+      <c r="H20" s="13">
+        <v>4</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -3001,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U20" s="14">
         <v>1</v>
@@ -3028,10 +3036,10 @@
         <v>5</v>
       </c>
       <c r="AC20" s="13">
-        <v>1001</v>
+        <v>4002</v>
       </c>
       <c r="AD20" s="13">
-        <v>1</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="AE20" s="14">
         <v>1010012</v>
@@ -3050,13 +3058,13 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -3081,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U21" s="13">
         <v>1</v>
@@ -3108,10 +3116,10 @@
         <v>5</v>
       </c>
       <c r="AC21" s="13">
-        <v>1001</v>
+        <v>4002</v>
       </c>
       <c r="AD21" s="13">
-        <v>1</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="AE21" s="13">
         <v>1010013</v>
@@ -3129,14 +3137,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14">
-        <v>5</v>
+      <c r="H22" s="13">
+        <v>4</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -3161,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="14">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="U22" s="14">
         <v>1</v>
@@ -3188,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="AC22" s="13">
-        <v>1001</v>
+        <v>4002</v>
       </c>
       <c r="AD22" s="13">
-        <v>1</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="AE22" s="14">
-        <v>1010014</v>
+        <v>1010013</v>
       </c>
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
@@ -3207,33 +3215,33 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N23" s="13">
         <v>1</v>
       </c>
       <c r="O23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="13">
         <v>10</v>
@@ -3272,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="AC23" s="13">
-        <v>1001</v>
+        <v>5001</v>
       </c>
       <c r="AD23" s="13">
-        <v>1</v>
+        <v>1.167</v>
       </c>
       <c r="AE23" s="13">
         <v>1010011</v>
@@ -3293,19 +3301,19 @@
       <c r="E24" s="9"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <v>5</v>
+      <c r="H24" s="13">
+        <v>4</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N24" s="14">
         <v>2</v>
@@ -3327,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U24" s="14">
         <v>1</v>
@@ -3354,10 +3362,10 @@
         <v>5</v>
       </c>
       <c r="AC24" s="13">
-        <v>1001</v>
+        <v>5002</v>
       </c>
       <c r="AD24" s="13">
-        <v>1</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="AE24" s="14">
         <v>1010012</v>
@@ -3373,33 +3381,33 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N25" s="13">
         <v>1</v>
       </c>
       <c r="O25" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P25" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="13">
         <v>10</v>
@@ -3438,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="AC25" s="13">
-        <v>1001</v>
+        <v>5001</v>
       </c>
       <c r="AD25" s="13">
-        <v>1</v>
+        <v>1.167</v>
       </c>
       <c r="AE25" s="13">
         <v>1010011</v>
@@ -3459,19 +3467,19 @@
       <c r="E26" s="9"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <v>5</v>
+      <c r="H26" s="13">
+        <v>4</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -3493,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U26" s="14">
         <v>1</v>
@@ -3520,10 +3528,10 @@
         <v>5</v>
       </c>
       <c r="AC26" s="13">
-        <v>1001</v>
+        <v>5002</v>
       </c>
       <c r="AD26" s="13">
-        <v>1</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="AE26" s="14">
         <v>1010012</v>
@@ -3539,33 +3547,33 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N27" s="13">
         <v>1</v>
       </c>
       <c r="O27" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="13">
         <v>10</v>
@@ -3604,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="AC27" s="13">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="AD27" s="13">
-        <v>1</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="AE27" s="13">
         <v>1010011</v>
@@ -3625,19 +3633,19 @@
       <c r="E28" s="9"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14">
-        <v>5</v>
+      <c r="H28" s="13">
+        <v>4</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28" s="14">
         <v>2</v>
@@ -3659,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="U28" s="14">
         <v>1</v>
@@ -3686,10 +3694,10 @@
         <v>5</v>
       </c>
       <c r="AC28" s="13">
-        <v>1001</v>
+        <v>6002</v>
       </c>
       <c r="AD28" s="13">
-        <v>1</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="AE28" s="14">
         <v>1010012</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F62254-F6C0-4350-B5E6-CAD456D1D246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58A159-C0DD-4914-83FD-95B05438A98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -655,7 +655,17 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2,2</t>
+    <t>1,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa</t>
+  </si>
+  <si>
+    <t>Fx_time_wait</t>
+  </si>
+  <si>
+    <t>洛基</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1078,8 +1088,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AG28" totalsRowShown="0">
-  <autoFilter ref="C1:AG28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AG32" totalsRowShown="0">
+  <autoFilter ref="C1:AG32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
@@ -1377,14 +1387,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1926,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>98</v>
@@ -1933,14 +1943,14 @@
         <v>1</v>
       </c>
       <c r="O7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P7" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R7" s="13">
         <v>0</v>
@@ -1955,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W7" s="13">
         <v>1</v>
@@ -1998,7 +2008,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>101</v>
@@ -2006,8 +2016,12 @@
       <c r="J8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M8" s="13" t="s">
         <v>100</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="14">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R8" s="14">
         <v>0</v>
@@ -2063,8 +2077,8 @@
       <c r="AD8" s="14">
         <v>4.633</v>
       </c>
-      <c r="AE8" s="14">
-        <v>1010012</v>
+      <c r="AE8" s="13">
+        <v>1010011</v>
       </c>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
@@ -2080,7 +2094,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>102</v>
@@ -2088,8 +2102,12 @@
       <c r="J9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13">
         <v>3</v>
@@ -2102,7 +2120,7 @@
         <v>0.1</v>
       </c>
       <c r="Q9" s="13">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="R9" s="13">
         <v>0</v>
@@ -2117,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W9" s="13">
         <v>1</v>
@@ -2144,7 +2162,7 @@
         <v>4.633</v>
       </c>
       <c r="AE9" s="13">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -2160,7 +2178,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>103</v>
@@ -2168,8 +2186,12 @@
       <c r="J10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14">
         <v>4</v>
@@ -2185,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
@@ -2197,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10" s="14">
         <v>1</v>
@@ -2224,7 +2246,7 @@
         <v>4.633</v>
       </c>
       <c r="AE10" s="14">
-        <v>1010014</v>
+        <v>1010011</v>
       </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
@@ -2242,7 +2264,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>105</v>
@@ -2259,14 +2281,14 @@
         <v>1</v>
       </c>
       <c r="O11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" s="13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -2324,7 +2346,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>106</v>
@@ -2352,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="14">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R12" s="14">
         <v>0</v>
@@ -2367,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" s="14">
         <v>1</v>
@@ -2379,13 +2401,13 @@
         <v>2</v>
       </c>
       <c r="Z12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="14">
         <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="13">
         <v>2003</v>
@@ -2410,7 +2432,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>107</v>
@@ -2418,8 +2440,12 @@
       <c r="J13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>0.1</v>
       </c>
       <c r="Q13" s="13">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -2461,22 +2487,22 @@
         <v>2</v>
       </c>
       <c r="Z13" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="13">
         <v>0</v>
       </c>
       <c r="AB13" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="13">
         <v>2004</v>
       </c>
       <c r="AD13" s="13">
-        <v>2.8330000000000002</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="AE13" s="13">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -2492,7 +2518,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>108</v>
@@ -2500,8 +2526,12 @@
       <c r="J14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M14" s="13" t="s">
         <v>100</v>
       </c>
@@ -2519,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
@@ -2543,13 +2573,13 @@
         <v>2</v>
       </c>
       <c r="Z14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="14">
         <v>0</v>
       </c>
       <c r="AB14" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="13">
         <v>2005</v>
@@ -2558,7 +2588,7 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="AE14" s="14">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
@@ -2576,7 +2606,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>110</v>
@@ -2591,14 +2621,14 @@
         <v>1</v>
       </c>
       <c r="O15" s="13">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="P15" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" s="13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -2637,7 +2667,7 @@
         <v>3001</v>
       </c>
       <c r="AD15" s="13">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AE15" s="13">
         <v>1010011</v>
@@ -2656,7 +2686,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>111</v>
@@ -2664,8 +2694,12 @@
       <c r="J16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14">
         <v>2</v>
@@ -2678,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="14">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R16" s="14">
         <v>0</v>
@@ -2720,7 +2754,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE16" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
@@ -2736,7 +2770,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>112</v>
@@ -2744,8 +2778,12 @@
       <c r="J17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13">
         <v>3</v>
@@ -2758,7 +2796,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="13">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -2773,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="13">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="W17" s="13">
         <v>1</v>
@@ -2785,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="Z17" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="13">
         <v>0</v>
@@ -2800,7 +2838,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE17" s="13">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
@@ -2816,7 +2854,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>113</v>
@@ -2824,8 +2862,12 @@
       <c r="J18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14">
         <v>4</v>
@@ -2841,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S18" s="14">
         <v>0</v>
@@ -2880,7 +2922,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE18" s="13">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
@@ -2898,7 +2940,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>115</v>
@@ -2913,14 +2955,14 @@
         <v>1</v>
       </c>
       <c r="O19" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P19" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q19" s="13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R19" s="13">
         <v>0</v>
@@ -2978,7 +3020,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>116</v>
@@ -2986,8 +3028,12 @@
       <c r="J20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="14">
         <v>2</v>
@@ -3000,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="14">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R20" s="14">
         <v>0</v>
@@ -3015,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="14">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="W20" s="14">
         <v>1</v>
@@ -3042,7 +3088,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE20" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
@@ -3058,7 +3104,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>117</v>
@@ -3066,8 +3112,12 @@
       <c r="J21" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13">
         <v>3</v>
@@ -3080,7 +3130,7 @@
         <v>0.1</v>
       </c>
       <c r="Q21" s="13">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
@@ -3095,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="13">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="W21" s="13">
         <v>1</v>
@@ -3107,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="Z21" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -3122,7 +3172,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE21" s="13">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
@@ -3138,7 +3188,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>118</v>
@@ -3146,8 +3196,12 @@
       <c r="J22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14">
         <v>4</v>
@@ -3163,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
@@ -3175,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="14">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="W22" s="14">
         <v>1</v>
@@ -3187,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="Z22" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="14">
         <v>0</v>
@@ -3202,7 +3256,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE22" s="14">
-        <v>1010013</v>
+        <v>1010011</v>
       </c>
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
@@ -3220,7 +3274,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>120</v>
@@ -3244,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -3302,7 +3356,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>121</v>
@@ -3319,14 +3373,14 @@
         <v>2</v>
       </c>
       <c r="O24" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R24" s="14">
         <v>0</v>
@@ -3353,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="Z24" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="14">
         <v>0</v>
@@ -3368,7 +3422,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="AE24" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
@@ -3386,7 +3440,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>120</v>
@@ -3410,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
@@ -3468,7 +3522,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>121</v>
@@ -3485,14 +3539,14 @@
         <v>2</v>
       </c>
       <c r="O26" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R26" s="14">
         <v>0</v>
@@ -3519,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="Z26" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="14">
         <v>0</v>
@@ -3534,7 +3588,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="AE26" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
@@ -3552,7 +3606,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>115</v>
@@ -3576,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13">
         <v>0</v>
@@ -3591,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
@@ -3634,7 +3688,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>116</v>
@@ -3651,14 +3705,14 @@
         <v>2</v>
       </c>
       <c r="O28" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R28" s="14">
         <v>0</v>
@@ -3673,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14">
         <v>1</v>
@@ -3700,10 +3754,344 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="AE28" s="14">
-        <v>1010012</v>
+        <v>1010011</v>
       </c>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C29" s="8">
+        <v>108001</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13">
+        <v>3</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13">
+        <v>10</v>
+      </c>
+      <c r="P29" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>100</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1</v>
+      </c>
+      <c r="V29" s="13">
+        <v>4</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1</v>
+      </c>
+      <c r="X29" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>8001</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>1010011</v>
+      </c>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C30" s="9">
+        <v>108002</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14">
+        <v>2</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>200</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <v>10</v>
+      </c>
+      <c r="U30" s="14">
+        <v>1</v>
+      </c>
+      <c r="V30" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="W30" s="14">
+        <v>1</v>
+      </c>
+      <c r="X30" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>8002</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>1010011</v>
+      </c>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C31" s="8">
+        <v>108003</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13">
+        <v>3</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13">
+        <v>3</v>
+      </c>
+      <c r="O31" s="13">
+        <v>10</v>
+      </c>
+      <c r="P31" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0</v>
+      </c>
+      <c r="S31" s="13">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>20</v>
+      </c>
+      <c r="U31" s="13">
+        <v>1</v>
+      </c>
+      <c r="V31" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>8002</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>1010011</v>
+      </c>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C32" s="9">
+        <v>108004</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14">
+        <v>4</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="P32" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <v>20</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0</v>
+      </c>
+      <c r="T32" s="14">
+        <v>15</v>
+      </c>
+      <c r="U32" s="14">
+        <v>1</v>
+      </c>
+      <c r="V32" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="W32" s="14">
+        <v>1</v>
+      </c>
+      <c r="X32" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>8002</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>1010011</v>
+      </c>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58A159-C0DD-4914-83FD-95B05438A98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F3226-D230-4497-B09C-98A06C7F052D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -602,10 +602,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1010011,1010011</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0-自身周围
 </t>
@@ -666,6 +662,10 @@
   </si>
   <si>
     <t>洛基</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010015,1010016</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1394,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1579,7 @@
         <v>42</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y2" s="11" t="s">
         <v>43</v>
@@ -1594,7 +1594,7 @@
         <v>46</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD2" s="22"/>
       <c r="AE2" s="11" t="s">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>77</v>
@@ -2017,10 +2017,10 @@
         <v>99</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>100</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R8" s="14">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>4.633</v>
       </c>
       <c r="AE8" s="13">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
@@ -2103,10 +2103,10 @@
         <v>99</v>
       </c>
       <c r="K9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13">
@@ -2162,7 +2162,7 @@
         <v>4.633</v>
       </c>
       <c r="AE9" s="13">
-        <v>1010011</v>
+        <v>1010013</v>
       </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -2187,10 +2187,10 @@
         <v>99</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14">
@@ -2246,7 +2246,7 @@
         <v>4.633</v>
       </c>
       <c r="AE10" s="14">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
@@ -2324,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="AC11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD11" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="AD11" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="AE11" s="24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -2355,7 +2355,7 @@
         <v>99</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>129</v>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R12" s="14">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="AE12" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
@@ -2441,10 +2441,10 @@
         <v>99</v>
       </c>
       <c r="K13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>100</v>
@@ -2502,7 +2502,7 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="AE13" s="13">
-        <v>1010011</v>
+        <v>1010013</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -2527,10 +2527,10 @@
         <v>99</v>
       </c>
       <c r="K14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>100</v>
@@ -2588,7 +2588,7 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="AE14" s="14">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
@@ -2695,10 +2695,10 @@
         <v>99</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14">
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R16" s="14">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE16" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
@@ -2779,10 +2779,10 @@
         <v>99</v>
       </c>
       <c r="K17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13">
@@ -2838,7 +2838,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE17" s="13">
-        <v>1010011</v>
+        <v>1010013</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
@@ -2863,10 +2863,10 @@
         <v>99</v>
       </c>
       <c r="K18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14">
@@ -2922,7 +2922,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="AE18" s="13">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
@@ -3029,10 +3029,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="14">
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R20" s="14">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE20" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
@@ -3113,10 +3113,10 @@
         <v>99</v>
       </c>
       <c r="K21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13">
@@ -3172,7 +3172,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE21" s="13">
-        <v>1010011</v>
+        <v>1010013</v>
       </c>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
@@ -3197,10 +3197,10 @@
         <v>99</v>
       </c>
       <c r="K22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14">
@@ -3256,7 +3256,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE22" s="14">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
@@ -3422,7 +3422,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="AE24" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
@@ -3588,7 +3588,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="AE26" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
@@ -3754,7 +3754,7 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="AE28" s="14">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -3861,10 +3861,10 @@
         <v>99</v>
       </c>
       <c r="K30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="14">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R30" s="14">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE30" s="14">
-        <v>1010011</v>
+        <v>1010012</v>
       </c>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
@@ -3945,10 +3945,10 @@
         <v>99</v>
       </c>
       <c r="K31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13">
@@ -4004,7 +4004,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE31" s="13">
-        <v>1010011</v>
+        <v>1010013</v>
       </c>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
@@ -4029,10 +4029,10 @@
         <v>99</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="14">
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="AE32" s="14">
-        <v>1010011</v>
+        <v>1010014</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="14"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F3226-D230-4497-B09C-98A06C7F052D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D254E-6907-4E76-9234-86453A45E337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1390,11 +1390,11 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W15" s="13">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="V29" s="13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W29" s="13">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>8001</v>
       </c>
       <c r="AD29" s="13">
-        <v>2.0329999999999999</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="AE29" s="13">
         <v>1010011</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="14">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="14">
         <v>1</v>
@@ -3917,7 +3917,7 @@
         <v>8002</v>
       </c>
       <c r="AD30" s="13">
-        <v>2.9670000000000001</v>
+        <v>4</v>
       </c>
       <c r="AE30" s="14">
         <v>1010012</v>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="13">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="W31" s="13">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>8002</v>
       </c>
       <c r="AD31" s="13">
-        <v>2.9670000000000001</v>
+        <v>4</v>
       </c>
       <c r="AE31" s="13">
         <v>1010013</v>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="14">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="W32" s="14">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>8002</v>
       </c>
       <c r="AD32" s="13">
-        <v>2.9670000000000001</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="14">
         <v>1010014</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D254E-6907-4E76-9234-86453A45E337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D528A0F-38BF-4003-937A-CB9D6CD64B97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="194">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -156,9 +156,6 @@
   <si>
     <t>id+等级
 唯一</t>
-  </si>
-  <si>
-    <t>(索引到字典表)</t>
   </si>
   <si>
     <t>行动后
@@ -206,6 +203,524 @@
   <si>
     <t>距离目标多远开始静帧使用技能
 0-表示不限距离</t>
+  </si>
+  <si>
+    <t>1-以自身
+2-以目标</t>
+  </si>
+  <si>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径</t>
+  </si>
+  <si>
+    <t>1-选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军</t>
+  </si>
+  <si>
+    <t>多个技能效果
+数组格式</t>
+  </si>
+  <si>
+    <t>效果/buff
+触发次数
+暂时不用</t>
+  </si>
+  <si>
+    <t>每次触发
+间隔时间
+暂时不用</t>
+  </si>
+  <si>
+    <t>导出字段</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>skillLv</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>endMoveScope</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>waitAct</t>
+  </si>
+  <si>
+    <t>pointingShow</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>atbSpeed</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>costMP</t>
+  </si>
+  <si>
+    <t>firstCD</t>
+  </si>
+  <si>
+    <t>generalCD</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>rangeType</t>
+  </si>
+  <si>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>skillLaunch</t>
+  </si>
+  <si>
+    <t>targetLength</t>
+  </si>
+  <si>
+    <t>targetWide</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>act动作</t>
+  </si>
+  <si>
+    <t>指向表现配置</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>Act条速度</t>
+  </si>
+  <si>
+    <t>怒气增减</t>
+  </si>
+  <si>
+    <t>MP消耗</t>
+  </si>
+  <si>
+    <t>施法范围</t>
+  </si>
+  <si>
+    <t>目标范围</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>发起类型</t>
+  </si>
+  <si>
+    <t>范围长</t>
+  </si>
+  <si>
+    <t>范围宽</t>
+  </si>
+  <si>
+    <t>作用对象</t>
+  </si>
+  <si>
+    <t>效果逻辑</t>
+  </si>
+  <si>
+    <t>前后端</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>瓦尔基里</t>
+  </si>
+  <si>
+    <t>SKH4501</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>Fx_com_melee_path</t>
+  </si>
+  <si>
+    <t>SKH4503</t>
+  </si>
+  <si>
+    <t>SKH4505</t>
+  </si>
+  <si>
+    <t>SKH4504</t>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
+  </si>
+  <si>
+    <t>SKH4602</t>
+  </si>
+  <si>
+    <t>SKH5605</t>
+  </si>
+  <si>
+    <t>SKH4604</t>
+  </si>
+  <si>
+    <t>SKH5906</t>
+  </si>
+  <si>
+    <t>梅林</t>
+  </si>
+  <si>
+    <t>SKH5001</t>
+  </si>
+  <si>
+    <t>SKH5007</t>
+  </si>
+  <si>
+    <t>SKH5006</t>
+  </si>
+  <si>
+    <t>SKH5406</t>
+  </si>
+  <si>
+    <t>monster02a</t>
+  </si>
+  <si>
+    <t>SKH4805</t>
+  </si>
+  <si>
+    <t>SKH4803</t>
+  </si>
+  <si>
+    <t>SKH6001</t>
+  </si>
+  <si>
+    <t>SKH4904</t>
+  </si>
+  <si>
+    <t>monster12b</t>
+  </si>
+  <si>
+    <t>SKH5703</t>
+  </si>
+  <si>
+    <t>SKH5801</t>
+  </si>
+  <si>
+    <t>monster08b</t>
+  </si>
+  <si>
+    <t>技能表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现2</t>
+  </si>
+  <si>
+    <t>触发吟唱
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱持续
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>continueAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act触发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act持续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineDuration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]number</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻支持配多个技能就1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa</t>
+  </si>
+  <si>
+    <t>Fx_time_wait</t>
+  </si>
+  <si>
+    <t>洛基</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010015,1010016</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010012,1010017</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011,20012</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围说明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopedesc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥义技能</t>
+  </si>
+  <si>
+    <t>奥义技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能1</t>
+  </si>
+  <si>
+    <t>战斗技能1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能2</t>
+  </si>
+  <si>
+    <t>战斗技能2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认文字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方单体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方单体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方小圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方中圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方大圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定的目标造成100%伤害，附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定的目标造成100%伤害，第2段附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，并对选定目标造成100%伤害，附带【打断】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-自身周围</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-友军单体
+3-敌军单体
+4-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选定空间
+(弃用)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,39 +731,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1-圆形
-2-矩形
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-扇形</t>
-    </r>
-  </si>
-  <si>
-    <t>1-以自身
-2-以目标</t>
-  </si>
-  <si>
-    <t>目标点到目标范围边界的距离(米)
-圆形-半径</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">圆形-0
+      <t xml:space="preserve">0-默认
+圆形-配空
 矩形-宽度
 </t>
     </r>
@@ -274,320 +758,9 @@
       </rPr>
       <t>单位米</t>
     </r>
-  </si>
-  <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
-  </si>
-  <si>
-    <t>多个技能效果
-数组格式</t>
-  </si>
-  <si>
-    <t>效果/buff
-触发次数
-暂时不用</t>
-  </si>
-  <si>
-    <t>每次触发
-间隔时间
-暂时不用</t>
-  </si>
-  <si>
-    <t>导出字段</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>skillLv</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>endMoveScope</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>waitAct</t>
-  </si>
-  <si>
-    <t>pointingShow</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>atbSpeed</t>
-  </si>
-  <si>
-    <t>rage</t>
-  </si>
-  <si>
-    <t>costMP</t>
-  </si>
-  <si>
-    <t>firstCD</t>
-  </si>
-  <si>
-    <t>generalCD</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>rangeType</t>
-  </si>
-  <si>
-    <t>targetType</t>
-  </si>
-  <si>
-    <t>skillLaunch</t>
-  </si>
-  <si>
-    <t>targetLength</t>
-  </si>
-  <si>
-    <t>targetWide</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>字段描述</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>act动作</t>
-  </si>
-  <si>
-    <t>指向表现配置</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>Act条速度</t>
-  </si>
-  <si>
-    <t>怒气增减</t>
-  </si>
-  <si>
-    <t>MP消耗</t>
-  </si>
-  <si>
-    <t>施法范围</t>
-  </si>
-  <si>
-    <t>目标范围</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>发起类型</t>
-  </si>
-  <si>
-    <t>范围长</t>
-  </si>
-  <si>
-    <t>范围宽</t>
-  </si>
-  <si>
-    <t>作用对象</t>
-  </si>
-  <si>
-    <t>效果逻辑</t>
-  </si>
-  <si>
-    <t>前后端</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>瓦尔基里</t>
-  </si>
-  <si>
-    <t>SKH4501</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>Fx_com_melee_path</t>
-  </si>
-  <si>
-    <t>SKH4503</t>
-  </si>
-  <si>
-    <t>SKH4505</t>
-  </si>
-  <si>
-    <t>SKH4504</t>
-  </si>
-  <si>
-    <t>普罗米修斯</t>
-  </si>
-  <si>
-    <t>SKH4602</t>
-  </si>
-  <si>
-    <t>SKH5605</t>
-  </si>
-  <si>
-    <t>SKH4604</t>
-  </si>
-  <si>
-    <t>SKH5906</t>
-  </si>
-  <si>
-    <t>梅林</t>
-  </si>
-  <si>
-    <t>SKH5001</t>
-  </si>
-  <si>
-    <t>SKH5007</t>
-  </si>
-  <si>
-    <t>SKH5006</t>
-  </si>
-  <si>
-    <t>SKH5406</t>
-  </si>
-  <si>
-    <t>monster02a</t>
-  </si>
-  <si>
-    <t>SKH4805</t>
-  </si>
-  <si>
-    <t>SKH4803</t>
-  </si>
-  <si>
-    <t>SKH6001</t>
-  </si>
-  <si>
-    <t>SKH4904</t>
-  </si>
-  <si>
-    <t>monster12b</t>
-  </si>
-  <si>
-    <t>SKH5703</t>
-  </si>
-  <si>
-    <t>SKH5801</t>
-  </si>
-  <si>
-    <t>monster08b</t>
-  </si>
-  <si>
-    <t>技能表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACT特效表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>actAnimate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACT特效表现2</t>
-  </si>
-  <si>
-    <t>触发吟唱
-特效配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吟唱持续
-特效配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>continueAnimate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act触发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act持续</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>timelineID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>timelineDuration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -595,85 +768,104 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>]number</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0-自身周围
+      <t xml:space="preserve">0-默认
+1-圆形
+2-矩形
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>1-选定空间
-(弃用)</t>
+      <t>3-扇形</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2-友军单体
-3-敌军单体</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait_chufa</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻支持配多个技能就1个</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001,2002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait_chufa</t>
-  </si>
-  <si>
-    <t>Fx_time_wait</t>
-  </si>
-  <si>
-    <t>洛基</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010015,1010016</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成x%地属性伤害。同时自身获得【再生】效果，每y秒回复自身0.5%生命，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个【石柱】，攻击范围内目标，对其造成x%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击%)，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对单体目标造成x%火属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定范围内的目标造成x%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成x%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，对半径5米范围内敌人造成空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，对半径5米范围内的敌人造成伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的目标造成空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线(中)</t>
+  </si>
+  <si>
+    <t>直线(中)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线(小)</t>
+  </si>
+  <si>
+    <t>直线(小)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
+  </si>
+  <si>
+    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
+  </si>
+  <si>
+    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
+  </si>
+  <si>
+    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,8 +944,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +999,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -860,10 +1082,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -943,11 +1168,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -1074,6 +1330,80 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1088,15 +1418,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AG32" totalsRowShown="0">
-  <autoFilter ref="C1:AG32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH32" totalsRowShown="0">
+  <autoFilter ref="C1:AH32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="3"/>
@@ -1387,36 +1718,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.625" style="2"/>
-    <col min="13" max="13" width="18.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2"/>
-    <col min="15" max="17" width="11.75" style="2" customWidth="1"/>
-    <col min="18" max="20" width="10.625" style="2"/>
-    <col min="21" max="21" width="13" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
-    <col min="23" max="25" width="10.625" style="2"/>
-    <col min="26" max="27" width="12.125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="15" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15" style="2" customWidth="1"/>
+    <col min="1" max="14" width="10.625" style="2"/>
+    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="2"/>
+    <col min="17" max="19" width="11.75" style="2" customWidth="1"/>
+    <col min="20" max="22" width="10.625" style="2"/>
+    <col min="23" max="23" width="13" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="2" customWidth="1"/>
+    <col min="25" max="27" width="10.625" style="2"/>
+    <col min="28" max="29" width="12.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15" style="2" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="10.625" style="2"/>
+    <col min="33" max="33" width="15" style="2" customWidth="1"/>
+    <col min="34" max="34" width="13" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,92 +1763,95 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1528,268 +1862,277 @@
         <v>29</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AB2" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AD2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AG2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AH2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="D3" s="7" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="L3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AD3" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="T4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AD4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1822,98 +2165,102 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="K6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="AE6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -1921,40 +2268,44 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
-        <v>3</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
       <c r="O7" s="13">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13">
         <v>10</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>100</v>
       </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
       <c r="S7" s="13">
         <v>0</v>
       </c>
@@ -1962,42 +2313,45 @@
         <v>0</v>
       </c>
       <c r="U7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="13">
-        <v>1</v>
-      </c>
-      <c r="X7" s="19">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X7" s="13">
+        <v>1</v>
       </c>
       <c r="Y7" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>2</v>
       </c>
       <c r="AA7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="24">
         <v>1001</v>
       </c>
-      <c r="AD7" s="24">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="24">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -2005,85 +2359,92 @@
         <v>1</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13">
-        <v>3</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>99</v>
+      <c r="F8" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="14">
+        <v>3</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="14">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O8" s="14">
-        <v>1</v>
-      </c>
-      <c r="P8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="R8" s="14">
         <v>300</v>
       </c>
-      <c r="R8" s="14">
-        <v>0</v>
-      </c>
       <c r="S8" s="14">
         <v>0</v>
       </c>
       <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
         <v>10</v>
       </c>
-      <c r="U8" s="14">
-        <v>1</v>
-      </c>
       <c r="V8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="14">
         <v>2</v>
       </c>
       <c r="AA8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
         <v>5</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AD8" s="14">
         <v>1002</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AE8" s="14">
         <v>4.633</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AF8" s="13">
         <v>1010012</v>
       </c>
-      <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -2091,83 +2452,90 @@
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
-        <v>3</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>102</v>
+      <c r="F9" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="13"/>
       <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="13">
         <v>10</v>
       </c>
-      <c r="P9" s="13">
+      <c r="Q9" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q9" s="13">
-        <v>-1000</v>
-      </c>
       <c r="R9" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S9" s="13">
         <v>0</v>
       </c>
       <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
         <v>30</v>
       </c>
-      <c r="U9" s="13">
-        <v>1</v>
-      </c>
       <c r="V9" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W9" s="13">
-        <v>1</v>
-      </c>
-      <c r="X9" s="19">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="X9" s="13">
+        <v>1</v>
       </c>
       <c r="Y9" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>2</v>
       </c>
       <c r="AA9" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
         <v>5</v>
       </c>
-      <c r="AC9" s="13">
-        <v>1002</v>
-      </c>
-      <c r="AD9" s="13">
-        <v>4.633</v>
-      </c>
-      <c r="AE9" s="13">
+      <c r="AD9" s="30">
+        <v>1004</v>
+      </c>
+      <c r="AE9" s="30">
+        <v>5.367</v>
+      </c>
+      <c r="AF9" s="13">
         <v>1010013</v>
       </c>
-      <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -2175,83 +2543,90 @@
         <v>1</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13">
-        <v>3</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>99</v>
+      <c r="F10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="14"/>
       <c r="O10" s="14">
+        <v>3</v>
+      </c>
+      <c r="P10" s="14">
         <v>0.5</v>
       </c>
-      <c r="P10" s="13">
+      <c r="Q10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
       <c r="R10" s="14">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
       </c>
       <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
         <v>50</v>
       </c>
-      <c r="U10" s="14">
-        <v>1</v>
-      </c>
       <c r="V10" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="14">
         <v>2</v>
       </c>
       <c r="AA10" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
         <v>5</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AD10" s="13">
         <v>1002</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AE10" s="13">
         <v>4.633</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AF10" s="14">
         <v>1010014</v>
       </c>
-      <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -2259,40 +2634,44 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <v>3</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1</v>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O11" s="13">
+        <v>1</v>
+      </c>
+      <c r="P11" s="13">
         <v>10</v>
       </c>
-      <c r="P11" s="13">
+      <c r="Q11" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="13">
         <v>100</v>
       </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
       <c r="S11" s="13">
         <v>0</v>
       </c>
@@ -2300,42 +2679,45 @@
         <v>0</v>
       </c>
       <c r="U11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="13">
+        <v>1</v>
+      </c>
+      <c r="W11" s="13">
         <v>1.5</v>
       </c>
-      <c r="W11" s="13">
-        <v>1</v>
-      </c>
-      <c r="X11" s="19">
-        <v>3</v>
+      <c r="X11" s="13">
+        <v>1</v>
       </c>
       <c r="Y11" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>2</v>
       </c>
       <c r="AA11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF11" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AD11" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE11" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2343,85 +2725,92 @@
         <v>1</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13">
-        <v>3</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="14">
-        <v>2</v>
+      <c r="F12" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="14">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O12" s="14">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="R12" s="14">
         <v>300</v>
       </c>
-      <c r="R12" s="14">
-        <v>0</v>
-      </c>
       <c r="S12" s="14">
         <v>0</v>
       </c>
       <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
         <v>10</v>
       </c>
-      <c r="U12" s="14">
-        <v>1</v>
-      </c>
       <c r="V12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>2003</v>
-      </c>
-      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>2002</v>
+      </c>
+      <c r="AE12" s="13">
         <v>2.8330000000000002</v>
       </c>
-      <c r="AE12" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AF12" s="14"/>
+      <c r="AF12" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2429,85 +2818,92 @@
         <v>1</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>107</v>
+      <c r="F13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="13">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="13">
         <v>10</v>
       </c>
-      <c r="P13" s="13">
+      <c r="Q13" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q13" s="13">
-        <v>-1000</v>
-      </c>
       <c r="R13" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S13" s="13">
         <v>0</v>
       </c>
       <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
         <v>20</v>
       </c>
-      <c r="U13" s="13">
-        <v>1</v>
-      </c>
       <c r="V13" s="13">
+        <v>1</v>
+      </c>
+      <c r="W13" s="13">
         <v>4</v>
       </c>
-      <c r="W13" s="13">
-        <v>1</v>
-      </c>
-      <c r="X13" s="19">
-        <v>3</v>
+      <c r="X13" s="13">
+        <v>1</v>
       </c>
       <c r="Y13" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>2</v>
       </c>
       <c r="AA13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="31">
         <v>2004</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AE13" s="30">
         <v>7.3330000000000002</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AF13" s="13">
         <v>1010013</v>
       </c>
-      <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2515,85 +2911,92 @@
         <v>1</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13">
-        <v>3</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>99</v>
+      <c r="F14" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="14">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O14" s="14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="14">
         <v>0.5</v>
       </c>
-      <c r="P14" s="13">
+      <c r="Q14" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
       <c r="R14" s="14">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
       </c>
       <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
         <v>15</v>
       </c>
-      <c r="U14" s="14">
-        <v>1</v>
-      </c>
       <c r="V14" s="14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="14">
         <v>5</v>
       </c>
-      <c r="W14" s="14">
-        <v>1</v>
-      </c>
       <c r="X14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>2005</v>
-      </c>
-      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>2003</v>
+      </c>
+      <c r="AE14" s="13">
         <v>2.8330000000000002</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AF14" s="14">
         <v>1010014</v>
       </c>
-      <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -2601,38 +3004,42 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <v>3</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="13">
-        <v>1</v>
-      </c>
+      <c r="N15" s="13"/>
       <c r="O15" s="13">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13">
         <v>10</v>
       </c>
-      <c r="P15" s="13">
+      <c r="Q15" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="13">
         <v>100</v>
       </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
       <c r="S15" s="13">
         <v>0</v>
       </c>
@@ -2640,42 +3047,45 @@
         <v>0</v>
       </c>
       <c r="U15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="13">
+        <v>1</v>
+      </c>
+      <c r="W15" s="13">
         <v>6</v>
       </c>
-      <c r="W15" s="13">
-        <v>1</v>
-      </c>
-      <c r="X15" s="19">
-        <v>3</v>
+      <c r="X15" s="13">
+        <v>1</v>
       </c>
       <c r="Y15" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>2</v>
       </c>
       <c r="AA15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="13">
         <v>3001</v>
       </c>
-      <c r="AD15" s="13">
-        <v>1.87</v>
-      </c>
       <c r="AE15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -2683,83 +3093,90 @@
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13">
-        <v>3</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>99</v>
+      <c r="F16" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="14">
+        <v>3</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N16" s="13"/>
       <c r="O16" s="14">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="R16" s="14">
         <v>300</v>
       </c>
-      <c r="R16" s="14">
-        <v>0</v>
-      </c>
       <c r="S16" s="14">
         <v>0</v>
       </c>
       <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
         <v>10</v>
       </c>
-      <c r="U16" s="14">
-        <v>1</v>
-      </c>
       <c r="V16" s="14">
+        <v>1</v>
+      </c>
+      <c r="W16" s="14">
         <v>6</v>
       </c>
-      <c r="W16" s="14">
-        <v>1</v>
-      </c>
       <c r="X16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
         <v>5</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AD16" s="13">
         <v>3002</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AE16" s="13">
         <v>3.8330000000000002</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AF16" s="14">
         <v>1010012</v>
       </c>
-      <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -2767,83 +3184,90 @@
         <v>1</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <v>3</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>112</v>
+      <c r="F17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="13"/>
       <c r="O17" s="13">
+        <v>2</v>
+      </c>
+      <c r="P17" s="13">
         <v>10</v>
       </c>
-      <c r="P17" s="13">
+      <c r="Q17" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q17" s="13">
-        <v>-1000</v>
-      </c>
       <c r="R17" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S17" s="13">
         <v>0</v>
       </c>
       <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
         <v>20</v>
       </c>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
       <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
         <v>20</v>
       </c>
-      <c r="W17" s="13">
-        <v>1</v>
-      </c>
-      <c r="X17" s="19">
-        <v>3</v>
+      <c r="X17" s="13">
+        <v>1</v>
       </c>
       <c r="Y17" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>2</v>
       </c>
       <c r="AA17" s="13">
         <v>0</v>
       </c>
       <c r="AB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13">
         <v>5</v>
       </c>
-      <c r="AC17" s="13">
-        <v>3003</v>
-      </c>
-      <c r="AD17" s="13">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="AE17" s="13">
+      <c r="AD17" s="30">
+        <v>3004</v>
+      </c>
+      <c r="AE17" s="30">
+        <v>6.7</v>
+      </c>
+      <c r="AF17" s="13">
         <v>1010013</v>
       </c>
-      <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -2851,83 +3275,90 @@
         <v>1</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13">
-        <v>3</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>99</v>
+      <c r="F18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="14"/>
       <c r="O18" s="14">
+        <v>3</v>
+      </c>
+      <c r="P18" s="14">
         <v>0.25</v>
       </c>
-      <c r="P18" s="13">
+      <c r="Q18" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
       <c r="R18" s="14">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="S18" s="14">
         <v>0</v>
       </c>
       <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
         <v>15</v>
       </c>
-      <c r="U18" s="14">
-        <v>1</v>
-      </c>
       <c r="V18" s="14">
+        <v>1</v>
+      </c>
+      <c r="W18" s="14">
         <v>8</v>
       </c>
-      <c r="W18" s="14">
-        <v>1</v>
-      </c>
       <c r="X18" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="14">
         <v>4</v>
       </c>
-      <c r="AA18" s="14">
-        <v>0</v>
-      </c>
       <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
         <v>5</v>
       </c>
-      <c r="AC18" s="13">
-        <v>3004</v>
-      </c>
       <c r="AD18" s="13">
+        <v>3003</v>
+      </c>
+      <c r="AE18" s="13">
         <v>3.8330000000000002</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AF18" s="13">
         <v>1010014</v>
       </c>
-      <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
@@ -2935,38 +3366,42 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <v>3</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13">
-        <v>1</v>
-      </c>
+      <c r="N19" s="13"/>
       <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13">
         <v>10</v>
       </c>
-      <c r="P19" s="13">
+      <c r="Q19" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="R19" s="13">
         <v>100</v>
       </c>
-      <c r="R19" s="13">
-        <v>0</v>
-      </c>
       <c r="S19" s="13">
         <v>0</v>
       </c>
@@ -2974,42 +3409,45 @@
         <v>0</v>
       </c>
       <c r="U19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="13">
+        <v>1</v>
+      </c>
+      <c r="W19" s="13">
         <v>4</v>
       </c>
-      <c r="W19" s="13">
-        <v>1</v>
-      </c>
-      <c r="X19" s="19">
-        <v>3</v>
+      <c r="X19" s="13">
+        <v>1</v>
       </c>
       <c r="Y19" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z19" s="19">
+        <v>2</v>
       </c>
       <c r="AA19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="13">
         <v>4001</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AE19" s="13">
         <v>2.0329999999999999</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AF19" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -3017,83 +3455,90 @@
         <v>1</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13">
-        <v>3</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>99</v>
+      <c r="F20" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="14">
+        <v>3</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="13"/>
       <c r="O20" s="14">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13">
+        <v>2</v>
+      </c>
+      <c r="P20" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="R20" s="14">
         <v>300</v>
       </c>
-      <c r="R20" s="14">
-        <v>0</v>
-      </c>
       <c r="S20" s="14">
         <v>0</v>
       </c>
       <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
         <v>10</v>
       </c>
-      <c r="U20" s="14">
-        <v>1</v>
-      </c>
       <c r="V20" s="14">
+        <v>1</v>
+      </c>
+      <c r="W20" s="14">
         <v>2.5</v>
       </c>
-      <c r="W20" s="14">
-        <v>1</v>
-      </c>
       <c r="X20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="14">
         <v>2</v>
       </c>
       <c r="AA20" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
         <v>5</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AD20" s="13">
         <v>4002</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AE20" s="13">
         <v>2.9670000000000001</v>
       </c>
-      <c r="AE20" s="14">
+      <c r="AF20" s="14">
         <v>1010012</v>
       </c>
-      <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -3101,83 +3546,90 @@
         <v>1</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
-        <v>3</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>117</v>
+      <c r="F21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="13"/>
       <c r="O21" s="13">
+        <v>2</v>
+      </c>
+      <c r="P21" s="13">
         <v>10</v>
       </c>
-      <c r="P21" s="13">
+      <c r="Q21" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q21" s="13">
-        <v>-1000</v>
-      </c>
       <c r="R21" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
         <v>20</v>
       </c>
-      <c r="U21" s="13">
-        <v>1</v>
-      </c>
       <c r="V21" s="13">
+        <v>1</v>
+      </c>
+      <c r="W21" s="13">
         <v>2.5</v>
       </c>
-      <c r="W21" s="13">
-        <v>1</v>
-      </c>
-      <c r="X21" s="19">
-        <v>3</v>
+      <c r="X21" s="13">
+        <v>1</v>
       </c>
       <c r="Y21" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="13">
         <v>5</v>
       </c>
-      <c r="AA21" s="13">
-        <v>0</v>
-      </c>
       <c r="AB21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="13">
         <v>5</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AD21" s="13">
         <v>4002</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AE21" s="13">
         <v>2.9670000000000001</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AF21" s="13">
         <v>1010013</v>
       </c>
-      <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -3185,83 +3637,90 @@
         <v>1</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13">
-        <v>3</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>99</v>
+      <c r="F22" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="14"/>
       <c r="O22" s="14">
+        <v>3</v>
+      </c>
+      <c r="P22" s="14">
         <v>0.25</v>
       </c>
-      <c r="P22" s="13">
+      <c r="Q22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
       <c r="R22" s="14">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
       </c>
       <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
         <v>15</v>
       </c>
-      <c r="U22" s="14">
-        <v>1</v>
-      </c>
       <c r="V22" s="14">
+        <v>1</v>
+      </c>
+      <c r="W22" s="14">
         <v>2.5</v>
       </c>
-      <c r="W22" s="14">
-        <v>1</v>
-      </c>
       <c r="X22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA22" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
         <v>5</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AD22" s="13">
         <v>4002</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AE22" s="13">
         <v>2.9670000000000001</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AF22" s="14">
         <v>1010014</v>
       </c>
-      <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
@@ -3269,37 +3728,41 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
-        <v>3</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="13">
-        <v>1</v>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O23" s="13">
         <v>1</v>
       </c>
       <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
       <c r="R23" s="13">
         <v>0</v>
       </c>
@@ -3310,42 +3773,45 @@
         <v>0</v>
       </c>
       <c r="U23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="13">
+        <v>1</v>
+      </c>
+      <c r="W23" s="13">
         <v>1.5</v>
       </c>
-      <c r="W23" s="13">
-        <v>1</v>
-      </c>
-      <c r="X23" s="19">
-        <v>3</v>
+      <c r="X23" s="13">
+        <v>1</v>
       </c>
       <c r="Y23" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z23" s="19">
+        <v>2</v>
       </c>
       <c r="AA23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="13">
         <v>5001</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AE23" s="13">
         <v>1.167</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="AF23" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -3353,35 +3819,39 @@
         <v>1</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13">
-        <v>3</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="13"/>
+      <c r="F24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="14">
+        <v>3</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L24" s="13"/>
-      <c r="M24" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="14">
-        <v>2</v>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O24" s="14">
+        <v>2</v>
+      </c>
+      <c r="P24" s="14">
         <v>0.5</v>
       </c>
-      <c r="P24" s="14">
+      <c r="Q24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
       <c r="R24" s="14">
         <v>0</v>
       </c>
@@ -3389,45 +3859,48 @@
         <v>0</v>
       </c>
       <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
         <v>20</v>
       </c>
-      <c r="U24" s="14">
-        <v>1</v>
-      </c>
       <c r="V24" s="14">
+        <v>1</v>
+      </c>
+      <c r="W24" s="14">
         <v>1.5</v>
       </c>
-      <c r="W24" s="14">
-        <v>1</v>
-      </c>
       <c r="X24" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="14">
         <v>2</v>
       </c>
       <c r="AA24" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
         <v>5</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AD24" s="13">
         <v>5002</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AE24" s="13">
         <v>2.5670000000000002</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AF24" s="14">
         <v>1010012</v>
       </c>
-      <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3435,37 +3908,41 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13">
-        <v>3</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="13">
+        <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="13">
-        <v>1</v>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
       </c>
       <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
       <c r="R25" s="13">
         <v>0</v>
       </c>
@@ -3476,42 +3953,45 @@
         <v>0</v>
       </c>
       <c r="U25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="13">
+        <v>1</v>
+      </c>
+      <c r="W25" s="13">
         <v>1.5</v>
       </c>
-      <c r="W25" s="13">
-        <v>1</v>
-      </c>
-      <c r="X25" s="19">
-        <v>3</v>
+      <c r="X25" s="13">
+        <v>1</v>
       </c>
       <c r="Y25" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>2</v>
       </c>
       <c r="AA25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="13">
         <v>5001</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AE25" s="13">
         <v>1.167</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AF25" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -3519,35 +3999,39 @@
         <v>1</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13">
-        <v>3</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="13"/>
+      <c r="F26" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="14">
+        <v>3</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L26" s="13"/>
-      <c r="M26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="14">
-        <v>2</v>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O26" s="14">
+        <v>2</v>
+      </c>
+      <c r="P26" s="14">
         <v>0.5</v>
       </c>
-      <c r="P26" s="13">
+      <c r="Q26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
       <c r="R26" s="14">
         <v>0</v>
       </c>
@@ -3555,45 +4039,48 @@
         <v>0</v>
       </c>
       <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
         <v>20</v>
       </c>
-      <c r="U26" s="14">
-        <v>1</v>
-      </c>
       <c r="V26" s="14">
+        <v>1</v>
+      </c>
+      <c r="W26" s="14">
         <v>1.5</v>
       </c>
-      <c r="W26" s="14">
-        <v>1</v>
-      </c>
       <c r="X26" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="14">
         <v>2</v>
       </c>
       <c r="AA26" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
         <v>5</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AD26" s="13">
         <v>5002</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AE26" s="13">
         <v>2.5670000000000002</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AF26" s="14">
         <v>1010012</v>
       </c>
-      <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
@@ -3601,37 +4088,41 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
-        <v>3</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L27" s="13"/>
-      <c r="M27" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="13">
-        <v>1</v>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
       </c>
       <c r="P27" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="13">
-        <v>0</v>
-      </c>
       <c r="R27" s="13">
         <v>0</v>
       </c>
@@ -3642,42 +4133,45 @@
         <v>0</v>
       </c>
       <c r="U27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13">
-        <v>1</v>
-      </c>
-      <c r="X27" s="19">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X27" s="13">
+        <v>1</v>
       </c>
       <c r="Y27" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>2</v>
       </c>
       <c r="AA27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="13">
         <v>6001</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AE27" s="13">
         <v>1.4670000000000001</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AF27" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>107002</v>
       </c>
@@ -3685,35 +4179,39 @@
         <v>1</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13">
-        <v>3</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="13"/>
+      <c r="F28" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="14">
+        <v>3</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="14">
-        <v>2</v>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="O28" s="14">
+        <v>2</v>
+      </c>
+      <c r="P28" s="14">
         <v>0.2</v>
       </c>
-      <c r="P28" s="13">
+      <c r="Q28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="Q28" s="14">
-        <v>0</v>
-      </c>
       <c r="R28" s="14">
         <v>0</v>
       </c>
@@ -3721,45 +4219,48 @@
         <v>0</v>
       </c>
       <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
         <v>25</v>
       </c>
-      <c r="U28" s="14">
-        <v>1</v>
-      </c>
       <c r="V28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="14">
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
         <v>5</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AD28" s="13">
         <v>6002</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AE28" s="13">
         <v>2.2669999999999999</v>
       </c>
-      <c r="AE28" s="14">
+      <c r="AF28" s="14">
         <v>1010014</v>
       </c>
-      <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>108001</v>
       </c>
@@ -3767,38 +4268,42 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13">
-        <v>3</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>115</v>
+        <v>144</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="13">
+        <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="13">
-        <v>1</v>
-      </c>
+      <c r="N29" s="13"/>
       <c r="O29" s="13">
+        <v>1</v>
+      </c>
+      <c r="P29" s="13">
         <v>10</v>
       </c>
-      <c r="P29" s="13">
+      <c r="Q29" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="R29" s="13">
         <v>100</v>
       </c>
-      <c r="R29" s="13">
-        <v>0</v>
-      </c>
       <c r="S29" s="13">
         <v>0</v>
       </c>
@@ -3806,42 +4311,45 @@
         <v>0</v>
       </c>
       <c r="U29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="13">
+        <v>1</v>
+      </c>
+      <c r="W29" s="13">
         <v>3.5</v>
       </c>
-      <c r="W29" s="13">
-        <v>1</v>
-      </c>
-      <c r="X29" s="19">
-        <v>3</v>
+      <c r="X29" s="13">
+        <v>1</v>
       </c>
       <c r="Y29" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>2</v>
       </c>
       <c r="AA29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="13">
         <v>8001</v>
       </c>
-      <c r="AD29" s="13">
+      <c r="AE29" s="13">
         <v>2.3330000000000002</v>
       </c>
-      <c r="AE29" s="13">
+      <c r="AF29" s="13">
         <v>1010011</v>
       </c>
-      <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>108002</v>
       </c>
@@ -3849,83 +4357,90 @@
         <v>1</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13">
-        <v>3</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>99</v>
+      <c r="F30" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="14">
+        <v>3</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14">
-        <v>2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="13"/>
       <c r="O30" s="14">
-        <v>1</v>
-      </c>
-      <c r="P30" s="13">
+        <v>2</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="R30" s="14">
         <v>300</v>
       </c>
-      <c r="R30" s="14">
-        <v>0</v>
-      </c>
       <c r="S30" s="14">
         <v>0</v>
       </c>
       <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
         <v>10</v>
       </c>
-      <c r="U30" s="14">
-        <v>1</v>
-      </c>
       <c r="V30" s="14">
+        <v>1</v>
+      </c>
+      <c r="W30" s="14">
         <v>6</v>
       </c>
-      <c r="W30" s="14">
-        <v>1</v>
-      </c>
       <c r="X30" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z30" s="14">
         <v>2</v>
       </c>
       <c r="AA30" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
         <v>5</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AD30" s="13">
         <v>8002</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AE30" s="13">
         <v>4</v>
       </c>
-      <c r="AE30" s="14">
+      <c r="AF30" s="14">
         <v>1010012</v>
       </c>
-      <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
         <v>108003</v>
       </c>
@@ -3933,83 +4448,90 @@
         <v>1</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13">
-        <v>3</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>117</v>
+      <c r="F31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="13">
+        <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="13"/>
       <c r="O31" s="13">
+        <v>2</v>
+      </c>
+      <c r="P31" s="13">
         <v>10</v>
       </c>
-      <c r="P31" s="13">
+      <c r="Q31" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="Q31" s="13">
-        <v>-1000</v>
-      </c>
       <c r="R31" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S31" s="13">
         <v>0</v>
       </c>
       <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
         <v>20</v>
       </c>
-      <c r="U31" s="13">
-        <v>1</v>
-      </c>
       <c r="V31" s="13">
+        <v>1</v>
+      </c>
+      <c r="W31" s="13">
         <v>8</v>
       </c>
-      <c r="W31" s="13">
-        <v>1</v>
-      </c>
-      <c r="X31" s="19">
-        <v>3</v>
+      <c r="X31" s="13">
+        <v>1</v>
       </c>
       <c r="Y31" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="13">
         <v>5</v>
       </c>
-      <c r="AA31" s="13">
-        <v>0</v>
-      </c>
       <c r="AB31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="13">
         <v>5</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AD31" s="13">
         <v>8002</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AE31" s="13">
         <v>4</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AF31" s="13">
         <v>1010013</v>
       </c>
-      <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>108004</v>
       </c>
@@ -4017,81 +4539,88 @@
         <v>1</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13">
-        <v>3</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>99</v>
+      <c r="F32" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="14">
+        <v>3</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14">
-        <v>4</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32" s="14"/>
       <c r="O32" s="14">
+        <v>3</v>
+      </c>
+      <c r="P32" s="14">
         <v>0.25</v>
       </c>
-      <c r="P32" s="13">
+      <c r="Q32" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="Q32" s="14">
-        <v>0</v>
-      </c>
       <c r="R32" s="14">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
       </c>
       <c r="T32" s="14">
+        <v>0</v>
+      </c>
+      <c r="U32" s="14">
         <v>15</v>
       </c>
-      <c r="U32" s="14">
-        <v>1</v>
-      </c>
       <c r="V32" s="14">
+        <v>1</v>
+      </c>
+      <c r="W32" s="14">
         <v>8</v>
       </c>
-      <c r="W32" s="14">
-        <v>1</v>
-      </c>
       <c r="X32" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
         <v>5</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AD32" s="13">
         <v>8002</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AE32" s="13">
         <v>4</v>
       </c>
-      <c r="AE32" s="14">
+      <c r="AF32" s="14">
         <v>1010014</v>
       </c>
-      <c r="AF32" s="14"/>
       <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D528A0F-38BF-4003-937A-CB9D6CD64B97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B5B52-A2B2-43FA-9432-944269A1ACCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -1725,7 +1725,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,11 +2523,11 @@
       <c r="AC9" s="13">
         <v>5</v>
       </c>
-      <c r="AD9" s="30">
-        <v>1004</v>
-      </c>
-      <c r="AE9" s="30">
-        <v>5.367</v>
+      <c r="AD9" s="25">
+        <v>1002</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>4.633</v>
       </c>
       <c r="AF9" s="13">
         <v>1010013</v>
@@ -2614,11 +2614,11 @@
       <c r="AC10" s="14">
         <v>5</v>
       </c>
-      <c r="AD10" s="13">
-        <v>1002</v>
-      </c>
-      <c r="AE10" s="13">
-        <v>4.633</v>
+      <c r="AD10" s="30">
+        <v>1004</v>
+      </c>
+      <c r="AE10" s="30">
+        <v>5.367</v>
       </c>
       <c r="AF10" s="14">
         <v>1010014</v>
@@ -2891,11 +2891,11 @@
       <c r="AC13" s="13">
         <v>1</v>
       </c>
-      <c r="AD13" s="31">
-        <v>2004</v>
-      </c>
-      <c r="AE13" s="30">
-        <v>7.3330000000000002</v>
+      <c r="AD13" s="29">
+        <v>2003</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>2.8330000000000002</v>
       </c>
       <c r="AF13" s="13">
         <v>1010013</v>
@@ -2984,11 +2984,11 @@
       <c r="AC14" s="14">
         <v>1</v>
       </c>
-      <c r="AD14" s="29">
-        <v>2003</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>2.8330000000000002</v>
+      <c r="AD14" s="31">
+        <v>2004</v>
+      </c>
+      <c r="AE14" s="30">
+        <v>7.3330000000000002</v>
       </c>
       <c r="AF14" s="14">
         <v>1010014</v>
@@ -3255,11 +3255,11 @@
       <c r="AC17" s="13">
         <v>5</v>
       </c>
-      <c r="AD17" s="30">
-        <v>3004</v>
-      </c>
-      <c r="AE17" s="30">
-        <v>6.7</v>
+      <c r="AD17" s="13">
+        <v>3003</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>3.8330000000000002</v>
       </c>
       <c r="AF17" s="13">
         <v>1010013</v>
@@ -3346,11 +3346,11 @@
       <c r="AC18" s="14">
         <v>5</v>
       </c>
-      <c r="AD18" s="13">
-        <v>3003</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>3.8330000000000002</v>
+      <c r="AD18" s="30">
+        <v>3004</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>6.7</v>
       </c>
       <c r="AF18" s="13">
         <v>1010014</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B5B52-A2B2-43FA-9432-944269A1ACCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32645B39-DDC4-4A05-8620-C44C34A316C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,11 +1721,11 @@
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AD22" sqref="AD22"/>
+      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2304,7 +2304,7 @@
         <v>0.1</v>
       </c>
       <c r="R7" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S7" s="13">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S8" s="14">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0.1</v>
       </c>
       <c r="R9" s="13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S9" s="13">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S11" s="13">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>0.1</v>
       </c>
       <c r="R13" s="13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S13" s="13">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="13">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0.1</v>
       </c>
       <c r="R17" s="13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S17" s="13">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S18" s="14">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0.1</v>
       </c>
       <c r="R19" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S19" s="13">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" s="13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0.1</v>
       </c>
       <c r="R29" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S29" s="13">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S30" s="14">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0.1</v>
       </c>
       <c r="R31" s="13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S31" s="13">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
@@ -4610,11 +4610,11 @@
       <c r="AC32" s="14">
         <v>5</v>
       </c>
-      <c r="AD32" s="13">
-        <v>8002</v>
+      <c r="AD32" s="30">
+        <v>8004</v>
       </c>
       <c r="AE32" s="13">
-        <v>4</v>
+        <v>12.133333333333333</v>
       </c>
       <c r="AF32" s="14">
         <v>1010014</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32645B39-DDC4-4A05-8620-C44C34A316C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC5C80-8283-4E37-85DB-8953843B879E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="200">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -198,9 +198,6 @@
     <t>首次技能使用后，每次使用技能需要间隔的最少CD(秒)</t>
   </si>
   <si>
-    <t>单场战斗</t>
-  </si>
-  <si>
     <t>距离目标多远开始静帧使用技能
 0-表示不限距离</t>
   </si>
@@ -211,13 +208,6 @@
   <si>
     <t>目标点到目标范围边界的距离(米)
 圆形-半径</t>
-  </si>
-  <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
   </si>
   <si>
     <t>多个技能效果
@@ -426,9 +416,6 @@
     <t>SKH5406</t>
   </si>
   <si>
-    <t>monster02a</t>
-  </si>
-  <si>
     <t>SKH4805</t>
   </si>
   <si>
@@ -448,9 +435,6 @@
   </si>
   <si>
     <t>SKH5801</t>
-  </si>
-  <si>
-    <t>monster08b</t>
   </si>
   <si>
     <t>技能表现</t>
@@ -824,16 +808,10 @@
   </si>
   <si>
     <t>直线(中)</t>
-  </si>
-  <si>
-    <t>直线(中)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>直线(小)</t>
-  </si>
-  <si>
-    <t>直线(小)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -859,13 +837,65 @@
   </si>
   <si>
     <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
+  </si>
+  <si>
+    <t>1-选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆国王(大)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定的目标造成100%伤害，附带【打断】效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的全体敌人造成大量伤害</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster02a_扫把</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster12b_狼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster08b_蝙蝠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场战斗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,14 +975,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1007,7 +1029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1081,14 +1103,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1171,16 +1219,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,8 +1234,41 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1248,6 +1320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
+        <family val="3"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1265,7 +1338,9 @@
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1358,11 +1433,15 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1395,11 +1474,15 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1418,8 +1501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH32" totalsRowShown="0">
-  <autoFilter ref="C1:AH32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH35" totalsRowShown="0">
+  <autoFilter ref="C1:AH35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
@@ -1718,19 +1801,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
+      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.625" style="2"/>
+    <col min="1" max="8" width="10.625" style="2"/>
+    <col min="9" max="9" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.625" style="2"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="2"/>
     <col min="17" max="19" width="11.75" style="2" customWidth="1"/>
@@ -1739,8 +1824,7 @@
     <col min="24" max="24" width="15.125" style="2" customWidth="1"/>
     <col min="25" max="27" width="10.625" style="2"/>
     <col min="28" max="29" width="12.125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15" style="2" customWidth="1"/>
-    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" customWidth="1"/>
     <col min="33" max="33" width="15" style="2" customWidth="1"/>
     <col min="34" max="34" width="13" style="2" customWidth="1"/>
@@ -1763,13 +1847,13 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="G1" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
@@ -1782,10 +1866,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>10</v>
@@ -1811,7 +1895,7 @@
       <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="41" t="s">
         <v>18</v>
       </c>
       <c r="W1" s="10" t="s">
@@ -1836,13 +1920,13 @@
         <v>25</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AG1" s="20" t="s">
         <v>26</v>
@@ -1863,13 +1947,13 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
@@ -1879,10 +1963,10 @@
         <v>31</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
@@ -1906,187 +1990,187 @@
       <c r="U2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>43</v>
+      <c r="AB2" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="AD2" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AE2" s="22"/>
       <c r="AF2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AD3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>149</v>
+        <v>70</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>16</v>
@@ -2094,45 +2178,45 @@
       <c r="U4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="44" t="s">
         <v>18</v>
       </c>
       <c r="W4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AD4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2153,7 +2237,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -2169,93 +2253,93 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF6" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
@@ -2268,30 +2352,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="13">
-        <v>3</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="O7" s="13">
         <v>1</v>
@@ -2359,32 +2443,32 @@
         <v>1</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>174</v>
+      <c r="F8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="I8" s="14">
         <v>3</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O8" s="14">
         <v>2</v>
@@ -2453,30 +2537,30 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>164</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I9" s="13">
         <v>3</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="36"/>
       <c r="O9" s="13">
         <v>2</v>
       </c>
@@ -2543,31 +2627,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>175</v>
+      <c r="F10" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="37"/>
       <c r="O10" s="14">
         <v>3</v>
       </c>
@@ -2614,10 +2698,10 @@
       <c r="AC10" s="14">
         <v>5</v>
       </c>
-      <c r="AD10" s="30">
+      <c r="AD10" s="28">
         <v>1004</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="28">
         <v>5.367</v>
       </c>
       <c r="AF10" s="14">
@@ -2634,30 +2718,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O11" s="13">
         <v>1</v>
@@ -2705,14 +2789,14 @@
       <c r="AC11" s="13">
         <v>1</v>
       </c>
-      <c r="AD11" s="28" t="s">
-        <v>148</v>
+      <c r="AD11" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="AE11" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF11" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="AF11" s="24" t="s">
-        <v>145</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
@@ -2726,31 +2810,31 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O12" s="14">
         <v>2</v>
@@ -2798,14 +2882,14 @@
       <c r="AC12" s="14">
         <v>1</v>
       </c>
-      <c r="AD12" s="29">
+      <c r="AD12" s="13">
         <v>2002</v>
       </c>
       <c r="AE12" s="13">
         <v>2.8330000000000002</v>
       </c>
       <c r="AF12" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
@@ -2819,31 +2903,31 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O13" s="13">
         <v>2</v>
@@ -2891,7 +2975,7 @@
       <c r="AC13" s="13">
         <v>1</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="25">
         <v>2003</v>
       </c>
       <c r="AE13" s="25">
@@ -2912,31 +2996,31 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O14" s="14">
         <v>3</v>
@@ -2984,10 +3068,10 @@
       <c r="AC14" s="14">
         <v>1</v>
       </c>
-      <c r="AD14" s="31">
+      <c r="AD14" s="28">
         <v>2004</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="28">
         <v>7.3330000000000002</v>
       </c>
       <c r="AF14" s="14">
@@ -3004,29 +3088,29 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="13">
         <v>1</v>
       </c>
@@ -3094,30 +3178,30 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>180</v>
+        <v>153</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="36"/>
       <c r="O16" s="14">
         <v>2</v>
       </c>
@@ -3185,30 +3269,30 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="36"/>
       <c r="O17" s="13">
         <v>2</v>
       </c>
@@ -3235,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X17" s="13">
         <v>1</v>
@@ -3247,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="AA17" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="13">
         <v>0</v>
@@ -3276,30 +3360,30 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>182</v>
+        <v>151</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="37"/>
       <c r="O18" s="14">
         <v>3</v>
       </c>
@@ -3320,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="14">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="V18" s="14">
         <v>1</v>
       </c>
       <c r="W18" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X18" s="14">
         <v>1</v>
@@ -3338,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="AA18" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="14">
         <v>0</v>
@@ -3346,10 +3430,10 @@
       <c r="AC18" s="14">
         <v>5</v>
       </c>
-      <c r="AD18" s="30">
+      <c r="AD18" s="28">
         <v>3004</v>
       </c>
-      <c r="AE18" s="30">
+      <c r="AE18" s="28">
         <v>6.7</v>
       </c>
       <c r="AF18" s="13">
@@ -3365,30 +3449,30 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>111</v>
+      <c r="E19" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="13">
         <v>1</v>
       </c>
@@ -3456,30 +3540,30 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>188</v>
+        <v>153</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="36"/>
       <c r="O20" s="14">
         <v>2</v>
       </c>
@@ -3547,30 +3631,30 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N21" s="36"/>
       <c r="O21" s="13">
         <v>2</v>
       </c>
@@ -3638,30 +3722,30 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>192</v>
+        <v>151</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="37"/>
       <c r="O22" s="14">
         <v>3</v>
       </c>
@@ -3727,31 +3811,31 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>116</v>
+      <c r="E23" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O23" s="13">
         <v>1</v>
@@ -3820,27 +3904,27 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O24" s="14">
         <v>2</v>
@@ -3908,30 +3992,30 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I25" s="13">
         <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
@@ -4000,27 +4084,27 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O26" s="14">
         <v>2</v>
@@ -4087,31 +4171,31 @@
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>119</v>
+      <c r="E27" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I27" s="13">
         <v>3</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
@@ -4180,27 +4264,31 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
@@ -4228,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X28" s="14">
         <v>1</v>
@@ -4240,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB28" s="14">
         <v>0</v>
@@ -4268,29 +4356,29 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>193</v>
+        <v>149</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="13">
         <v>1</v>
       </c>
@@ -4358,30 +4446,30 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>187</v>
+        <v>153</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="I30" s="14">
         <v>3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N30" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N30" s="36"/>
       <c r="O30" s="14">
         <v>2</v>
       </c>
@@ -4449,30 +4537,30 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>189</v>
+      <c r="H31" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N31" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" s="36"/>
       <c r="O31" s="13">
         <v>2</v>
       </c>
@@ -4540,30 +4628,30 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>191</v>
+        <v>151</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N32" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="37"/>
       <c r="O32" s="14">
         <v>3</v>
       </c>
@@ -4610,7 +4698,7 @@
       <c r="AC32" s="14">
         <v>5</v>
       </c>
-      <c r="AD32" s="30">
+      <c r="AD32" s="13">
         <v>8004</v>
       </c>
       <c r="AE32" s="13">
@@ -4621,6 +4709,215 @@
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
+    </row>
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>109001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="33">
+        <v>9001</v>
+      </c>
+      <c r="AE33" s="33">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>1010011</v>
+      </c>
+    </row>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>109002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N34" s="40"/>
+      <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q34" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>5</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>30</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD34" s="33">
+        <v>9002</v>
+      </c>
+      <c r="AE34" s="33">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>1010012</v>
+      </c>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC5C80-8283-4E37-85DB-8953843B879E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B475B34-7A63-4BC5-909B-0800A9FE744F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="188">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -210,10 +210,6 @@
 圆形-半径</t>
   </si>
   <si>
-    <t>多个技能效果
-数组格式</t>
-  </si>
-  <si>
     <t>效果/buff
 触发次数
 暂时不用</t>
@@ -293,9 +289,6 @@
     <t>scope</t>
   </si>
   <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>字段描述</t>
   </si>
   <si>
@@ -344,9 +337,6 @@
     <t>作用对象</t>
   </si>
   <si>
-    <t>效果逻辑</t>
-  </si>
-  <si>
     <t>前后端</t>
   </si>
   <si>
@@ -362,9 +352,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>[]int32</t>
-  </si>
-  <si>
     <t>瓦尔基里</t>
   </si>
   <si>
@@ -438,10 +425,6 @@
   </si>
   <si>
     <t>技能表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -490,39 +473,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>表现持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>timelineID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>timelineDuration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]number</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_time_wait_chufa</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -535,10 +489,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_time_wait_chufa</t>
   </si>
   <si>
@@ -546,14 +496,6 @@
   </si>
   <si>
     <t>洛基</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010015,1010016</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010012,1010017</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1136,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1195,12 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1215,9 +1151,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,42 +1203,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -1501,20 +1410,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH35" totalsRowShown="0">
-  <autoFilter ref="C1:AH35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AF35" totalsRowShown="0">
+  <autoFilter ref="C1:AF35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
@@ -1533,9 +1442,7 @@
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="表现持续时间" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
@@ -1801,14 +1708,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1824,14 +1731,13 @@
     <col min="24" max="24" width="15.125" style="2" customWidth="1"/>
     <col min="25" max="27" width="10.625" style="2"/>
     <col min="28" max="29" width="12.125" style="2" customWidth="1"/>
-    <col min="30" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="2" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" customWidth="1"/>
-    <col min="33" max="33" width="15" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="10.625" style="2"/>
+    <col min="33" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1847,13 +1753,13 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
@@ -1866,10 +1772,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>10</v>
@@ -1895,7 +1801,7 @@
       <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>18</v>
       </c>
       <c r="W1" s="10" t="s">
@@ -1920,22 +1826,16 @@
         <v>25</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AF1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1946,14 +1846,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>157</v>
+      <c r="F2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
@@ -1962,11 +1862,11 @@
       <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>125</v>
+      <c r="L2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
@@ -1990,17 +1890,17 @@
       <c r="U2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="42" t="s">
-        <v>199</v>
+      <c r="V2" s="39" t="s">
+        <v>187</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>167</v>
+      <c r="X2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>40</v>
@@ -2008,169 +1908,159 @@
       <c r="AA2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AB2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AF2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="W3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>135</v>
+      <c r="J4" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>16</v>
@@ -2178,45 +2068,39 @@
       <c r="U4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="W4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AD4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2237,7 +2121,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="43"/>
+      <c r="V5" s="40"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -2246,105 +2130,97 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="K6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="12"/>
-      <c r="R6" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>143</v>
+      <c r="R6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -2352,30 +2228,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>165</v>
+        <v>88</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="I7" s="13">
         <v>3</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O7" s="13">
         <v>1</v>
@@ -2423,19 +2299,13 @@
       <c r="AC7" s="13">
         <v>1</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="22">
         <v>1001</v>
       </c>
-      <c r="AE7" s="24">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -2443,32 +2313,32 @@
         <v>1</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>170</v>
+      <c r="F8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="I8" s="14">
         <v>3</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O8" s="14">
         <v>2</v>
@@ -2519,16 +2389,10 @@
       <c r="AD8" s="14">
         <v>1002</v>
       </c>
-      <c r="AE8" s="14">
-        <v>4.633</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>1010012</v>
-      </c>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -2536,31 +2400,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>172</v>
-      </c>
       <c r="I9" s="13">
         <v>3</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="33"/>
       <c r="O9" s="13">
         <v>2</v>
       </c>
@@ -2607,19 +2471,13 @@
       <c r="AC9" s="13">
         <v>5</v>
       </c>
-      <c r="AD9" s="25">
-        <v>1002</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>4.633</v>
-      </c>
-      <c r="AF9" s="13">
-        <v>1010013</v>
-      </c>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
+      <c r="AD9" s="23">
+        <v>1003</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -2627,31 +2485,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>171</v>
+      <c r="F10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>159</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="34"/>
       <c r="O10" s="14">
         <v>3</v>
       </c>
@@ -2698,19 +2556,13 @@
       <c r="AC10" s="14">
         <v>5</v>
       </c>
-      <c r="AD10" s="28">
-        <v>1004</v>
-      </c>
-      <c r="AE10" s="28">
-        <v>5.367</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>1010014</v>
-      </c>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
+      <c r="AD10" s="23">
+        <v>1002</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -2718,30 +2570,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O11" s="13">
         <v>1</v>
@@ -2789,19 +2641,13 @@
       <c r="AC11" s="13">
         <v>1</v>
       </c>
-      <c r="AD11" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE11" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF11" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
+      <c r="AD11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2810,31 +2656,31 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>173</v>
+        <v>141</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O12" s="14">
         <v>2</v>
@@ -2885,16 +2731,10 @@
       <c r="AD12" s="13">
         <v>2002</v>
       </c>
-      <c r="AE12" s="13">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="AF12" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2903,31 +2743,31 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>174</v>
+        <v>143</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O13" s="13">
         <v>2</v>
@@ -2975,19 +2815,13 @@
       <c r="AC13" s="13">
         <v>1</v>
       </c>
-      <c r="AD13" s="25">
+      <c r="AD13" s="23">
         <v>2003</v>
       </c>
-      <c r="AE13" s="25">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>1010013</v>
-      </c>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2996,31 +2830,31 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>175</v>
+        <v>139</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>163</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O14" s="14">
         <v>3</v>
@@ -3068,19 +2902,13 @@
       <c r="AC14" s="14">
         <v>1</v>
       </c>
-      <c r="AD14" s="28">
-        <v>2004</v>
-      </c>
-      <c r="AE14" s="28">
-        <v>7.3330000000000002</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>1010014</v>
-      </c>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
+      <c r="AD14" s="25">
+        <v>2003</v>
+      </c>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -3088,29 +2916,29 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
       <c r="O15" s="13">
         <v>1</v>
       </c>
@@ -3160,16 +2988,10 @@
       <c r="AD15" s="13">
         <v>3001</v>
       </c>
-      <c r="AE15" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -3178,30 +3000,30 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>176</v>
+        <v>141</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="33"/>
       <c r="O16" s="14">
         <v>2</v>
       </c>
@@ -3251,16 +3073,10 @@
       <c r="AD16" s="13">
         <v>3002</v>
       </c>
-      <c r="AE16" s="13">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -3269,30 +3085,30 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>177</v>
+        <v>143</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N17" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="33"/>
       <c r="O17" s="13">
         <v>2</v>
       </c>
@@ -3342,16 +3158,10 @@
       <c r="AD17" s="13">
         <v>3003</v>
       </c>
-      <c r="AE17" s="13">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="AF17" s="13">
-        <v>1010013</v>
-      </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -3360,30 +3170,30 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>178</v>
+        <v>139</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N18" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="34"/>
       <c r="O18" s="14">
         <v>3</v>
       </c>
@@ -3430,49 +3240,43 @@
       <c r="AC18" s="14">
         <v>5</v>
       </c>
-      <c r="AD18" s="28">
-        <v>3004</v>
-      </c>
-      <c r="AE18" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>1010014</v>
-      </c>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
+      <c r="AD18" s="25">
+        <v>3003</v>
+      </c>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>195</v>
+      <c r="E19" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>166</v>
+        <v>137</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="13">
         <v>1</v>
       </c>
@@ -3522,16 +3326,10 @@
       <c r="AD19" s="13">
         <v>4001</v>
       </c>
-      <c r="AE19" s="13">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -3540,30 +3338,30 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>182</v>
+        <v>141</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N20" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="33"/>
       <c r="O20" s="14">
         <v>2</v>
       </c>
@@ -3613,16 +3411,10 @@
       <c r="AD20" s="13">
         <v>4002</v>
       </c>
-      <c r="AE20" s="13">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="AF20" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -3631,30 +3423,30 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>184</v>
+        <v>143</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N21" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="33"/>
       <c r="O21" s="13">
         <v>2</v>
       </c>
@@ -3704,16 +3496,10 @@
       <c r="AD21" s="13">
         <v>4002</v>
       </c>
-      <c r="AE21" s="13">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>1010013</v>
-      </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -3722,30 +3508,30 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>186</v>
+        <v>139</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N22" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" s="34"/>
       <c r="O22" s="14">
         <v>3</v>
       </c>
@@ -3795,47 +3581,41 @@
       <c r="AD22" s="13">
         <v>4002</v>
       </c>
-      <c r="AE22" s="13">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="AF22" s="14">
-        <v>1010014</v>
-      </c>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="38" t="s">
-        <v>197</v>
+      <c r="E23" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O23" s="13">
         <v>1</v>
@@ -3886,16 +3666,10 @@
       <c r="AD23" s="13">
         <v>5001</v>
       </c>
-      <c r="AE23" s="13">
-        <v>1.167</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
     </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -3904,27 +3678,27 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>163</v>
+        <v>141</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O24" s="14">
         <v>2</v>
@@ -3975,16 +3749,10 @@
       <c r="AD24" s="13">
         <v>5002</v>
       </c>
-      <c r="AE24" s="13">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3992,30 +3760,30 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I25" s="13">
         <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
@@ -4066,16 +3834,10 @@
       <c r="AD25" s="13">
         <v>5001</v>
       </c>
-      <c r="AE25" s="13">
-        <v>1.167</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
     </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -4084,27 +3846,27 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>163</v>
+        <v>141</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O26" s="14">
         <v>2</v>
@@ -4155,47 +3917,41 @@
       <c r="AD26" s="13">
         <v>5002</v>
       </c>
-      <c r="AE26" s="13">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="AF26" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>198</v>
+      <c r="E27" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I27" s="13">
         <v>3</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
@@ -4246,16 +4002,10 @@
       <c r="AD27" s="13">
         <v>6001</v>
       </c>
-      <c r="AE27" s="13">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="AF27" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
     </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>107002</v>
       </c>
@@ -4264,31 +4014,31 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>163</v>
+        <v>141</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
@@ -4339,16 +4089,10 @@
       <c r="AD28" s="13">
         <v>6002</v>
       </c>
-      <c r="AE28" s="13">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="AF28" s="14">
-        <v>1010014</v>
-      </c>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>108001</v>
       </c>
@@ -4356,29 +4100,29 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>187</v>
+        <v>137</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="13">
         <v>1</v>
       </c>
@@ -4428,16 +4172,10 @@
       <c r="AD29" s="13">
         <v>8001</v>
       </c>
-      <c r="AE29" s="13">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>108002</v>
       </c>
@@ -4446,30 +4184,30 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="I30" s="14">
         <v>3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N30" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="33"/>
       <c r="O30" s="14">
         <v>2</v>
       </c>
@@ -4519,16 +4257,10 @@
       <c r="AD30" s="13">
         <v>8002</v>
       </c>
-      <c r="AE30" s="13">
-        <v>4</v>
-      </c>
-      <c r="AF30" s="14">
-        <v>1010012</v>
-      </c>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
         <v>108003</v>
       </c>
@@ -4537,30 +4269,30 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>183</v>
+        <v>143</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N31" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="33"/>
       <c r="O31" s="13">
         <v>2</v>
       </c>
@@ -4587,39 +4319,33 @@
         <v>1</v>
       </c>
       <c r="W31" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X31" s="13">
         <v>1</v>
       </c>
       <c r="Y31" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="19">
         <v>2</v>
       </c>
       <c r="AA31" s="13">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AB31" s="13">
         <v>0</v>
       </c>
       <c r="AC31" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="13">
-        <v>8002</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>4</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>1010013</v>
-      </c>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
+        <v>8003</v>
+      </c>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
     </row>
-    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>108004</v>
       </c>
@@ -4628,30 +4354,30 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>185</v>
+        <v>139</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N32" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="34"/>
       <c r="O32" s="14">
         <v>3</v>
       </c>
@@ -4699,48 +4425,42 @@
         <v>5</v>
       </c>
       <c r="AD32" s="13">
-        <v>8004</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>12.133333333333333</v>
-      </c>
-      <c r="AF32" s="14">
-        <v>1010014</v>
-      </c>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
+        <v>8002</v>
+      </c>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>109001</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>193</v>
+      <c r="E33" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="2">
         <v>1</v>
       </c>
@@ -4787,48 +4507,42 @@
       <c r="AC33" s="2">
         <v>1</v>
       </c>
-      <c r="AD33" s="33">
+      <c r="AD33" s="30">
         <v>9001</v>
       </c>
-      <c r="AE33" s="33">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>1010011</v>
-      </c>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>109002</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>194</v>
+      <c r="F34" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K34" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N34" s="40"/>
+        <v>106</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="37"/>
       <c r="O34" s="2">
         <v>2</v>
       </c>
@@ -4875,49 +4589,41 @@
       <c r="AC34" s="2">
         <v>5</v>
       </c>
-      <c r="AD34" s="33">
+      <c r="AD34" s="30">
         <v>9002</v>
       </c>
-      <c r="AE34" s="33">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="AF34" s="14">
-        <v>1010012</v>
-      </c>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B475B34-7A63-4BC5-909B-0800A9FE744F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA80439-AAB0-49C8-9EF0-3134BFCBF163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -202,14 +202,6 @@
 0-表示不限距离</t>
   </si>
   <si>
-    <t>1-以自身
-2-以目标</t>
-  </si>
-  <si>
-    <t>目标点到目标范围边界的距离(米)
-圆形-半径</t>
-  </si>
-  <si>
     <t>效果/buff
 触发次数
 暂时不用</t>
@@ -591,10 +583,136 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成x%地属性伤害。同时自身获得【再生】效果，每y秒回复自身0.5%生命，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个【石柱】，攻击范围内目标，对其造成x%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击%)，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对单体目标造成x%火属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定范围内的目标造成x%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成x%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，对半径5米范围内敌人造成空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，对半径5米范围内的敌人造成伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的目标造成空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线(中)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线(小)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
+  </si>
+  <si>
+    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
+  </si>
+  <si>
+    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
+  </si>
+  <si>
+    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
+  </si>
+  <si>
+    <t>1-选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆国王(大)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定的目标造成100%伤害，附带【打断】效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的全体敌人造成大量伤害</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster02a_扫把</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster12b_狼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster08b_蝙蝠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场战斗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>触发器ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -605,7 +723,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1-自身周围</t>
+      <t>1-自身</t>
     </r>
     <r>
       <rPr>
@@ -649,16 +767,13 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1-以自身
+2-以目标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0-默认
-圆形-配空
+      <t xml:space="preserve">圆形-配空
 矩形-宽度
 </t>
     </r>
@@ -682,21 +797,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>单位米</t>
+      <t>单位米
+0-无意义
+参数要&gt;0</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>仅对自身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">0-默认
-1-圆形
+1-圆形（范围长表示半径）
 2-矩形
 </t>
     </r>
@@ -713,123 +827,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成x%地属性伤害。同时自身获得【再生】效果，每y秒回复自身0.5%生命，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个【石柱】，攻击范围内目标，对其造成x%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击%)，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对单体目标造成x%火属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对选定范围内的目标造成x%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成x%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续30秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，对半径5米范围内敌人造成空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，对半径5米范围内的敌人造成伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的目标造成空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线(中)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线(小)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
-  </si>
-  <si>
-    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
-  </si>
-  <si>
-    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
-  </si>
-  <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>史莱姆国王(大)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定的目标造成100%伤害，附带【打断】效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的全体敌人造成大量伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster02a_扫把</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster12b_狼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster08b_蝙蝠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>单场战斗</t>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径
+0-不限距离
+参数要&gt;0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身周围</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1209,12 +1214,86 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1244,6 +1323,120 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1410,20 +1603,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AF35" totalsRowShown="0">
-  <autoFilter ref="C1:AF35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH37" totalsRowShown="0">
+  <autoFilter ref="C1:AH37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
@@ -1436,13 +1629,15 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{497B6517-0530-485A-91C0-399FAECE6FCF}" name="列1" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{E6126E45-8AA2-4E9D-996A-C02987C29712}" name="列2" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
@@ -1708,14 +1903,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,16 +1923,21 @@
     <col min="17" max="19" width="11.75" style="2" customWidth="1"/>
     <col min="20" max="22" width="10.625" style="2"/>
     <col min="23" max="23" width="13" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.125" style="2" customWidth="1"/>
-    <col min="25" max="27" width="10.625" style="2"/>
-    <col min="28" max="29" width="12.125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="10.625" style="2"/>
+    <col min="24" max="25" width="10.625" style="2"/>
+    <col min="26" max="26" width="16.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.625" style="2"/>
+    <col min="32" max="33" width="12.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13" style="2" customWidth="1"/>
+    <col min="37" max="37" width="15" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -1772,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>10</v>
@@ -1808,34 +2008,40 @@
         <v>19</v>
       </c>
       <c r="X1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AH1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1847,13 +2053,13 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
@@ -1863,10 +2069,10 @@
         <v>31</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
@@ -1891,176 +2097,182 @@
         <v>38</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z2" s="11" t="s">
+      <c r="X2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AH2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="X3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="W3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AD3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>16</v>
@@ -2072,35 +2284,37 @@
         <v>18</v>
       </c>
       <c r="W4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="AD4" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2130,168 +2344,138 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="8">
-        <v>101001</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="13">
-        <v>3</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>90</v>
-      </c>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
-      <c r="P7" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="N7" s="33"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="13">
-        <v>200</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>1</v>
-      </c>
-      <c r="W7" s="13">
-        <v>2</v>
-      </c>
-      <c r="X7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
       </c>
       <c r="AA7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="13">
         <v>0</v>
@@ -2299,134 +2483,98 @@
       <c r="AC7" s="13">
         <v>1</v>
       </c>
-      <c r="AD7" s="22">
-        <v>1001</v>
-      </c>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C8" s="9">
-        <v>101002</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="14">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="14">
-        <v>2</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="13">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="14">
-        <v>500</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>10</v>
-      </c>
-      <c r="V8" s="14">
-        <v>1</v>
-      </c>
-      <c r="W8" s="14">
-        <v>3</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
       <c r="X8" s="14">
         <v>1</v>
       </c>
       <c r="Y8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="14">
         <v>5</v>
       </c>
-      <c r="AD8" s="14">
-        <v>1002</v>
-      </c>
+      <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
-        <v>101003</v>
+        <v>101001</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>148</v>
-      </c>
       <c r="H9" s="24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I9" s="13">
         <v>3</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="13">
         <v>10</v>
@@ -2436,7 +2584,7 @@
         <v>0.1</v>
       </c>
       <c r="R9" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S9" s="13">
         <v>0</v>
@@ -2445,41 +2593,43 @@
         <v>0</v>
       </c>
       <c r="U9" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V9" s="13">
         <v>1</v>
       </c>
       <c r="W9" s="13">
-        <v>3</v>
-      </c>
-      <c r="X9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="X9" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>1</v>
       </c>
       <c r="AA9" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="23">
-        <v>1003</v>
-      </c>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>1001</v>
+      </c>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
-        <v>101004</v>
+        <v>101002</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2489,39 +2639,41 @@
         <v>140</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O10" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="14">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
@@ -2530,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V10" s="14">
         <v>1</v>
@@ -2539,64 +2691,66 @@
         <v>3</v>
       </c>
       <c r="X10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="14">
         <v>2</v>
       </c>
       <c r="AA10" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="14">
         <v>5</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="14">
         <v>1002</v>
       </c>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
-        <v>102001</v>
+        <v>101003</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>137</v>
+      <c r="E11" s="8"/>
+      <c r="F11" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>146</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="33"/>
       <c r="O11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="13">
         <v>10</v>
@@ -2606,7 +2760,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="13">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S11" s="13">
         <v>0</v>
@@ -2615,85 +2769,85 @@
         <v>0</v>
       </c>
       <c r="U11" s="13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V11" s="13">
         <v>1</v>
       </c>
       <c r="W11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="X11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="X11" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>3</v>
       </c>
       <c r="AA11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>1003</v>
+      </c>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
-        <v>102002</v>
+        <v>101004</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="14" t="s">
-        <v>141</v>
+      <c r="F12" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="34"/>
       <c r="O12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
@@ -2702,75 +2856,75 @@
         <v>0</v>
       </c>
       <c r="U12" s="14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V12" s="14">
         <v>1</v>
       </c>
       <c r="W12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="14">
         <v>2</v>
       </c>
       <c r="AA12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>2002</v>
-      </c>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>1002</v>
+      </c>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
-        <v>102003</v>
+        <v>102001</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O13" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="13">
         <v>10</v>
@@ -2780,7 +2934,7 @@
         <v>0.1</v>
       </c>
       <c r="R13" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S13" s="13">
         <v>0</v>
@@ -2789,41 +2943,43 @@
         <v>0</v>
       </c>
       <c r="U13" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V13" s="13">
         <v>1</v>
       </c>
       <c r="W13" s="13">
-        <v>4</v>
-      </c>
-      <c r="X13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="X13" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>1</v>
       </c>
       <c r="AA13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="13">
         <v>1</v>
       </c>
-      <c r="AD13" s="23">
-        <v>2003</v>
-      </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="AD13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
-        <v>102004</v>
+        <v>102002</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2833,41 +2989,41 @@
         <v>139</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>129</v>
+        <v>88</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O14" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="14">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
@@ -2876,71 +3032,77 @@
         <v>0</v>
       </c>
       <c r="U14" s="14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V14" s="14">
         <v>1</v>
       </c>
       <c r="W14" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X14" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="14">
         <v>1</v>
       </c>
-      <c r="AD14" s="25">
-        <v>2003</v>
-      </c>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="AD14" s="13">
+        <v>2002</v>
+      </c>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
-        <v>103001</v>
+        <v>102003</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="13">
         <v>10</v>
@@ -2950,7 +3112,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="13">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S15" s="13">
         <v>0</v>
@@ -2959,83 +3121,87 @@
         <v>0</v>
       </c>
       <c r="U15" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V15" s="13">
         <v>1</v>
       </c>
       <c r="W15" s="13">
-        <v>6</v>
-      </c>
-      <c r="X15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="19">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="X15" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>1</v>
       </c>
       <c r="AA15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="13">
         <v>1</v>
       </c>
-      <c r="AD15" s="13">
-        <v>3001</v>
-      </c>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="AD15" s="23">
+        <v>2003</v>
+      </c>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
-        <v>103002</v>
+        <v>102004</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
@@ -3044,73 +3210,73 @@
         <v>0</v>
       </c>
       <c r="U16" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V16" s="14">
         <v>1</v>
       </c>
       <c r="W16" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>3002</v>
-      </c>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>2003</v>
+      </c>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
-        <v>103003</v>
+        <v>103001</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F17" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="13">
         <v>10</v>
@@ -3120,7 +3286,7 @@
         <v>0.1</v>
       </c>
       <c r="R17" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S17" s="13">
         <v>0</v>
@@ -3129,41 +3295,43 @@
         <v>0</v>
       </c>
       <c r="U17" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V17" s="13">
         <v>1</v>
       </c>
       <c r="W17" s="13">
-        <v>8</v>
-      </c>
-      <c r="X17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="19">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="X17" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>1</v>
       </c>
       <c r="AA17" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="13">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
-        <v>103004</v>
+        <v>103002</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -3173,39 +3341,39 @@
         <v>139</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="N18" s="33"/>
       <c r="O18" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" s="14">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S18" s="14">
         <v>0</v>
@@ -3214,71 +3382,75 @@
         <v>0</v>
       </c>
       <c r="U18" s="14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V18" s="14">
         <v>1</v>
       </c>
       <c r="W18" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="14">
         <v>0</v>
       </c>
       <c r="AB18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="14">
         <v>5</v>
       </c>
-      <c r="AD18" s="25">
-        <v>3003</v>
-      </c>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
+      <c r="AD18" s="13">
+        <v>3002</v>
+      </c>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
-        <v>104001</v>
+        <v>103003</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>183</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>127</v>
+      </c>
       <c r="N19" s="33"/>
       <c r="O19" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="13">
         <v>10</v>
@@ -3288,7 +3460,7 @@
         <v>0.1</v>
       </c>
       <c r="R19" s="13">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S19" s="13">
         <v>0</v>
@@ -3297,83 +3469,85 @@
         <v>0</v>
       </c>
       <c r="U19" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V19" s="13">
         <v>1</v>
       </c>
       <c r="W19" s="13">
-        <v>4</v>
-      </c>
-      <c r="X19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="19">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="X19" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>6</v>
       </c>
       <c r="AA19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="13">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
-        <v>104002</v>
+        <v>103004</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N20" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="N20" s="34"/>
       <c r="O20" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" s="14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -3382,73 +3556,73 @@
         <v>0</v>
       </c>
       <c r="U20" s="14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V20" s="14">
         <v>1</v>
       </c>
       <c r="W20" s="14">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="14">
         <v>5</v>
       </c>
-      <c r="AD20" s="13">
-        <v>4002</v>
-      </c>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
+      <c r="AD20" s="25">
+        <v>3003</v>
+      </c>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
-        <v>104003</v>
+        <v>104001</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="35" t="s">
+        <v>178</v>
+      </c>
       <c r="F21" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="13">
         <v>10</v>
@@ -3458,7 +3632,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
@@ -3467,41 +3641,43 @@
         <v>0</v>
       </c>
       <c r="U21" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V21" s="13">
         <v>1</v>
       </c>
       <c r="W21" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="X21" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="19">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="X21" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1</v>
       </c>
       <c r="AA21" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="13">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
-        <v>104004</v>
+        <v>104002</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -3511,39 +3687,39 @@
         <v>139</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="N22" s="33"/>
       <c r="O22" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R22" s="14">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
@@ -3552,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V22" s="14">
         <v>1</v>
@@ -3561,19 +3737,19 @@
         <v>2.5</v>
       </c>
       <c r="X22" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="14">
         <v>2</v>
       </c>
       <c r="AA22" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="14">
         <v>5</v>
@@ -3581,54 +3757,56 @@
       <c r="AD22" s="13">
         <v>4002</v>
       </c>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
-        <v>105001</v>
+        <v>104003</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>185</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="33"/>
       <c r="O23" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R23" s="13">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S23" s="13">
         <v>0</v>
@@ -3637,78 +3815,82 @@
         <v>0</v>
       </c>
       <c r="U23" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V23" s="13">
         <v>1</v>
       </c>
       <c r="W23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="X23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="19">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="X23" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>5</v>
       </c>
       <c r="AA23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="13">
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
-        <v>105002</v>
+        <v>104004</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="34"/>
       <c r="O24" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q24" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24" s="14">
         <v>0</v>
@@ -3720,70 +3902,72 @@
         <v>0</v>
       </c>
       <c r="U24" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V24" s="14">
         <v>1</v>
       </c>
       <c r="W24" s="14">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X24" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA24" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="14">
         <v>5</v>
       </c>
       <c r="AD24" s="13">
-        <v>5002</v>
-      </c>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
+        <v>4002</v>
+      </c>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
-        <v>106001</v>
+        <v>105001</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>109</v>
+      <c r="E25" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I25" s="13">
         <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
@@ -3813,20 +3997,20 @@
       <c r="W25" s="13">
         <v>1.5</v>
       </c>
-      <c r="X25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="19">
-        <v>2</v>
+      <c r="X25" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>1</v>
       </c>
       <c r="AA25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="13">
         <v>1</v>
@@ -3836,37 +4020,39 @@
       </c>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
-        <v>106002</v>
+        <v>105002</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O26" s="14">
         <v>2</v>
@@ -3874,7 +4060,7 @@
       <c r="P26" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
@@ -3897,19 +4083,19 @@
         <v>1.5</v>
       </c>
       <c r="X26" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="14">
         <v>2</v>
       </c>
       <c r="AA26" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="14">
         <v>5</v>
@@ -3917,41 +4103,43 @@
       <c r="AD26" s="13">
         <v>5002</v>
       </c>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
-        <v>107001</v>
+        <v>106001</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>186</v>
+      <c r="E27" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I27" s="13">
         <v>3</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
@@ -3979,76 +4167,74 @@
         <v>1</v>
       </c>
       <c r="W27" s="13">
-        <v>2</v>
-      </c>
-      <c r="X27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="19">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="X27" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>1</v>
       </c>
       <c r="AA27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
-        <v>107002</v>
+        <v>106002</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
       </c>
       <c r="P28" s="14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R28" s="14">
         <v>0</v>
@@ -4060,81 +4246,85 @@
         <v>0</v>
       </c>
       <c r="U28" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V28" s="14">
         <v>1</v>
       </c>
       <c r="W28" s="14">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="X28" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y28" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="14">
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="14">
         <v>5</v>
       </c>
       <c r="AD28" s="13">
-        <v>6002</v>
-      </c>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+        <v>5002</v>
+      </c>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
-        <v>108001</v>
+        <v>107001</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>130</v>
+      <c r="E29" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="N29" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O29" s="13">
         <v>1</v>
       </c>
       <c r="P29" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R29" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S29" s="13">
         <v>0</v>
@@ -4149,77 +4339,81 @@
         <v>1</v>
       </c>
       <c r="W29" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="X29" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="19">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="X29" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1</v>
       </c>
       <c r="AA29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="13">
         <v>1</v>
       </c>
       <c r="AD29" s="13">
-        <v>8001</v>
+        <v>6001</v>
       </c>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
-        <v>108002</v>
+        <v>107002</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>169</v>
+        <v>144</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="I30" s="14">
         <v>3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N30" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="O30" s="14">
         <v>2</v>
       </c>
       <c r="P30" s="14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q30" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" s="14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S30" s="14">
         <v>0</v>
@@ -4228,73 +4422,73 @@
         <v>0</v>
       </c>
       <c r="U30" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V30" s="14">
         <v>1</v>
       </c>
       <c r="W30" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X30" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA30" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="14">
         <v>5</v>
       </c>
       <c r="AD30" s="13">
-        <v>8002</v>
-      </c>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
+        <v>6002</v>
+      </c>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
-        <v>108003</v>
+        <v>108001</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F31" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="13">
         <v>10</v>
@@ -4304,7 +4498,7 @@
         <v>0.1</v>
       </c>
       <c r="R31" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="S31" s="13">
         <v>0</v>
@@ -4313,41 +4507,43 @@
         <v>0</v>
       </c>
       <c r="U31" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V31" s="13">
         <v>1</v>
       </c>
       <c r="W31" s="13">
-        <v>10</v>
-      </c>
-      <c r="X31" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="19">
-        <v>2</v>
+        <v>3.5</v>
+      </c>
+      <c r="X31" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>1</v>
       </c>
       <c r="AA31" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="13">
         <v>1</v>
       </c>
       <c r="AD31" s="13">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
-        <v>108004</v>
+        <v>108002</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -4357,39 +4553,39 @@
         <v>139</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="N32" s="33"/>
       <c r="O32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" s="14">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
@@ -4398,28 +4594,28 @@
         <v>0</v>
       </c>
       <c r="U32" s="14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V32" s="14">
         <v>1</v>
       </c>
       <c r="W32" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X32" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="14">
         <v>2</v>
       </c>
       <c r="AA32" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="14">
         <v>5</v>
@@ -4427,203 +4623,385 @@
       <c r="AD32" s="13">
         <v>8002</v>
       </c>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C33" s="2">
-        <v>109001</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>179</v>
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C33" s="8">
+        <v>108003</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="13">
+        <v>3</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="2">
-        <v>1</v>
+      <c r="K33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="13">
+        <v>2</v>
       </c>
       <c r="P33" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
-        <v>1</v>
-      </c>
-      <c r="W33" s="2">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="30">
-        <v>9001</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="13">
+        <v>500</v>
+      </c>
+      <c r="S33" s="13">
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>20</v>
+      </c>
+      <c r="V33" s="13">
+        <v>1</v>
+      </c>
+      <c r="W33" s="13">
+        <v>10</v>
+      </c>
+      <c r="X33" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>8003</v>
+      </c>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C34" s="2">
-        <v>109002</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>180</v>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C34" s="9">
+        <v>108004</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="14">
+        <v>3</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="32" t="s">
-        <v>184</v>
+      <c r="K34" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="2">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="14">
+        <v>3</v>
       </c>
       <c r="P34" s="14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q34" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>4</v>
+      </c>
+      <c r="R34" s="14">
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0</v>
+      </c>
+      <c r="T34" s="14">
+        <v>0</v>
+      </c>
+      <c r="U34" s="14">
+        <v>15</v>
+      </c>
+      <c r="V34" s="14">
+        <v>1</v>
+      </c>
+      <c r="W34" s="14">
+        <v>8</v>
+      </c>
+      <c r="X34" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="14">
         <v>5</v>
       </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0</v>
-      </c>
-      <c r="U34" s="2">
+      <c r="AD34" s="13">
+        <v>8002</v>
+      </c>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>109001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="30">
+        <v>9001</v>
+      </c>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+    </row>
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>109002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>5</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
         <v>30</v>
       </c>
-      <c r="V34" s="2">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2">
-        <v>0</v>
-      </c>
-      <c r="X34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="2">
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="2">
         <v>8</v>
       </c>
-      <c r="AB34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2">
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="2">
         <v>5</v>
       </c>
-      <c r="AD34" s="30">
+      <c r="AD36" s="30">
         <v>9002</v>
       </c>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA80439-AAB0-49C8-9EF0-3134BFCBF163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A9442-503A-48A7-B16D-695DCE3893E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="190">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -700,16 +700,6 @@
   </si>
   <si>
     <t>单场战斗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>触发器ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -808,9 +798,21 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径
+0-不限距离
+参数要&gt;0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身周围</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">0-默认
-1-圆形（范围长表示半径）
+1-圆形
+（范围长表示半径）
 2-矩形
 </t>
     </r>
@@ -824,17 +826,6 @@
       </rPr>
       <t>3-扇形</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标点到目标范围边界的距离(米)
-圆形-半径
-0-不限距离
-参数要&gt;0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身周围</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,9 +1205,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,75 +1213,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -1603,20 +1523,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH37" totalsRowShown="0">
-  <autoFilter ref="C1:AH37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AF37" totalsRowShown="0">
+  <autoFilter ref="C1:AF37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="7"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
@@ -1629,15 +1549,13 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{497B6517-0530-485A-91C0-399FAECE6FCF}" name="列1" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{E6126E45-8AA2-4E9D-996A-C02987C29712}" name="列2" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="1"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
@@ -1903,14 +1821,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1928,16 +1846,15 @@
     <col min="27" max="27" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.625" style="2"/>
-    <col min="32" max="33" width="12.125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13" style="2" customWidth="1"/>
-    <col min="37" max="37" width="15" style="2" customWidth="1"/>
-    <col min="38" max="38" width="13" style="2" customWidth="1"/>
-    <col min="39" max="16384" width="10.625" style="2"/>
+    <col min="31" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13" style="2" customWidth="1"/>
+    <col min="35" max="35" width="15" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2028,20 +1945,14 @@
       <c r="AD1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AE1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AF1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2103,19 +2014,19 @@
         <v>39</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y2" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Z2" s="20" t="s">
-        <v>191</v>
-      </c>
       <c r="AA2" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC2" s="28" t="s">
         <v>171</v>
@@ -2123,16 +2034,14 @@
       <c r="AD2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2216,14 +2125,10 @@
       <c r="AD3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" s="21" t="s">
-        <v>185</v>
-      </c>
+      <c r="AE3" s="21"/>
       <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -2309,10 +2214,8 @@
       </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
@@ -2344,12 +2247,10 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
@@ -2435,14 +2336,12 @@
       </c>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2455,10 +2354,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="13" t="e">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -2484,16 +2380,14 @@
         <v>1</v>
       </c>
       <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="45" t="s">
-        <v>192</v>
+      <c r="E8" s="44" t="s">
+        <v>188</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2506,10 +2400,7 @@
       <c r="N8" s="33"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="13" t="e">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -2537,10 +2428,8 @@
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101001</v>
       </c>
@@ -2622,12 +2511,10 @@
       <c r="AD9" s="22">
         <v>1001</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101002</v>
       </c>
@@ -2713,10 +2600,8 @@
       </c>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>101003</v>
       </c>
@@ -2798,12 +2683,10 @@
       <c r="AD11" s="23">
         <v>1003</v>
       </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>101004</v>
       </c>
@@ -2885,12 +2768,10 @@
       <c r="AD12" s="23">
         <v>1002</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102001</v>
       </c>
@@ -2972,12 +2853,10 @@
       <c r="AD13" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102002</v>
       </c>
@@ -3061,12 +2940,10 @@
       <c r="AD14" s="13">
         <v>2002</v>
       </c>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>102003</v>
       </c>
@@ -3150,12 +3027,10 @@
       <c r="AD15" s="23">
         <v>2003</v>
       </c>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>102004</v>
       </c>
@@ -3239,12 +3114,10 @@
       <c r="AD16" s="25">
         <v>2003</v>
       </c>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103001</v>
       </c>
@@ -3326,10 +3199,8 @@
       </c>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103002</v>
       </c>
@@ -3411,12 +3282,10 @@
       <c r="AD18" s="13">
         <v>3002</v>
       </c>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>103003</v>
       </c>
@@ -3500,10 +3369,8 @@
       </c>
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>103004</v>
       </c>
@@ -3585,12 +3452,10 @@
       <c r="AD20" s="25">
         <v>3003</v>
       </c>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104001</v>
       </c>
@@ -3672,10 +3537,8 @@
       </c>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104002</v>
       </c>
@@ -3757,12 +3620,10 @@
       <c r="AD22" s="13">
         <v>4002</v>
       </c>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>104003</v>
       </c>
@@ -3846,10 +3707,8 @@
       </c>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>104004</v>
       </c>
@@ -3931,12 +3790,10 @@
       <c r="AD24" s="13">
         <v>4002</v>
       </c>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>105001</v>
       </c>
@@ -4020,10 +3877,8 @@
       </c>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>105002</v>
       </c>
@@ -4103,12 +3958,10 @@
       <c r="AD26" s="13">
         <v>5002</v>
       </c>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>106001</v>
       </c>
@@ -4192,10 +4045,8 @@
       </c>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>106002</v>
       </c>
@@ -4275,12 +4126,10 @@
       <c r="AD28" s="13">
         <v>5002</v>
       </c>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>107001</v>
       </c>
@@ -4364,10 +4213,8 @@
       </c>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>107002</v>
       </c>
@@ -4451,12 +4298,10 @@
       <c r="AD30" s="13">
         <v>6002</v>
       </c>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
         <v>108001</v>
       </c>
@@ -4538,10 +4383,8 @@
       </c>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>108002</v>
       </c>
@@ -4623,12 +4466,10 @@
       <c r="AD32" s="13">
         <v>8002</v>
       </c>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="8">
         <v>108003</v>
       </c>
@@ -4712,10 +4553,8 @@
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>108004</v>
       </c>
@@ -4797,12 +4636,10 @@
       <c r="AD34" s="13">
         <v>8002</v>
       </c>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>109001</v>
       </c>
@@ -4882,10 +4719,8 @@
       <c r="AD35" s="30">
         <v>9001</v>
       </c>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>109002</v>
       </c>
@@ -4966,12 +4801,14 @@
       <c r="AD36" s="30">
         <v>9002</v>
       </c>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C37" s="31">
+        <v>200001</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4998,10 +4835,8 @@
       <c r="AB37" s="31"/>
       <c r="AC37" s="31"/>
       <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A9442-503A-48A7-B16D-695DCE3893E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DBADE9-0465-4367-BA24-E43AE9286F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -1828,7 +1828,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DBADE9-0465-4367-BA24-E43AE9286F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695AD47-7974-4C09-9929-3FE422EC6617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -166,14 +166,6 @@
   </si>
   <si>
     <t>配置箭头指向还是抛物线指向</t>
-  </si>
-  <si>
-    <t>1-普通攻击
-2-一般技能
-3-奥义技能
-4-残响技能
-5-被动技能
-6-引导技能</t>
   </si>
   <si>
     <t>施法后
@@ -828,12 +820,67 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>被动技能1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的触发器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器条件关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+  </si>
+  <si>
+    <t>triggerId</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>triggerRelation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器条件关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器条件关系
+0-且
+1-或</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-普通攻击
+2-一般技能
+3-奥义技能
+4-残响技能
+5-被动技能
+6-引导技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定被动技能在哪些情况下触发
+仅被动技能生效
+被动技能生效会播timeline的表演
+被动未配触发器，表演不播放，effect会读出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +976,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -967,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1067,6 +1122,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1074,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,12 +1276,94 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1523,20 +1673,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AF37" totalsRowShown="0">
-  <autoFilter ref="C1:AF37" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH44" totalsRowShown="0">
+  <autoFilter ref="C1:AH44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
@@ -1549,13 +1699,15 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="5"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{38A6B9BF-6A56-4492-BBB6-895B66A226AC}" name="技能的触发器" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{87AEEB19-24D2-45FD-9242-5C494EC60E64}" name="触发器条件关系" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
@@ -1821,22 +1973,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.625" style="2"/>
+    <col min="1" max="6" width="10.625" style="2"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="10.625" style="2"/>
-    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.625" style="2"/>
     <col min="17" max="19" width="11.75" style="2" customWidth="1"/>
     <col min="20" max="22" width="10.625" style="2"/>
@@ -1846,15 +2000,16 @@
     <col min="27" max="27" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13" style="2" customWidth="1"/>
-    <col min="35" max="35" width="15" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="10.625" style="2"/>
+    <col min="31" max="32" width="15.375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="12.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13" style="2" customWidth="1"/>
+    <col min="37" max="37" width="15" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -1889,10 +2044,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>10</v>
@@ -1943,16 +2098,22 @@
         <v>25</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE1" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AH1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1964,13 +2125,13 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
@@ -1980,204 +2141,216 @@
         <v>31</v>
       </c>
       <c r="L2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="X2" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AH2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="W3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF3" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>16</v>
@@ -2189,35 +2362,41 @@
         <v>18</v>
       </c>
       <c r="W4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF4" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2247,101 +2426,109 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="K6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="X6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="AB6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="AE6" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2380,14 +2567,16 @@
         <v>1</v>
       </c>
       <c r="AD7" s="22"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2428,8 +2617,10 @@
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101001</v>
       </c>
@@ -2437,30 +2628,30 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O9" s="13">
         <v>1</v>
@@ -2511,10 +2702,12 @@
       <c r="AD9" s="22">
         <v>1001</v>
       </c>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101002</v>
       </c>
@@ -2523,31 +2716,31 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="O10" s="14">
         <v>2</v>
@@ -2600,8 +2793,10 @@
       </c>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>101003</v>
       </c>
@@ -2610,28 +2805,28 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="13">
@@ -2683,10 +2878,12 @@
       <c r="AD11" s="23">
         <v>1003</v>
       </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>101004</v>
       </c>
@@ -2695,28 +2892,28 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="14">
@@ -2768,10 +2965,12 @@
       <c r="AD12" s="23">
         <v>1002</v>
       </c>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102001</v>
       </c>
@@ -2779,30 +2978,30 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="K13" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O13" s="13">
         <v>1</v>
@@ -2851,12 +3050,14 @@
         <v>1</v>
       </c>
       <c r="AD13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102002</v>
       </c>
@@ -2865,31 +3066,31 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="O14" s="14">
         <v>2</v>
@@ -2940,10 +3141,12 @@
       <c r="AD14" s="13">
         <v>2002</v>
       </c>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>102003</v>
       </c>
@@ -2952,31 +3155,31 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="O15" s="13">
         <v>2</v>
@@ -3027,10 +3230,12 @@
       <c r="AD15" s="23">
         <v>2003</v>
       </c>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>102004</v>
       </c>
@@ -3039,31 +3244,31 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="O16" s="14">
         <v>3</v>
@@ -3114,10 +3319,12 @@
       <c r="AD16" s="25">
         <v>2003</v>
       </c>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103001</v>
       </c>
@@ -3125,25 +3332,25 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="13">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="K17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -3199,8 +3406,10 @@
       </c>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103002</v>
       </c>
@@ -3209,28 +3418,28 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="14">
@@ -3282,10 +3491,12 @@
       <c r="AD18" s="13">
         <v>3002</v>
       </c>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>103003</v>
       </c>
@@ -3294,28 +3505,28 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="13">
@@ -3369,8 +3580,10 @@
       </c>
       <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>103004</v>
       </c>
@@ -3379,28 +3592,28 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="14">
@@ -3452,10 +3665,12 @@
       <c r="AD20" s="25">
         <v>3003</v>
       </c>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104001</v>
       </c>
@@ -3463,25 +3678,25 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -3537,8 +3752,10 @@
       </c>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104002</v>
       </c>
@@ -3547,28 +3764,28 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14">
@@ -3620,10 +3837,12 @@
       <c r="AD22" s="13">
         <v>4002</v>
       </c>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>104003</v>
       </c>
@@ -3632,28 +3851,28 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="13">
@@ -3707,8 +3926,10 @@
       </c>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>104004</v>
       </c>
@@ -3717,28 +3938,28 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>162</v>
+        <v>136</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N24" s="34"/>
       <c r="O24" s="14">
@@ -3790,10 +4011,12 @@
       <c r="AD24" s="13">
         <v>4002</v>
       </c>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>105001</v>
       </c>
@@ -3801,30 +4024,30 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="13">
         <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
@@ -3877,8 +4100,10 @@
       </c>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>105002</v>
       </c>
@@ -3887,27 +4112,27 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O26" s="14">
         <v>2</v>
@@ -3958,10 +4183,12 @@
       <c r="AD26" s="13">
         <v>5002</v>
       </c>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>106001</v>
       </c>
@@ -3969,30 +4196,30 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="13">
-        <v>3</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="K27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
@@ -4045,8 +4272,10 @@
       </c>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>106002</v>
       </c>
@@ -4055,27 +4284,27 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
@@ -4126,10 +4355,12 @@
       <c r="AD28" s="13">
         <v>5002</v>
       </c>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>107001</v>
       </c>
@@ -4137,30 +4368,30 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="13">
         <v>1</v>
@@ -4213,8 +4444,10 @@
       </c>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>107002</v>
       </c>
@@ -4223,31 +4456,31 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I30" s="14">
         <v>3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="O30" s="14">
         <v>2</v>
@@ -4298,10 +4531,12 @@
       <c r="AD30" s="13">
         <v>6002</v>
       </c>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
         <v>108001</v>
       </c>
@@ -4309,25 +4544,25 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
@@ -4383,8 +4618,10 @@
       </c>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>108002</v>
       </c>
@@ -4393,28 +4630,28 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="14">
@@ -4466,10 +4703,12 @@
       <c r="AD32" s="13">
         <v>8002</v>
       </c>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="8">
         <v>108003</v>
       </c>
@@ -4478,28 +4717,28 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I33" s="13">
         <v>3</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="13">
@@ -4553,8 +4792,10 @@
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>108004</v>
       </c>
@@ -4563,28 +4804,28 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>162</v>
+        <v>136</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34" s="14">
         <v>3</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L34" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N34" s="34"/>
       <c r="O34" s="14">
@@ -4636,10 +4877,12 @@
       <c r="AD34" s="13">
         <v>8002</v>
       </c>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>109001</v>
       </c>
@@ -4647,25 +4890,25 @@
         <v>1</v>
       </c>
       <c r="E35" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>144</v>
+      <c r="G35" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -4719,8 +4962,10 @@
       <c r="AD35" s="30">
         <v>9001</v>
       </c>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>109002</v>
       </c>
@@ -4728,28 +4973,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>148</v>
+        <v>174</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L36" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="2">
@@ -4801,14 +5046,12 @@
       <c r="AD36" s="30">
         <v>9002</v>
       </c>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C37" s="31">
-        <v>200001</v>
-      </c>
-      <c r="D37" s="31">
-        <v>1</v>
-      </c>
+    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -4835,8 +5078,296 @@
       <c r="AB37" s="31"/>
       <c r="AC37" s="31"/>
       <c r="AD37" s="23"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C38" s="31">
+        <v>200001</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31">
+        <v>0</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31">
+        <v>0</v>
+      </c>
+      <c r="L38" s="23">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="31">
+        <v>5</v>
+      </c>
+      <c r="P38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>0</v>
+      </c>
+      <c r="R38" s="31">
+        <v>0</v>
+      </c>
+      <c r="S38" s="31">
+        <v>0</v>
+      </c>
+      <c r="T38" s="31">
+        <v>0</v>
+      </c>
+      <c r="U38" s="31">
+        <v>0</v>
+      </c>
+      <c r="V38" s="31">
+        <v>0</v>
+      </c>
+      <c r="W38" s="31">
+        <v>0</v>
+      </c>
+      <c r="X38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+    </row>
+    <row r="40" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+    </row>
+    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+    </row>
+    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+    </row>
+    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+    </row>
+    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695AD47-7974-4C09-9929-3FE422EC6617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65A3B7-E2E4-46AB-93DD-23A1992A8B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="202">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -264,9 +264,6 @@
     <t>skillLaunch</t>
   </si>
   <si>
-    <t>targetLength</t>
-  </si>
-  <si>
     <t>targetWide</t>
   </si>
   <si>
@@ -563,47 +560,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动至目标附近，对选定的目标造成100%伤害，第2段附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>移动至目标附近，并对选定目标造成100%伤害，附带【打断】效果。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成x%地属性伤害。同时自身获得【再生】效果，每y秒回复自身0.5%生命，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个【石柱】，攻击范围内目标，对其造成x%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击%)，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对单体目标造成x%火属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对选定范围内的目标造成x%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成x%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续30秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，对半径5米范围内敌人造成空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，对半径5米范围内的敌人造成伤害。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -873,6 +834,50 @@
 仅被动技能生效
 被动技能生效会播timeline的表演
 被动未配触发器，表演不播放，effect会读出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。【护盾】可根据施法者生命上限15%抵消受到的伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetLength</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个【石柱】，攻击范围内目标，对其造成200%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击100%+100)，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定的目标造成2段伤害 ，第1段40%+80伤害，第2段60%+120伤害并附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成4*150%地属性伤害。同时自身获得【再生】效果，每5秒回复自身3%生命，持续50秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对单体目标造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定范围内的目标造成4*80%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成600%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续60秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定的目标造成100%+200伤害，附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，并对其半径5米范围内敌人造成3*80%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定敌方单体目标，并对其半径8米范围内的敌人造成150%伤害。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +990,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
@@ -1142,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,6 +1304,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1976,11 +1990,11 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -2044,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>10</v>
@@ -2098,13 +2112,13 @@
         <v>25</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AG1" s="42" t="s">
         <v>26</v>
@@ -2125,13 +2139,13 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
@@ -2141,16 +2155,16 @@
         <v>31</v>
       </c>
       <c r="L2" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>33</v>
@@ -2169,37 +2183,37 @@
         <v>37</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AA2" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AB2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF2" s="49" t="s">
         <v>188</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE2" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF2" s="49" t="s">
-        <v>198</v>
       </c>
       <c r="AG2" s="43" t="s">
         <v>39</v>
@@ -2223,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>45</v>
@@ -2238,10 +2252,10 @@
         <v>48</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>49</v>
@@ -2277,33 +2291,33 @@
       <c r="Y3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="AB3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="47" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AF3" s="47" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>42</v>
@@ -2313,44 +2327,44 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>16</v>
@@ -2362,41 +2376,41 @@
         <v>18</v>
       </c>
       <c r="W4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="AD4" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE4" s="47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AF4" s="50" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2433,93 +2447,93 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="K6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="X6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="AB6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AE6" s="47" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
@@ -2528,7 +2542,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="35" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2576,7 +2590,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="44" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2621,37 +2635,37 @@
       <c r="AH8" s="14"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>101001</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="13">
         <v>1</v>
@@ -2708,7 +2722,7 @@
       <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C10" s="9">
+      <c r="C10" s="51">
         <v>101002</v>
       </c>
       <c r="D10" s="9">
@@ -2716,32 +2730,30 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>88</v>
-      </c>
+      <c r="N10" s="33"/>
       <c r="O10" s="14">
         <v>2</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
@@ -2762,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V10" s="14">
         <v>1</v>
       </c>
       <c r="W10" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="14">
         <v>2</v>
       </c>
       <c r="Z10" s="14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA10" s="14">
         <v>0</v>
@@ -2786,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="14">
         <v>1002</v>
@@ -2797,7 +2809,7 @@
       <c r="AH10" s="14"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>101003</v>
       </c>
       <c r="D11" s="8">
@@ -2805,28 +2817,28 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="13">
@@ -2840,7 +2852,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S11" s="13">
         <v>0</v>
@@ -2849,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V11" s="13">
         <v>1</v>
       </c>
       <c r="W11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X11" s="19">
         <v>3</v>
@@ -2884,7 +2896,7 @@
       <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C12" s="9">
+      <c r="C12" s="51">
         <v>101004</v>
       </c>
       <c r="D12" s="9">
@@ -2892,28 +2904,28 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="14">
@@ -2927,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
@@ -2936,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14">
         <v>1</v>
@@ -2951,19 +2963,19 @@
         <v>2</v>
       </c>
       <c r="Z12" s="14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA12" s="14">
         <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="23">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="AE12" s="23"/>
       <c r="AF12" s="23"/>
@@ -2971,37 +2983,37 @@
       <c r="AH12" s="14"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>102001</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="K13" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="13">
         <v>1</v>
@@ -3050,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE13" s="22"/>
       <c r="AF13" s="22"/>
@@ -3058,7 +3070,7 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C14" s="9">
+      <c r="C14" s="51">
         <v>102002</v>
       </c>
       <c r="D14" s="9">
@@ -3066,31 +3078,31 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="O14" s="14">
         <v>2</v>
@@ -3103,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
@@ -3112,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="14">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="V14" s="14">
         <v>1</v>
@@ -3147,7 +3159,7 @@
       <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>102003</v>
       </c>
       <c r="D15" s="8">
@@ -3155,31 +3167,31 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="O15" s="13">
         <v>2</v>
@@ -3192,7 +3204,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S15" s="13">
         <v>0</v>
@@ -3201,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="U15" s="13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V15" s="13">
         <v>1</v>
       </c>
       <c r="W15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" s="19">
         <v>3</v>
@@ -3216,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="13">
         <v>0</v>
@@ -3225,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="23">
         <v>2003</v>
@@ -3236,7 +3248,7 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C16" s="9">
+      <c r="C16" s="51">
         <v>102004</v>
       </c>
       <c r="D16" s="9">
@@ -3244,31 +3256,31 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="O16" s="14">
         <v>3</v>
@@ -3281,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
@@ -3290,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V16" s="14">
         <v>1</v>
       </c>
       <c r="W16" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X16" s="14">
         <v>3</v>
@@ -3317,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="25">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
@@ -3325,32 +3337,32 @@
       <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>103001</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="13">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="K17" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -3410,7 +3422,7 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C18" s="9">
+      <c r="C18" s="51">
         <v>103002</v>
       </c>
       <c r="D18" s="9">
@@ -3418,28 +3430,28 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="14">
@@ -3453,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="14">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="S18" s="14">
         <v>0</v>
@@ -3462,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V18" s="14">
         <v>1</v>
       </c>
       <c r="W18" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X18" s="14">
         <v>3</v>
@@ -3477,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="Z18" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="14">
         <v>0</v>
@@ -3497,7 +3509,7 @@
       <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>103003</v>
       </c>
       <c r="D19" s="8">
@@ -3505,28 +3517,28 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="13">
@@ -3540,7 +3552,7 @@
         <v>0.1</v>
       </c>
       <c r="R19" s="13">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="S19" s="13">
         <v>0</v>
@@ -3549,22 +3561,22 @@
         <v>0</v>
       </c>
       <c r="U19" s="13">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="V19" s="13">
         <v>1</v>
       </c>
       <c r="W19" s="13">
+        <v>10</v>
+      </c>
+      <c r="X19" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="13">
         <v>8</v>
-      </c>
-      <c r="X19" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="13">
-        <v>6</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -3592,28 +3604,28 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L20" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="14">
@@ -3627,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -3636,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V20" s="14">
         <v>1</v>
@@ -3651,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA20" s="14">
         <v>0</v>
@@ -3663,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="AD20" s="25">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
@@ -3678,25 +3690,25 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -3764,28 +3776,28 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="14">
@@ -3799,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
@@ -3851,28 +3863,28 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="13">
@@ -3886,7 +3898,7 @@
         <v>0.1</v>
       </c>
       <c r="R23" s="13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S23" s="13">
         <v>0</v>
@@ -3938,28 +3950,28 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N24" s="34"/>
       <c r="O24" s="14">
@@ -4024,30 +4036,30 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="13">
         <v>3</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O25" s="13">
         <v>1</v>
@@ -4112,27 +4124,27 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="14">
         <v>2</v>
@@ -4196,30 +4208,30 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="13">
-        <v>3</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="K27" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
@@ -4284,27 +4296,27 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
@@ -4368,30 +4380,30 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="13">
         <v>1</v>
@@ -4456,31 +4468,31 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30" s="14">
         <v>3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="O30" s="14">
         <v>2</v>
@@ -4544,25 +4556,25 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
@@ -4630,28 +4642,28 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="14">
@@ -4665,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
@@ -4717,28 +4729,28 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I33" s="13">
         <v>3</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="13">
@@ -4752,7 +4764,7 @@
         <v>0.1</v>
       </c>
       <c r="R33" s="13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S33" s="13">
         <v>0</v>
@@ -4804,28 +4816,28 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I34" s="14">
         <v>3</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N34" s="34"/>
       <c r="O34" s="14">
@@ -4890,25 +4902,25 @@
         <v>1</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -4973,28 +4985,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L36" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="2">
@@ -5092,7 +5104,7 @@
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65A3B7-E2E4-46AB-93DD-23A1992A8B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FC8E8-4534-4862-8CFC-18FB0DC88E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="201">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>对选定范围内的目标造成空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>直线(中)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -581,27 +577,15 @@
   </si>
   <si>
     <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
-  </si>
-  <si>
-    <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>【拉条】选定单体友军，提升COM条进度x%。</t>
-  </si>
-  <si>
-    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成100%伤害，并有50%概率触发【打退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1-选定目标
@@ -782,10 +766,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>被动技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>技能的触发器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -853,10 +833,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>对目标造成4*150%地属性伤害。同时自身获得【再生】效果，每5秒回复自身3%生命，持续50秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>移动至目标附近，对单体目标造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -865,10 +841,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>对选定目标造成600%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续60秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>对选定的目标造成100%+200伤害，附带【击退】效果。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -878,6 +850,34 @@
   </si>
   <si>
     <t>选定敌方单体目标，并对其半径8米范围内的敌人造成150%伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成4*120%地属性伤害。同时自身获得【再生】效果，每5秒回复自身3%生命，持续50秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成4*120%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续60秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的目标造成360%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标造成100%+200伤害，并有50%概率触发【打退】效果，使其COM条减少35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的敌人造成240%时属性伤害，若造成击杀，则提升自身COM条进度35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【行动提前】选定单体友军，提升COM条进度50%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定目标及其直线范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1990,11 +1990,11 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2115,10 +2115,10 @@
         <v>108</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG1" s="42" t="s">
         <v>26</v>
@@ -2164,7 +2164,7 @@
         <v>32</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>33</v>
@@ -2183,37 +2183,37 @@
         <v>37</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Y2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="Z2" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="AC2" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>123</v>
       </c>
       <c r="AE2" s="46" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="49" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AG2" s="43" t="s">
         <v>39</v>
@@ -2292,7 +2292,7 @@
         <v>60</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>61</v>
@@ -2307,10 +2307,10 @@
         <v>120</v>
       </c>
       <c r="AE3" s="47" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF3" s="47" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
@@ -2400,10 +2400,10 @@
         <v>109</v>
       </c>
       <c r="AE4" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF4" s="50" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21"/>
@@ -2527,13 +2527,13 @@
         <v>81</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AE6" s="47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
@@ -2542,7 +2542,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="13">
         <v>1</v>
@@ -2590,7 +2590,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="44" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2736,7 +2736,7 @@
         <v>143</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
@@ -2823,7 +2823,7 @@
         <v>144</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
@@ -2910,7 +2910,7 @@
         <v>142</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="14">
         <v>1</v>
@@ -2999,7 +2999,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
@@ -3084,7 +3084,7 @@
         <v>142</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
@@ -3173,7 +3173,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
@@ -3262,7 +3262,7 @@
         <v>142</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
@@ -3293,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>142</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
@@ -3436,7 +3436,7 @@
         <v>145</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
@@ -3523,7 +3523,7 @@
         <v>146</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
@@ -3596,7 +3596,7 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C20" s="9">
+      <c r="C20" s="51">
         <v>103004</v>
       </c>
       <c r="D20" s="9">
@@ -3610,7 +3610,7 @@
         <v>146</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
@@ -3639,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="AD20" s="25">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>133</v>
@@ -3779,10 +3779,10 @@
         <v>137</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>152</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="I22" s="14">
         <v>3</v>
@@ -3869,7 +3869,7 @@
         <v>143</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
@@ -3953,10 +3953,10 @@
         <v>135</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I24" s="14">
         <v>3</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V24" s="14">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>133</v>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>133</v>
@@ -4549,7 +4549,7 @@
       <c r="AH30" s="14"/>
     </row>
     <row r="31" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>108001</v>
       </c>
       <c r="D31" s="8">
@@ -4564,8 +4564,8 @@
       <c r="G31" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="33" t="s">
-        <v>159</v>
+      <c r="H31" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
@@ -4634,7 +4634,7 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C32" s="9">
+      <c r="C32" s="51">
         <v>108002</v>
       </c>
       <c r="D32" s="9">
@@ -4645,10 +4645,10 @@
         <v>137</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>198</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V32" s="14">
         <v>1</v>
@@ -4701,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="Z32" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA32" s="14">
         <v>0</v>
@@ -4721,7 +4721,7 @@
       <c r="AH32" s="14"/>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>108003</v>
       </c>
       <c r="D33" s="8">
@@ -4734,8 +4734,8 @@
       <c r="G33" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="33" t="s">
-        <v>155</v>
+      <c r="H33" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="I33" s="13">
         <v>3</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V33" s="13">
         <v>1</v>
@@ -4808,7 +4808,7 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="9">
+      <c r="C34" s="51">
         <v>108004</v>
       </c>
       <c r="D34" s="9">
@@ -4819,10 +4819,10 @@
         <v>135</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="I34" s="14">
         <v>3</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V34" s="14">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="Z34" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="14">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="AD34" s="13">
-        <v>8002</v>
+        <v>8005</v>
       </c>
       <c r="AE34" s="13"/>
       <c r="AF34" s="13"/>
@@ -4902,16 +4902,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>142</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>101</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -4985,13 +4985,13 @@
         <v>1</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>102</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L36" s="33" t="s">
         <v>124</v>
@@ -5096,83 +5096,35 @@
       <c r="AH37" s="31"/>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="31">
-        <v>200001</v>
-      </c>
-      <c r="D38" s="31">
-        <v>1</v>
-      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="45"/>
-      <c r="F38" s="45" t="s">
-        <v>179</v>
-      </c>
+      <c r="F38" s="45"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
-      <c r="I38" s="31">
-        <v>0</v>
-      </c>
+      <c r="I38" s="31"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="31">
-        <v>0</v>
-      </c>
-      <c r="L38" s="23">
-        <v>0</v>
-      </c>
-      <c r="M38" s="23">
-        <v>0</v>
-      </c>
-      <c r="N38" s="31">
-        <v>0</v>
-      </c>
-      <c r="O38" s="31">
-        <v>5</v>
-      </c>
-      <c r="P38" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="31">
-        <v>0</v>
-      </c>
-      <c r="R38" s="31">
-        <v>0</v>
-      </c>
-      <c r="S38" s="31">
-        <v>0</v>
-      </c>
-      <c r="T38" s="31">
-        <v>0</v>
-      </c>
-      <c r="U38" s="31">
-        <v>0</v>
-      </c>
-      <c r="V38" s="31">
-        <v>0</v>
-      </c>
-      <c r="W38" s="31">
-        <v>0</v>
-      </c>
-      <c r="X38" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="31">
-        <v>0</v>
-      </c>
+      <c r="K38" s="31"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
       <c r="AD38" s="23"/>
-      <c r="AE38" s="23">
-        <v>0</v>
-      </c>
+      <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="31"/>
       <c r="AH38" s="31"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FC8E8-4534-4862-8CFC-18FB0DC88E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F364508-9B85-48D9-995B-638EE6E088E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -585,14 +585,6 @@
   </si>
   <si>
     <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -735,13 +727,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>目标点到目标范围边界的距离(米)
-圆形-半径
-0-不限距离
-参数要&gt;0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>自身周围</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -878,6 +863,30 @@
   </si>
   <si>
     <t>对选定目标及其直线范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋1-A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋1-B</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径
+-1-不限距离
+参数要&gt;0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军
+6-仅施法者</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1307,6 +1316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1994,7 +2006,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2115,10 +2127,10 @@
         <v>108</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="42" t="s">
         <v>26</v>
@@ -2164,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>33</v>
@@ -2183,37 +2195,37 @@
         <v>37</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Z2" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AB2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>173</v>
-      </c>
       <c r="AC2" s="28" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>123</v>
       </c>
       <c r="AE2" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="43" t="s">
         <v>39</v>
@@ -2292,7 +2304,7 @@
         <v>60</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>61</v>
@@ -2307,10 +2319,10 @@
         <v>120</v>
       </c>
       <c r="AE3" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF3" s="47" t="s">
         <v>177</v>
-      </c>
-      <c r="AF3" s="47" t="s">
-        <v>179</v>
       </c>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
@@ -2400,10 +2412,10 @@
         <v>109</v>
       </c>
       <c r="AE4" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF4" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21"/>
@@ -2527,13 +2539,13 @@
         <v>81</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE6" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF6" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
@@ -2542,7 +2554,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2590,7 +2602,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2736,7 +2748,7 @@
         <v>143</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I10" s="14">
         <v>3</v>
@@ -2823,7 +2835,7 @@
         <v>144</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I11" s="13">
         <v>3</v>
@@ -2910,7 +2922,7 @@
         <v>142</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
@@ -2999,7 +3011,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
@@ -3084,7 +3096,7 @@
         <v>142</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
@@ -3173,7 +3185,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I15" s="13">
         <v>3</v>
@@ -3262,7 +3274,7 @@
         <v>142</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I16" s="14">
         <v>3</v>
@@ -3353,7 +3365,7 @@
         <v>142</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
@@ -3436,7 +3448,7 @@
         <v>145</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
@@ -3523,7 +3535,7 @@
         <v>146</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
@@ -3610,7 +3622,7 @@
         <v>146</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I20" s="14">
         <v>3</v>
@@ -3690,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>133</v>
@@ -4036,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>133</v>
@@ -4380,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>133</v>
@@ -4565,7 +4577,7 @@
         <v>142</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I31" s="13">
         <v>3</v>
@@ -4648,7 +4660,7 @@
         <v>151</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I32" s="14">
         <v>3</v>
@@ -4735,7 +4747,7 @@
         <v>143</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I33" s="13">
         <v>3</v>
@@ -4822,7 +4834,7 @@
         <v>150</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I34" s="14">
         <v>3</v>
@@ -4902,16 +4914,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>142</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4920,7 +4932,7 @@
         <v>101</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -4985,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -5000,7 +5012,7 @@
         <v>102</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L36" s="33" t="s">
         <v>124</v>
@@ -5062,9 +5074,15 @@
       <c r="AF36" s="30"/>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="C37" s="31">
+        <v>201001</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
@@ -5098,7 +5116,9 @@
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="52" t="s">
+        <v>200</v>
+      </c>
       <c r="F38" s="45"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F364508-9B85-48D9-995B-638EE6E088E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0766A-E11F-445F-A9D3-A82191C34087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>自身怒气</t>
-  </si>
-  <si>
-    <t>消耗MP</t>
   </si>
   <si>
     <t>初始CD</t>
@@ -234,9 +231,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>atbSpeed</t>
-  </si>
-  <si>
     <t>rage</t>
   </si>
   <si>
@@ -557,10 +551,6 @@
   </si>
   <si>
     <t>对选定的目标造成100%伤害，附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，并对选定目标造成100%伤害，附带【打断】效果。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -814,18 +804,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动至目标附近，对选定的目标造成2段伤害 ，第1段40%+80伤害，第2段60%+120伤害并附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>移动至目标附近，对单体目标造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动至目标附近，对选定范围内的目标造成4*80%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径2.5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>对选定的目标造成100%+200伤害，附带【击退】效果。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -859,18 +841,6 @@
   </si>
   <si>
     <t>【行动提前】选定单体友军，提升COM条进度50%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-天赋1-A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-天赋1-B</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -887,6 +857,162 @@
 4-敌军(除目标)
 5-所有敌军
 6-仅施法者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用战技1时，传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方小圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动经过【石柱】1米范围内时，战技2技能CD重置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗MP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定范围内的目标造成4*80%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方小圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战技1使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击攻击自身。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，对选定的目标造成2段伤害，第1段40%+80伤害，第2段60%+120伤害并附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战技2使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动速度描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedDesc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选定范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方自身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋技B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方大圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用奥义时，ACT时间增加3秒，奥义伤害提升50%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战技2使用时，将选定范围内的敌人【聚拢】</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>atbSpeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动至目标附近，并对选定目标造成100%+200伤害，附带【打断】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击暴击时，可额外【追加】一次普通攻击。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用战技2时，自身COM进度同时提升35%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1266,9 +1392,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,9 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,12 +1440,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -1544,6 +1682,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1595,6 +1750,23 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1699,22 +1871,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AH44" totalsRowShown="0">
-  <autoFilter ref="C1:AH44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AI44" totalsRowShown="0">
+  <autoFilter ref="C1:AI44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="技能名称"/>
-    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="10"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
+    <tableColumn id="14" xr3:uid="{C4660449-B649-4843-96DC-74E15583A591}" name="行动速度描述" dataDxfId="9"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
@@ -1999,14 +2172,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
+      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2015,27 +2188,28 @@
     <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="10.625" style="2"/>
-    <col min="15" max="15" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="2"/>
-    <col min="17" max="19" width="11.75" style="2" customWidth="1"/>
-    <col min="20" max="22" width="10.625" style="2"/>
-    <col min="23" max="23" width="13" style="2" customWidth="1"/>
-    <col min="24" max="25" width="10.625" style="2"/>
-    <col min="26" max="26" width="16.25" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="15.375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="12.125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13" style="2" customWidth="1"/>
-    <col min="37" max="37" width="15" style="2" customWidth="1"/>
-    <col min="38" max="38" width="13" style="2" customWidth="1"/>
-    <col min="39" max="16384" width="10.625" style="2"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.625" style="2"/>
+    <col min="16" max="17" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="2"/>
+    <col min="19" max="21" width="11.75" style="2" customWidth="1"/>
+    <col min="22" max="24" width="10.625" style="2"/>
+    <col min="25" max="25" width="13" style="2" customWidth="1"/>
+    <col min="26" max="27" width="10.625" style="2"/>
+    <col min="28" max="28" width="16.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="15.375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="12.125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15" style="2" customWidth="1"/>
+    <col min="40" max="40" width="13" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -2063,366 +2237,378 @@
       <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="X1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="42" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="Y2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB2" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="AC2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE2" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF2" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AI2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="T3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="W3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AE3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF3" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG3" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF3" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>118</v>
+      <c r="K4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12" t="s">
+      <c r="U4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AE4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG4" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE4" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF4" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2441,10 +2627,10 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="39"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -2452,109 +2638,113 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="21"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
       <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>110</v>
+        <v>81</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>83</v>
+        <v>108</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="P6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="12"/>
       <c r="S6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>82</v>
+        <v>125</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG6" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="35" t="s">
-        <v>169</v>
+      <c r="E7" s="51" t="s">
+        <v>166</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2562,11 +2752,11 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -2574,57 +2764,56 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
+      <c r="X7" s="13"/>
+      <c r="Y7" s="19">
         <v>1</v>
       </c>
       <c r="Z7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
       </c>
       <c r="AB7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="13">
         <v>1</v>
       </c>
-      <c r="AD7" s="22"/>
+      <c r="AD7" s="13">
+        <v>1</v>
+      </c>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
-      <c r="AG7" s="13"/>
+      <c r="AG7" s="22"/>
       <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="44" t="s">
-        <v>170</v>
+      <c r="E8" s="52" t="s">
+        <v>167</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="33"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="14">
-        <v>1</v>
-      </c>
+      <c r="X8" s="14"/>
       <c r="Y8" s="14">
         <v>1</v>
       </c>
@@ -2632,69 +2821,72 @@
         <v>1</v>
       </c>
       <c r="AA8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="14">
         <v>5</v>
       </c>
-      <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>101001</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="P9" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q9" s="13">
         <v>10</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="R9" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R9" s="13">
+      <c r="S9" s="13">
         <v>200</v>
       </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
       <c r="T9" s="13">
         <v>0</v>
       </c>
@@ -2702,347 +2894,359 @@
         <v>0</v>
       </c>
       <c r="V9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="13">
-        <v>2</v>
-      </c>
-      <c r="X9" s="19">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="19">
         <v>3</v>
       </c>
-      <c r="Y9" s="13">
-        <v>2</v>
-      </c>
       <c r="Z9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="13">
         <v>1</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="22">
         <v>1001</v>
       </c>
-      <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
-      <c r="AG9" s="13"/>
+      <c r="AG9" s="22"/>
       <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C10" s="51">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C10" s="49">
         <v>101002</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="14">
-        <v>3</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="33" t="s">
-        <v>124</v>
+      <c r="L10" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="14">
-        <v>2</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="13">
+        <v>122</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>2</v>
+      </c>
+      <c r="R10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="14">
         <v>300</v>
       </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
       <c r="T10" s="14">
         <v>0</v>
       </c>
       <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
         <v>20</v>
       </c>
-      <c r="V10" s="14">
-        <v>1</v>
-      </c>
       <c r="W10" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X10" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="14">
         <v>2</v>
       </c>
       <c r="Z10" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="14">
         <v>0.5</v>
       </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
       <c r="AB10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="14">
         <v>1</v>
       </c>
       <c r="AD10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
         <v>1002</v>
       </c>
-      <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>101003</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="13">
+        <v>400</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>45</v>
+      </c>
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>1003</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C12" s="49">
+        <v>101004</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="H12" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
         <v>3</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="13">
-        <v>2</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="K12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q12" s="14">
         <v>10</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R11" s="13">
-        <v>400</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>45</v>
-      </c>
-      <c r="V11" s="13">
-        <v>1</v>
-      </c>
-      <c r="W11" s="13">
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
         <v>5</v>
       </c>
-      <c r="X11" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD11" s="23">
-        <v>1003</v>
-      </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C12" s="51">
-        <v>101004</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="14">
-        <v>3</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="14">
-        <v>3</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
-        <v>1</v>
-      </c>
       <c r="W12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" s="14">
         <v>3</v>
       </c>
       <c r="Y12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="14">
         <v>0.5</v>
       </c>
-      <c r="AA12" s="14">
-        <v>0</v>
-      </c>
       <c r="AB12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="14">
         <v>1</v>
       </c>
-      <c r="AD12" s="23">
+      <c r="AD12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="23">
         <v>1005</v>
       </c>
-      <c r="AE12" s="23"/>
       <c r="AF12" s="23"/>
-      <c r="AG12" s="14"/>
+      <c r="AG12" s="23"/>
       <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>102001</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>91</v>
+      <c r="E13" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="I13" s="13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="M13" s="33"/>
-      <c r="N13" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="N13" s="33"/>
+      <c r="O13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="13">
         <v>10</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="R13" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R13" s="13">
+      <c r="S13" s="13">
         <v>200</v>
       </c>
-      <c r="S13" s="13">
-        <v>0</v>
-      </c>
       <c r="T13" s="13">
         <v>0</v>
       </c>
@@ -3050,351 +3254,363 @@
         <v>0</v>
       </c>
       <c r="V13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="13">
         <v>1.5</v>
       </c>
-      <c r="X13" s="19">
+      <c r="Y13" s="19">
         <v>3</v>
       </c>
-      <c r="Y13" s="13">
-        <v>2</v>
-      </c>
       <c r="Z13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="13">
         <v>1</v>
       </c>
-      <c r="AD13" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE13" s="22"/>
+      <c r="AD13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="AF13" s="22"/>
-      <c r="AG13" s="13"/>
+      <c r="AG13" s="22"/>
       <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C14" s="51">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C14" s="49">
         <v>102002</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>2</v>
+      </c>
+      <c r="R14" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="14">
+        <v>300</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>35</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="14">
         <v>3</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="14">
-        <v>2</v>
-      </c>
-      <c r="P14" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="14">
-        <v>300</v>
-      </c>
-      <c r="S14" s="14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="14">
-        <v>35</v>
-      </c>
-      <c r="V14" s="14">
-        <v>1</v>
-      </c>
-      <c r="W14" s="14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>2</v>
-      </c>
       <c r="Z14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="14">
         <v>1</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="13">
         <v>2002</v>
       </c>
-      <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
-      <c r="AG14" s="14"/>
+      <c r="AG14" s="13"/>
       <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
         <v>102003</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>2</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="13">
+        <v>400</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>35</v>
+      </c>
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+      <c r="X15" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>2003</v>
+      </c>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C16" s="49">
+        <v>102004</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
         <v>3</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="13">
-        <v>2</v>
-      </c>
-      <c r="P15" s="13">
+      <c r="K16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="14">
         <v>10</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R15" s="13">
-        <v>400</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <v>35</v>
-      </c>
-      <c r="V15" s="13">
-        <v>1</v>
-      </c>
-      <c r="W15" s="13">
-        <v>3</v>
-      </c>
-      <c r="X15" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="13">
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
         <v>5</v>
       </c>
-      <c r="AD15" s="23">
-        <v>2003</v>
-      </c>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C16" s="51">
-        <v>102004</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="14">
-        <v>3</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="14">
-        <v>3</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
-      </c>
-      <c r="R16" s="14">
-        <v>0</v>
-      </c>
-      <c r="S16" s="14">
-        <v>0</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="14">
-        <v>1</v>
-      </c>
       <c r="W16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X16" s="14">
         <v>3</v>
       </c>
       <c r="Y16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="14">
         <v>1</v>
       </c>
-      <c r="AD16" s="25">
+      <c r="AD16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="25">
         <v>2005</v>
       </c>
-      <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
-      <c r="AG16" s="14"/>
+      <c r="AG16" s="25"/>
       <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C17" s="7">
         <v>103001</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>96</v>
+      <c r="E17" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I17" s="13">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="33"/>
+        <v>95</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="13">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="O17" s="33"/>
+      <c r="P17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="13">
         <v>10</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="R17" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="13">
         <v>200</v>
       </c>
-      <c r="S17" s="13">
-        <v>0</v>
-      </c>
       <c r="T17" s="13">
         <v>0</v>
       </c>
@@ -3402,345 +3618,357 @@
         <v>0</v>
       </c>
       <c r="V17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="13">
         <v>6</v>
       </c>
-      <c r="X17" s="19">
+      <c r="Y17" s="19">
         <v>3</v>
       </c>
-      <c r="Y17" s="13">
-        <v>2</v>
-      </c>
       <c r="Z17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="13">
         <v>1</v>
       </c>
       <c r="AD17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="13">
         <v>3001</v>
       </c>
-      <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C18" s="51">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C18" s="49">
         <v>103002</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>2</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="33"/>
+      <c r="P18" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>2</v>
+      </c>
+      <c r="R18" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="14">
+        <v>350</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>25</v>
+      </c>
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="14">
         <v>3</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="14">
-        <v>2</v>
-      </c>
-      <c r="P18" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="14">
-        <v>350</v>
-      </c>
-      <c r="S18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14">
-        <v>0</v>
-      </c>
-      <c r="U18" s="14">
-        <v>25</v>
-      </c>
-      <c r="V18" s="14">
-        <v>1</v>
-      </c>
-      <c r="W18" s="14">
-        <v>8</v>
-      </c>
-      <c r="X18" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>2</v>
-      </c>
       <c r="Z18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="14">
         <v>5</v>
       </c>
-      <c r="AA18" s="14">
-        <v>0</v>
-      </c>
       <c r="AB18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="14">
         <v>5</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AE18" s="13">
         <v>3002</v>
       </c>
-      <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
+      <c r="AG18" s="13"/>
       <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C19" s="7">
         <v>103003</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="33"/>
+      <c r="P19" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+      <c r="R19" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="13">
+        <v>450</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>45</v>
+      </c>
+      <c r="W19" s="13">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="19">
         <v>3</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="13">
-        <v>2</v>
-      </c>
-      <c r="P19" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="R19" s="13">
-        <v>450</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0</v>
-      </c>
-      <c r="T19" s="13">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13">
-        <v>45</v>
-      </c>
-      <c r="V19" s="13">
-        <v>1</v>
-      </c>
-      <c r="W19" s="13">
-        <v>10</v>
-      </c>
-      <c r="X19" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>2</v>
-      </c>
       <c r="Z19" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="13">
         <v>8</v>
       </c>
-      <c r="AA19" s="13">
-        <v>0</v>
-      </c>
       <c r="AB19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="13">
         <v>5</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AE19" s="13">
         <v>3003</v>
       </c>
-      <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C20" s="51">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C20" s="49">
         <v>103004</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
         <v>3</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>124</v>
+      <c r="K20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="14">
+        <v>122</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>10</v>
+      </c>
+      <c r="R20" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <v>5</v>
+      </c>
+      <c r="W20" s="14">
+        <v>1</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
         <v>3</v>
       </c>
-      <c r="P20" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="Q20" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
-      </c>
-      <c r="R20" s="14">
-        <v>0</v>
-      </c>
-      <c r="S20" s="14">
-        <v>0</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-      <c r="V20" s="14">
-        <v>1</v>
-      </c>
-      <c r="W20" s="14">
-        <v>0</v>
-      </c>
-      <c r="X20" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>2</v>
-      </c>
       <c r="Z20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="14">
         <v>8</v>
       </c>
-      <c r="AA20" s="14">
-        <v>0</v>
-      </c>
       <c r="AB20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="14">
         <v>5</v>
       </c>
-      <c r="AD20" s="25">
+      <c r="AE20" s="25">
         <v>3005</v>
       </c>
-      <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
-      <c r="AG20" s="14"/>
+      <c r="AG20" s="25"/>
       <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104001</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>161</v>
+      <c r="E21" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I21" s="13">
-        <v>3</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="13">
-        <v>1</v>
-      </c>
-      <c r="P21" s="13">
+      <c r="O21" s="33"/>
+      <c r="P21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q21" s="13">
         <v>10</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="R21" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R21" s="13">
+      <c r="S21" s="13">
         <v>200</v>
       </c>
-      <c r="S21" s="13">
-        <v>0</v>
-      </c>
       <c r="T21" s="13">
         <v>0</v>
       </c>
@@ -3748,257 +3976,266 @@
         <v>0</v>
       </c>
       <c r="V21" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13">
+        <v>1</v>
+      </c>
+      <c r="X21" s="13">
         <v>4</v>
       </c>
-      <c r="X21" s="19">
+      <c r="Y21" s="19">
         <v>3</v>
       </c>
-      <c r="Y21" s="13">
-        <v>2</v>
-      </c>
       <c r="Z21" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="13">
         <v>1</v>
       </c>
       <c r="AD21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="13">
         <v>4001</v>
       </c>
-      <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104002</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>2</v>
+      </c>
+      <c r="R22" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="14">
+        <v>300</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <v>10</v>
+      </c>
+      <c r="W22" s="14">
+        <v>1</v>
+      </c>
+      <c r="X22" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" s="14">
         <v>3</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="14">
-        <v>2</v>
-      </c>
-      <c r="P22" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="14">
-        <v>300</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="14">
-        <v>10</v>
-      </c>
-      <c r="V22" s="14">
-        <v>1</v>
-      </c>
-      <c r="W22" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="X22" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="14">
-        <v>2</v>
-      </c>
       <c r="Z22" s="14">
         <v>2</v>
       </c>
       <c r="AA22" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="14">
         <v>5</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AE22" s="13">
         <v>4002</v>
       </c>
-      <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
-      <c r="AG22" s="14"/>
+      <c r="AG22" s="13"/>
       <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>104003</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I23" s="13">
-        <v>3</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>2</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="13">
-        <v>2</v>
-      </c>
-      <c r="P23" s="13">
+        <v>122</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="13">
         <v>10</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="R23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R23" s="13">
+      <c r="S23" s="13">
         <v>400</v>
       </c>
-      <c r="S23" s="13">
-        <v>0</v>
-      </c>
       <c r="T23" s="13">
         <v>0</v>
       </c>
       <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
         <v>20</v>
       </c>
-      <c r="V23" s="13">
-        <v>1</v>
-      </c>
       <c r="W23" s="13">
+        <v>1</v>
+      </c>
+      <c r="X23" s="13">
         <v>2.5</v>
       </c>
-      <c r="X23" s="19">
+      <c r="Y23" s="19">
         <v>3</v>
       </c>
-      <c r="Y23" s="13">
-        <v>2</v>
-      </c>
       <c r="Z23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="13">
         <v>5</v>
       </c>
-      <c r="AA23" s="13">
-        <v>0</v>
-      </c>
       <c r="AB23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="13">
         <v>5</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AE23" s="13">
         <v>4002</v>
       </c>
-      <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>104004</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
         <v>3</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>124</v>
+      <c r="K24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="14">
-        <v>3</v>
-      </c>
-      <c r="P24" s="14">
+        <v>122</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q24" s="14">
         <v>0.25</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="R24" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="R24" s="14">
-        <v>0</v>
-      </c>
       <c r="S24" s="14">
         <v>0</v>
       </c>
@@ -4009,516 +4246,534 @@
         <v>0</v>
       </c>
       <c r="V24" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W24" s="14">
+        <v>1</v>
+      </c>
+      <c r="X24" s="14">
         <v>2.5</v>
       </c>
-      <c r="X24" s="14">
+      <c r="Y24" s="14">
         <v>3</v>
       </c>
-      <c r="Y24" s="14">
-        <v>2</v>
-      </c>
       <c r="Z24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="14">
         <v>3</v>
       </c>
-      <c r="AA24" s="14">
-        <v>0</v>
-      </c>
       <c r="AB24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="14">
         <v>5</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AE24" s="13">
         <v>4002</v>
       </c>
-      <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
-      <c r="AG24" s="14"/>
+      <c r="AG24" s="13"/>
       <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>105001</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>163</v>
+      <c r="E25" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>2</v>
+      </c>
+      <c r="R25" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>2</v>
+      </c>
+      <c r="W25" s="13">
+        <v>1</v>
+      </c>
+      <c r="X25" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="Y25" s="19">
         <v>3</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1</v>
-      </c>
-      <c r="P25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R25" s="13">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
-        <v>0</v>
-      </c>
-      <c r="T25" s="13">
-        <v>0</v>
-      </c>
-      <c r="U25" s="13">
-        <v>0</v>
-      </c>
-      <c r="V25" s="13">
-        <v>1</v>
-      </c>
-      <c r="W25" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="X25" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>2</v>
-      </c>
       <c r="Z25" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="13">
         <v>1</v>
       </c>
       <c r="AD25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="13">
         <v>5001</v>
       </c>
-      <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>105002</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>2</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="14">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>2</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <v>20</v>
+      </c>
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="X26" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="Y26" s="14">
         <v>3</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O26" s="14">
-        <v>2</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q26" s="14">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <v>20</v>
-      </c>
-      <c r="V26" s="14">
-        <v>1</v>
-      </c>
-      <c r="W26" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="X26" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="14">
-        <v>2</v>
-      </c>
       <c r="Z26" s="14">
         <v>2</v>
       </c>
       <c r="AA26" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="14">
         <v>5</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AE26" s="13">
         <v>5002</v>
       </c>
-      <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
+      <c r="AG26" s="13"/>
       <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>106001</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>105</v>
+      <c r="E27" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>2</v>
+      </c>
+      <c r="R27" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>2</v>
+      </c>
+      <c r="W27" s="13">
+        <v>1</v>
+      </c>
+      <c r="X27" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="Y27" s="19">
         <v>3</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="13">
-        <v>1</v>
-      </c>
-      <c r="P27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R27" s="13">
-        <v>0</v>
-      </c>
-      <c r="S27" s="13">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <v>0</v>
-      </c>
-      <c r="U27" s="13">
-        <v>0</v>
-      </c>
-      <c r="V27" s="13">
-        <v>1</v>
-      </c>
-      <c r="W27" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="X27" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>2</v>
-      </c>
       <c r="Z27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="13">
         <v>5001</v>
       </c>
-      <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>106002</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>2</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>20</v>
+      </c>
+      <c r="W28" s="14">
+        <v>1</v>
+      </c>
+      <c r="X28" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="Y28" s="14">
         <v>3</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" s="14">
-        <v>2</v>
-      </c>
-      <c r="P28" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
-      </c>
-      <c r="R28" s="14">
-        <v>0</v>
-      </c>
-      <c r="S28" s="14">
-        <v>0</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0</v>
-      </c>
-      <c r="U28" s="14">
-        <v>20</v>
-      </c>
-      <c r="V28" s="14">
-        <v>1</v>
-      </c>
-      <c r="W28" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="X28" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y28" s="14">
-        <v>2</v>
-      </c>
       <c r="Z28" s="14">
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="14">
         <v>5</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AE28" s="13">
         <v>5002</v>
       </c>
-      <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
-      <c r="AG28" s="14"/>
+      <c r="AG28" s="13"/>
       <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>107001</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>164</v>
+      <c r="E29" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>2</v>
+      </c>
+      <c r="R29" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="13">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <v>2</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1</v>
+      </c>
+      <c r="X29" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="19">
         <v>3</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O29" s="13">
-        <v>1</v>
-      </c>
-      <c r="P29" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R29" s="13">
-        <v>0</v>
-      </c>
-      <c r="S29" s="13">
-        <v>0</v>
-      </c>
-      <c r="T29" s="13">
-        <v>0</v>
-      </c>
-      <c r="U29" s="13">
-        <v>0</v>
-      </c>
-      <c r="V29" s="13">
-        <v>1</v>
-      </c>
-      <c r="W29" s="13">
-        <v>2</v>
-      </c>
-      <c r="X29" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>2</v>
-      </c>
       <c r="Z29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="13">
         <v>1</v>
       </c>
       <c r="AD29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="13">
         <v>6001</v>
       </c>
-      <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>107002</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I30" s="14">
-        <v>3</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>2</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O30" s="14">
-        <v>2</v>
-      </c>
-      <c r="P30" s="14">
+        <v>123</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="14">
         <v>0.2</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="R30" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="R30" s="14">
-        <v>0</v>
-      </c>
       <c r="S30" s="14">
         <v>0</v>
       </c>
@@ -4526,87 +4781,90 @@
         <v>0</v>
       </c>
       <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
         <v>25</v>
       </c>
-      <c r="V30" s="14">
-        <v>1</v>
-      </c>
       <c r="W30" s="14">
+        <v>1</v>
+      </c>
+      <c r="X30" s="14">
         <v>8</v>
       </c>
-      <c r="X30" s="14">
+      <c r="Y30" s="14">
         <v>3</v>
       </c>
-      <c r="Y30" s="14">
-        <v>2</v>
-      </c>
       <c r="Z30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="14">
         <v>8</v>
       </c>
-      <c r="AA30" s="14">
-        <v>0</v>
-      </c>
       <c r="AB30" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="14">
         <v>5</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AE30" s="13">
         <v>6002</v>
       </c>
-      <c r="AE30" s="13"/>
       <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
+      <c r="AG30" s="13"/>
       <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
     </row>
-    <row r="31" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
         <v>108001</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>126</v>
+      <c r="E31" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I31" s="13">
-        <v>3</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
-      <c r="O31" s="13">
-        <v>1</v>
-      </c>
-      <c r="P31" s="13">
+      <c r="O31" s="33"/>
+      <c r="P31" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="13">
         <v>10</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="R31" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="R31" s="13">
+      <c r="S31" s="13">
         <v>200</v>
       </c>
-      <c r="S31" s="13">
-        <v>0</v>
-      </c>
       <c r="T31" s="13">
         <v>0</v>
       </c>
@@ -4614,341 +4872,353 @@
         <v>0</v>
       </c>
       <c r="V31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="13">
         <v>3.5</v>
       </c>
-      <c r="X31" s="19">
+      <c r="Y31" s="19">
         <v>3</v>
       </c>
-      <c r="Y31" s="13">
-        <v>2</v>
-      </c>
       <c r="Z31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="13">
         <v>1</v>
       </c>
       <c r="AD31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="13">
         <v>8001</v>
       </c>
-      <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C32" s="51">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C32" s="49">
         <v>108002</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>2</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="33"/>
+      <c r="P32" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>2</v>
+      </c>
+      <c r="R32" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="14">
+        <v>300</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>25</v>
+      </c>
+      <c r="W32" s="14">
+        <v>1</v>
+      </c>
+      <c r="X32" s="14">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="14">
         <v>3</v>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="14">
-        <v>2</v>
-      </c>
-      <c r="P32" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R32" s="14">
-        <v>300</v>
-      </c>
-      <c r="S32" s="14">
-        <v>0</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="U32" s="14">
-        <v>25</v>
-      </c>
-      <c r="V32" s="14">
-        <v>1</v>
-      </c>
-      <c r="W32" s="14">
-        <v>6</v>
-      </c>
-      <c r="X32" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="14">
-        <v>2</v>
-      </c>
       <c r="Z32" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="14">
         <v>5</v>
       </c>
-      <c r="AA32" s="14">
-        <v>0</v>
-      </c>
       <c r="AB32" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="14">
         <v>5</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AE32" s="13">
         <v>8002</v>
       </c>
-      <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
-      <c r="AG32" s="14"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C33" s="7">
         <v>108003</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I33" s="13">
-        <v>3</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>2</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="13">
-        <v>2</v>
-      </c>
-      <c r="P33" s="13">
+        <v>122</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="33"/>
+      <c r="P33" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1</v>
+      </c>
+      <c r="R33" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="13">
+        <v>400</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>30</v>
+      </c>
+      <c r="W33" s="13">
+        <v>1</v>
+      </c>
+      <c r="X33" s="13">
         <v>10</v>
       </c>
-      <c r="Q33" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="R33" s="13">
-        <v>400</v>
-      </c>
-      <c r="S33" s="13">
-        <v>0</v>
-      </c>
-      <c r="T33" s="13">
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <v>30</v>
-      </c>
-      <c r="V33" s="13">
-        <v>1</v>
-      </c>
-      <c r="W33" s="13">
-        <v>10</v>
-      </c>
-      <c r="X33" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="19">
         <v>2</v>
       </c>
       <c r="Z33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="13">
         <v>0.5</v>
       </c>
-      <c r="AA33" s="13">
-        <v>0</v>
-      </c>
       <c r="AB33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="13">
         <v>1</v>
       </c>
       <c r="AD33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="13">
         <v>8003</v>
       </c>
-      <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="51">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C34" s="49">
         <v>108004</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I34" s="14">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
         <v>3</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>124</v>
+      <c r="K34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="14">
+        <v>122</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O34" s="34"/>
+      <c r="P34" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>10</v>
+      </c>
+      <c r="R34" s="13">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0</v>
+      </c>
+      <c r="T34" s="14">
+        <v>0</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <v>5</v>
+      </c>
+      <c r="W34" s="14">
+        <v>1</v>
+      </c>
+      <c r="X34" s="14">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="14">
         <v>3</v>
       </c>
-      <c r="P34" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="Q34" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
-      </c>
-      <c r="R34" s="14">
-        <v>0</v>
-      </c>
-      <c r="S34" s="14">
-        <v>0</v>
-      </c>
-      <c r="T34" s="14">
-        <v>0</v>
-      </c>
-      <c r="U34" s="14">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14">
-        <v>1</v>
-      </c>
-      <c r="W34" s="14">
-        <v>8</v>
-      </c>
-      <c r="X34" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>2</v>
-      </c>
       <c r="Z34" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="14">
         <v>5</v>
       </c>
-      <c r="AA34" s="14">
-        <v>0</v>
-      </c>
       <c r="AB34" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="14">
         <v>5</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AE34" s="13">
         <v>8005</v>
       </c>
-      <c r="AE34" s="13"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="14"/>
+      <c r="AG34" s="13"/>
       <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>109001</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="24" t="s">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-      <c r="P35" s="13">
-        <v>1</v>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="Q35" s="13">
+        <v>2</v>
+      </c>
+      <c r="R35" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -4960,80 +5230,82 @@
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
         <v>3</v>
       </c>
-      <c r="Y35" s="2">
-        <v>2</v>
-      </c>
       <c r="Z35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="2">
         <v>1</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="30">
         <v>9001</v>
       </c>
-      <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>109002</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
+      <c r="E36" s="36"/>
       <c r="F36" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>124</v>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="2">
-        <v>2</v>
-      </c>
-      <c r="P36" s="14">
+        <v>122</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="36"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="14">
         <v>0.2</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="R36" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
       <c r="S36" s="2">
         <v>0</v>
       </c>
@@ -5041,317 +5313,656 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
         <v>30</v>
       </c>
-      <c r="V36" s="2">
-        <v>1</v>
-      </c>
       <c r="W36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
         <v>3</v>
       </c>
-      <c r="Y36" s="2">
-        <v>2</v>
-      </c>
       <c r="Z36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="2">
         <v>8</v>
       </c>
-      <c r="AA36" s="2">
-        <v>0</v>
-      </c>
       <c r="AB36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="2">
         <v>5</v>
       </c>
-      <c r="AD36" s="30">
+      <c r="AE36" s="30">
         <v>9002</v>
       </c>
-      <c r="AE36" s="30"/>
       <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="31">
-        <v>201001</v>
+        <v>201011</v>
       </c>
       <c r="D37" s="31">
         <v>1</v>
       </c>
-      <c r="E37" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="23"/>
+      <c r="E37" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31">
+        <v>5</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="31"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="31"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="S37" s="31">
+        <v>0</v>
+      </c>
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="31"/>
+      <c r="V37" s="31">
+        <v>0</v>
+      </c>
+      <c r="W37" s="31">
+        <v>99</v>
+      </c>
+      <c r="X37" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE37" s="23">
+        <v>21011</v>
+      </c>
+      <c r="AF37" s="23">
+        <v>310401</v>
+      </c>
+      <c r="AG37" s="23"/>
       <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="23"/>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C38" s="31">
+        <v>201012</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="31">
+        <v>0</v>
+      </c>
+      <c r="J38" s="31">
+        <v>5</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="31"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
+      <c r="P38" s="43"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
+      <c r="S38" s="31">
+        <v>0</v>
+      </c>
       <c r="T38" s="31"/>
       <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="31"/>
+      <c r="V38" s="31">
+        <v>0</v>
+      </c>
+      <c r="W38" s="31">
+        <v>99</v>
+      </c>
+      <c r="X38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="31">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="23">
+        <v>21012</v>
+      </c>
+      <c r="AF38" s="23">
+        <v>400401</v>
+      </c>
+      <c r="AG38" s="23"/>
       <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="23"/>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C39" s="31">
+        <v>202011</v>
+      </c>
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0</v>
+      </c>
+      <c r="J39" s="31">
+        <v>5</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="31"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
+      <c r="P39" s="43"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
+      <c r="S39" s="31">
+        <v>0</v>
+      </c>
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="31"/>
+      <c r="V39" s="31">
+        <v>0</v>
+      </c>
+      <c r="W39" s="31">
+        <v>99</v>
+      </c>
+      <c r="X39" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="23">
+        <v>22011</v>
+      </c>
+      <c r="AF39" s="23">
+        <v>320401</v>
+      </c>
+      <c r="AG39" s="23"/>
       <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="23"/>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C40" s="31">
+        <v>202012</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0</v>
+      </c>
+      <c r="J40" s="31">
+        <v>5</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="31"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
+      <c r="P40" s="43"/>
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
+      <c r="S40" s="31">
+        <v>0</v>
+      </c>
       <c r="T40" s="31"/>
       <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="31"/>
+      <c r="V40" s="31">
+        <v>0</v>
+      </c>
+      <c r="W40" s="31">
+        <v>99</v>
+      </c>
+      <c r="X40" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="31">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="23">
+        <v>22012</v>
+      </c>
+      <c r="AF40" s="23">
+        <v>310501</v>
+      </c>
+      <c r="AG40" s="23"/>
       <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="23"/>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C41" s="31">
+        <v>203011</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0</v>
+      </c>
+      <c r="J41" s="31">
+        <v>5</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="31"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="31"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
+      <c r="P41" s="43"/>
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
+      <c r="S41" s="31">
+        <v>0</v>
+      </c>
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="31"/>
+      <c r="V41" s="31">
+        <v>0</v>
+      </c>
+      <c r="W41" s="31">
+        <v>99</v>
+      </c>
+      <c r="X41" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AB41" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="31">
+        <v>6</v>
+      </c>
+      <c r="AE41" s="23">
+        <v>23011</v>
+      </c>
+      <c r="AF41" s="23">
+        <v>400101</v>
+      </c>
+      <c r="AG41" s="23"/>
       <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="23"/>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C42" s="31">
+        <v>203012</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="I42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <v>5</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="31"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="31"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
+      <c r="P42" s="43"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
+      <c r="S42" s="31">
+        <v>0</v>
+      </c>
       <c r="T42" s="31"/>
       <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="31"/>
+      <c r="V42" s="31">
+        <v>0</v>
+      </c>
+      <c r="W42" s="31">
+        <v>99</v>
+      </c>
+      <c r="X42" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="31">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="23">
+        <v>23012</v>
+      </c>
+      <c r="AF42" s="23">
+        <v>310501</v>
+      </c>
+      <c r="AG42" s="23"/>
       <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="23"/>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C43" s="31">
+        <v>208011</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="31">
+        <v>5</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="31"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="31"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="31"/>
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
+      <c r="S43" s="31">
+        <v>0</v>
+      </c>
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="23"/>
-      <c r="AG43" s="31"/>
+      <c r="V43" s="31">
+        <v>0</v>
+      </c>
+      <c r="W43" s="31">
+        <v>99</v>
+      </c>
+      <c r="X43" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AB43" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="31">
+        <v>6</v>
+      </c>
+      <c r="AE43" s="23">
+        <v>28011</v>
+      </c>
+      <c r="AF43" s="23">
+        <v>310101</v>
+      </c>
+      <c r="AG43" s="23"/>
       <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="23"/>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="C44" s="31">
+        <v>208012</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0</v>
+      </c>
+      <c r="J44" s="31">
+        <v>5</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="31"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
+      <c r="S44" s="31">
+        <v>0</v>
+      </c>
       <c r="T44" s="31"/>
       <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="23"/>
-      <c r="AE44" s="23"/>
-      <c r="AF44" s="23"/>
-      <c r="AG44" s="31"/>
+      <c r="V44" s="31">
+        <v>0</v>
+      </c>
+      <c r="W44" s="31">
+        <v>99</v>
+      </c>
+      <c r="X44" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AB44" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="31">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="23">
+        <v>28012</v>
+      </c>
+      <c r="AF44" s="23">
+        <v>310501</v>
+      </c>
+      <c r="AG44" s="23"/>
       <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0766A-E11F-445F-A9D3-A82191C34087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD49187-49AA-4166-81B6-6912FF515FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="245">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -501,31 +501,9 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥义技能</t>
-  </si>
-  <si>
-    <t>奥义技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗技能1</t>
   </si>
   <si>
-    <t>战斗技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗技能2</t>
-  </si>
-  <si>
-    <t>战斗技能2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>默认文字</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -558,23 +536,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>直线(中)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线(小)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -864,14 +826,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>友方小圆</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -900,14 +854,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>男主-天赋B1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -968,14 +914,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>敌方大圆</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1013,6 +951,110 @@
   </si>
   <si>
     <t>使用战技2时，自身COM进度同时提升35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士意志</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓言之盾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判之碑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说之剑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光之刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运之刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣火裁决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日审判</t>
+  </si>
+  <si>
+    <t>巫女预言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>占星之歌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>湮灭黑洞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星火雨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓光线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆重创</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空旅行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光魅影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士美德</t>
+  </si>
+  <si>
+    <t>安魂之言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆命之轮</t>
+  </si>
+  <si>
+    <t>烈焰标记</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限禁制</t>
+  </si>
+  <si>
+    <t>吞噬之影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由之翼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧钟鸣音</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量达到50%时，分裂成5个小史莱姆国王</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1288,7 +1330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1456,6 +1498,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,8 +1919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AI44" totalsRowShown="0">
-  <autoFilter ref="C1:AI44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AI43" totalsRowShown="0">
+  <autoFilter ref="C1:AI43" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
@@ -2172,14 +2220,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2256,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2268,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>15</v>
@@ -2304,10 +2352,10 @@
         <v>106</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AG1" s="46" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AH1" s="41" t="s">
         <v>25</v>
@@ -2328,19 +2376,19 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
@@ -2356,7 +2404,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>32</v>
@@ -2375,37 +2423,37 @@
         <v>36</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="28" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>121</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AG2" s="47" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AH2" s="42" t="s">
         <v>38</v>
@@ -2456,10 +2504,10 @@
         <v>48</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
@@ -2487,7 +2535,7 @@
         <v>58</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AB3" s="12" t="s">
         <v>59</v>
@@ -2502,10 +2550,10 @@
         <v>118</v>
       </c>
       <c r="AF3" s="45" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AG3" s="45" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
@@ -2552,7 +2600,7 @@
         <v>65</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>67</v>
@@ -2598,10 +2646,10 @@
         <v>107</v>
       </c>
       <c r="AF4" s="45" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
@@ -2729,13 +2777,13 @@
         <v>79</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AF6" s="45" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
@@ -2744,7 +2792,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="51" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2793,7 +2841,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="52" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2849,13 +2897,13 @@
         <v>82</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -2875,7 +2923,7 @@
         <v>85</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="13">
         <v>10</v>
@@ -2937,13 +2985,13 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -2965,7 +3013,7 @@
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="14">
         <v>2</v>
@@ -3027,13 +3075,13 @@
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -3055,7 +3103,7 @@
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="23" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="13">
         <v>1</v>
@@ -3117,13 +3165,13 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="H12" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3145,7 +3193,7 @@
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="27" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="14">
         <v>10</v>
@@ -3208,14 +3256,14 @@
       <c r="E13" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>131</v>
+      <c r="F13" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -3235,7 +3283,7 @@
         <v>85</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="13">
         <v>10</v>
@@ -3296,14 +3344,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="54"/>
-      <c r="F14" s="14" t="s">
-        <v>135</v>
+      <c r="F14" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -3327,7 +3375,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="14">
         <v>2</v>
@@ -3388,14 +3436,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="13" t="s">
-        <v>137</v>
+      <c r="F15" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -3419,7 +3467,7 @@
         <v>85</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q15" s="13">
         <v>1</v>
@@ -3481,13 +3529,13 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="14" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -3511,7 +3559,7 @@
         <v>85</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="14">
         <v>10</v>
@@ -3574,14 +3622,14 @@
       <c r="E17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>131</v>
+      <c r="F17" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -3599,7 +3647,7 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="13">
         <v>10</v>
@@ -3660,14 +3708,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="54"/>
-      <c r="F18" s="14" t="s">
-        <v>135</v>
+      <c r="F18" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3689,7 +3737,7 @@
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="27" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="14">
         <v>2</v>
@@ -3750,14 +3798,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="13" t="s">
-        <v>137</v>
+      <c r="F19" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3779,7 +3827,7 @@
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="23" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="13">
         <v>1</v>
@@ -3840,14 +3888,14 @@
         <v>1</v>
       </c>
       <c r="E20" s="54"/>
-      <c r="F20" s="14" t="s">
-        <v>133</v>
+      <c r="F20" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3869,7 +3917,7 @@
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="14">
         <v>10</v>
@@ -3923,23 +3971,23 @@
       <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C21" s="8">
+      <c r="C21" s="57">
         <v>104001</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -3957,7 +4005,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
@@ -4011,27 +4059,27 @@
       <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C22" s="9">
+      <c r="C22" s="58">
         <v>104002</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="54"/>
-      <c r="F22" s="14" t="s">
-        <v>135</v>
+      <c r="F22" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
       </c>
       <c r="J22" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>100</v>
@@ -4047,14 +4095,14 @@
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="27" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="14">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="R22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S22" s="14">
         <v>300</v>
@@ -4066,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W22" s="14">
         <v>1</v>
       </c>
       <c r="X22" s="14">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Y22" s="14">
         <v>3</v>
@@ -4081,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="AA22" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="14">
         <v>0</v>
@@ -4102,52 +4150,52 @@
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
-        <v>104003</v>
+        <v>105001</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="51" t="s">
+        <v>150</v>
+      </c>
       <c r="F23" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="P23" s="23" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T23" s="13">
         <v>0</v>
@@ -4156,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y23" s="19">
         <v>3</v>
@@ -4171,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="AA23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="13">
         <v>0</v>
@@ -4180,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="AD23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="13">
-        <v>4002</v>
+        <v>5001</v>
       </c>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
@@ -4192,49 +4240,47 @@
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
-        <v>104004</v>
+        <v>105002</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
       </c>
       <c r="J24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="34"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="P24" s="27" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="R24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
@@ -4246,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W24" s="14">
         <v>1</v>
       </c>
       <c r="X24" s="14">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y24" s="14">
         <v>3</v>
@@ -4261,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="AA24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="14">
         <v>0</v>
@@ -4273,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="AE24" s="13">
-        <v>4002</v>
+        <v>5002</v>
       </c>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -4282,22 +4328,22 @@
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
-        <v>105001</v>
+        <v>106001</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>160</v>
+      <c r="E25" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -4317,7 +4363,7 @@
         <v>85</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="13">
         <v>2</v>
@@ -4372,20 +4418,20 @@
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
-        <v>105002</v>
+        <v>106002</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -4405,12 +4451,12 @@
         <v>85</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="14">
         <v>0.5</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
@@ -4460,22 +4506,22 @@
     </row>
     <row r="27" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
-        <v>106001</v>
+        <v>107001</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>103</v>
+      <c r="E27" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>131</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -4484,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>84</v>
@@ -4495,7 +4541,7 @@
         <v>85</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="13">
         <v>2</v>
@@ -4520,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="X27" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="19">
         <v>3</v>
@@ -4541,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
@@ -4550,20 +4596,20 @@
     </row>
     <row r="28" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
-        <v>106002</v>
+        <v>107002</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
@@ -4572,25 +4618,29 @@
         <v>2</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="M28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="O28" s="33" t="s">
         <v>85</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S28" s="14">
         <v>0</v>
@@ -4602,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W28" s="14">
         <v>1</v>
       </c>
       <c r="X28" s="14">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" s="14">
         <v>3</v>
@@ -4617,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB28" s="14">
         <v>0</v>
@@ -4629,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="AE28" s="13">
-        <v>5002</v>
+        <v>6002</v>
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
@@ -4637,23 +4687,23 @@
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C29" s="8">
-        <v>107001</v>
+      <c r="C29" s="7">
+        <v>108001</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>131</v>
+      <c r="E29" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -4669,21 +4719,19 @@
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="O29" s="33"/>
       <c r="P29" s="23" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R29" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S29" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T29" s="13">
         <v>0</v>
@@ -4698,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="X29" s="13">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Y29" s="19">
         <v>3</v>
@@ -4719,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="13">
-        <v>6001</v>
+        <v>8001</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
@@ -4727,21 +4775,21 @@
       <c r="AI29" s="13"/>
     </row>
     <row r="30" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C30" s="9">
-        <v>107002</v>
+      <c r="C30" s="49">
+        <v>108002</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
       <c r="E30" s="54"/>
-      <c r="F30" s="14" t="s">
-        <v>135</v>
+      <c r="F30" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="I30" s="14">
         <v>0</v>
@@ -4761,21 +4809,19 @@
       <c r="N30" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="O30" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="O30" s="33"/>
       <c r="P30" s="27" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="14">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="R30" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="S30" s="14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T30" s="14">
         <v>0</v>
@@ -4790,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="X30" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="14">
         <v>3</v>
@@ -4799,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="AA30" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB30" s="14">
         <v>0</v>
@@ -4811,7 +4857,7 @@
         <v>5</v>
       </c>
       <c r="AE30" s="13">
-        <v>6002</v>
+        <v>8002</v>
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
@@ -4820,50 +4866,52 @@
     </row>
     <row r="31" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
-        <v>108001</v>
+        <v>108003</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>131</v>
+      <c r="E31" s="53"/>
+      <c r="F31" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+      <c r="M31" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="O31" s="33"/>
       <c r="P31" s="23" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R31" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S31" s="13">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T31" s="13">
         <v>0</v>
@@ -4872,22 +4920,22 @@
         <v>0</v>
       </c>
       <c r="V31" s="13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="W31" s="13">
         <v>1</v>
       </c>
       <c r="X31" s="13">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Y31" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="13">
         <v>2</v>
       </c>
       <c r="AA31" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB31" s="13">
         <v>0</v>
@@ -4899,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="13">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
@@ -4908,29 +4956,29 @@
     </row>
     <row r="32" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C32" s="49">
-        <v>108002</v>
+        <v>108004</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="54"/>
-      <c r="F32" s="14" t="s">
-        <v>135</v>
+      <c r="F32" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I32" s="14">
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>84</v>
@@ -4941,19 +4989,19 @@
       <c r="N32" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="27" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R32" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S32" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T32" s="14">
         <v>0</v>
@@ -4962,13 +5010,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W32" s="14">
         <v>1</v>
       </c>
       <c r="X32" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y32" s="14">
         <v>3</v>
@@ -4989,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="AE32" s="13">
-        <v>8002</v>
+        <v>8005</v>
       </c>
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
@@ -4997,123 +5045,119 @@
       <c r="AI32" s="14"/>
     </row>
     <row r="33" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C33" s="7">
-        <v>108003</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="13" t="s">
-        <v>137</v>
+      <c r="C33" s="2">
+        <v>109001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="23" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="Q33" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="13">
-        <v>400</v>
-      </c>
-      <c r="T33" s="13">
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <v>0</v>
-      </c>
-      <c r="V33" s="13">
-        <v>30</v>
-      </c>
-      <c r="W33" s="13">
-        <v>1</v>
-      </c>
-      <c r="X33" s="13">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="13">
         <v>0.5</v>
       </c>
-      <c r="AB33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>8003</v>
-      </c>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>3</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="30">
+        <v>9001</v>
+      </c>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
     </row>
     <row r="34" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C34" s="49">
-        <v>108004</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="14" t="s">
-        <v>133</v>
+      <c r="C34" s="2">
+        <v>109002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="M34" s="33" t="s">
         <v>122</v>
@@ -5121,132 +5165,119 @@
       <c r="N34" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="O34" s="34"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="27" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="14">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="R34" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="S34" s="14">
-        <v>0</v>
-      </c>
-      <c r="T34" s="14">
-        <v>0</v>
-      </c>
-      <c r="U34" s="14">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14">
         <v>5</v>
       </c>
-      <c r="W34" s="14">
-        <v>1</v>
-      </c>
-      <c r="X34" s="14">
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>20</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2">
         <v>8</v>
       </c>
-      <c r="Y34" s="14">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="14">
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
         <v>5</v>
       </c>
-      <c r="AB34" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="14">
-        <v>5</v>
-      </c>
-      <c r="AE34" s="13">
-        <v>8005</v>
-      </c>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
+      <c r="AE34" s="30">
+        <v>9002</v>
+      </c>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
-        <v>109001</v>
+        <v>209001</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="55" t="s">
-        <v>153</v>
-      </c>
+      <c r="E35" s="55"/>
       <c r="F35" s="32" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L35" s="32" t="s">
-        <v>159</v>
-      </c>
+      <c r="L35" s="32"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>2</v>
-      </c>
-      <c r="R35" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
         <v>0.5</v>
       </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>3</v>
-      </c>
-      <c r="W35" s="2">
-        <v>1</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>1</v>
-      </c>
       <c r="AB35" s="2">
         <v>0</v>
       </c>
@@ -5254,118 +5285,109 @@
         <v>1</v>
       </c>
       <c r="AD35" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE35" s="30">
-        <v>9001</v>
+        <v>29001</v>
       </c>
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
     </row>
     <row r="36" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C36" s="2">
-        <v>109002</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="R36" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
+      <c r="C36" s="31">
+        <v>201011</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="31">
+        <v>0</v>
+      </c>
+      <c r="J36" s="31">
         <v>5</v>
       </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>30</v>
-      </c>
-      <c r="W36" s="2">
-        <v>1</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
+      <c r="K36" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31">
+        <v>0</v>
+      </c>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31">
+        <v>0</v>
+      </c>
+      <c r="W36" s="31">
+        <v>99</v>
+      </c>
+      <c r="X36" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="31">
         <v>3</v>
       </c>
-      <c r="Z36" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="30">
-        <v>9002</v>
-      </c>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
+      <c r="AB36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="23">
+        <v>21011</v>
+      </c>
+      <c r="AF36" s="23">
+        <v>310401</v>
+      </c>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
     </row>
     <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="31">
-        <v>201011</v>
+        <v>201012</v>
       </c>
       <c r="D37" s="31">
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
@@ -5374,7 +5396,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="23"/>
@@ -5398,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="Y37" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="31">
         <v>0</v>
@@ -5413,13 +5435,13 @@
         <v>1</v>
       </c>
       <c r="AD37" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE37" s="23">
-        <v>21011</v>
+        <v>21012</v>
       </c>
       <c r="AF37" s="23">
-        <v>310401</v>
+        <v>400401</v>
       </c>
       <c r="AG37" s="23"/>
       <c r="AH37" s="31"/>
@@ -5427,22 +5449,22 @@
     </row>
     <row r="38" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C38" s="31">
-        <v>201012</v>
+        <v>202011</v>
       </c>
       <c r="D38" s="31">
         <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I38" s="31">
         <v>0</v>
@@ -5451,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="23"/>
@@ -5481,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="31">
         <v>0</v>
@@ -5490,13 +5512,13 @@
         <v>1</v>
       </c>
       <c r="AD38" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE38" s="23">
-        <v>21012</v>
+        <v>22011</v>
       </c>
       <c r="AF38" s="23">
-        <v>400401</v>
+        <v>320401</v>
       </c>
       <c r="AG38" s="23"/>
       <c r="AH38" s="31"/>
@@ -5504,22 +5526,22 @@
     </row>
     <row r="39" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C39" s="31">
-        <v>202011</v>
+        <v>202012</v>
       </c>
       <c r="D39" s="31">
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
@@ -5528,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="23"/>
@@ -5552,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="Y39" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z39" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="31">
         <v>0</v>
@@ -5570,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="AE39" s="23">
-        <v>22011</v>
+        <v>22012</v>
       </c>
       <c r="AF39" s="23">
-        <v>320401</v>
+        <v>310501</v>
       </c>
       <c r="AG39" s="23"/>
       <c r="AH39" s="31"/>
@@ -5581,22 +5603,22 @@
     </row>
     <row r="40" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C40" s="31">
-        <v>202012</v>
+        <v>203011</v>
       </c>
       <c r="D40" s="31">
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I40" s="31">
         <v>0</v>
@@ -5605,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="23"/>
@@ -5629,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="31">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB40" s="31">
         <v>0</v>
@@ -5644,13 +5666,13 @@
         <v>1</v>
       </c>
       <c r="AD40" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE40" s="23">
-        <v>22012</v>
+        <v>23011</v>
       </c>
       <c r="AF40" s="23">
-        <v>310501</v>
+        <v>400101</v>
       </c>
       <c r="AG40" s="23"/>
       <c r="AH40" s="31"/>
@@ -5658,22 +5680,22 @@
     </row>
     <row r="41" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C41" s="31">
-        <v>203011</v>
+        <v>203012</v>
       </c>
       <c r="D41" s="31">
         <v>1</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>220</v>
+      <c r="E41" s="43" t="s">
+        <v>207</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I41" s="31">
         <v>0</v>
@@ -5682,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="23"/>
@@ -5706,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="31">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="AB41" s="31">
         <v>0</v>
@@ -5721,13 +5743,13 @@
         <v>1</v>
       </c>
       <c r="AD41" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE41" s="23">
-        <v>23011</v>
+        <v>23012</v>
       </c>
       <c r="AF41" s="23">
-        <v>400101</v>
+        <v>310501</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="31"/>
@@ -5735,22 +5757,22 @@
     </row>
     <row r="42" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C42" s="31">
-        <v>203012</v>
+        <v>208011</v>
       </c>
       <c r="D42" s="31">
         <v>1</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>221</v>
+      <c r="E42" s="50" t="s">
+        <v>214</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -5758,14 +5780,14 @@
       <c r="J42" s="31">
         <v>5</v>
       </c>
-      <c r="K42" s="31" t="s">
-        <v>97</v>
+      <c r="K42" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="31"/>
-      <c r="P42" s="43"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
       <c r="S42" s="31">
@@ -5783,13 +5805,13 @@
         <v>0</v>
       </c>
       <c r="Y42" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="31">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="AB42" s="31">
         <v>0</v>
@@ -5798,13 +5820,13 @@
         <v>1</v>
       </c>
       <c r="AD42" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE42" s="23">
-        <v>23012</v>
+        <v>28011</v>
       </c>
       <c r="AF42" s="23">
-        <v>310501</v>
+        <v>310101</v>
       </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="31"/>
@@ -5812,22 +5834,22 @@
     </row>
     <row r="43" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C43" s="31">
-        <v>208011</v>
+        <v>208012</v>
       </c>
       <c r="D43" s="31">
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
@@ -5835,8 +5857,8 @@
       <c r="J43" s="31">
         <v>5</v>
       </c>
-      <c r="K43" s="14" t="s">
-        <v>100</v>
+      <c r="K43" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="23"/>
@@ -5878,91 +5900,14 @@
         <v>6</v>
       </c>
       <c r="AE43" s="23">
-        <v>28011</v>
+        <v>28012</v>
       </c>
       <c r="AF43" s="23">
-        <v>310101</v>
+        <v>310501</v>
       </c>
       <c r="AG43" s="23"/>
       <c r="AH43" s="31"/>
       <c r="AI43" s="31"/>
-    </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C44" s="31">
-        <v>208012</v>
-      </c>
-      <c r="D44" s="31">
-        <v>1</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="I44" s="31">
-        <v>0</v>
-      </c>
-      <c r="J44" s="31">
-        <v>5</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31">
-        <v>0</v>
-      </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31">
-        <v>0</v>
-      </c>
-      <c r="W44" s="31">
-        <v>99</v>
-      </c>
-      <c r="X44" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="31">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="AB44" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="31">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="31">
-        <v>6</v>
-      </c>
-      <c r="AE44" s="23">
-        <v>28012</v>
-      </c>
-      <c r="AF44" s="23">
-        <v>310501</v>
-      </c>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD49187-49AA-4166-81B6-6912FF515FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F0BB61-FC46-4C6C-9499-BD16849BBCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -163,13 +163,6 @@
   </si>
   <si>
     <t>配置箭头指向还是抛物线指向</t>
-  </si>
-  <si>
-    <t>施法后
-速度条
-1表示整个条
-%条/秒
-参数&gt;0</t>
   </si>
   <si>
     <t>增加：&gt;0
@@ -475,10 +468,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20011,20012</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -738,15 +727,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1-普通攻击
-2-一般技能
-3-奥义技能
-4-残响技能
-5-被动技能
-6-引导技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>决定被动技能在哪些情况下触发
 仅被动技能生效
 被动技能生效会播timeline的表演
@@ -754,55 +734,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。【护盾】可根据施法者生命上限15%抵消受到的伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>targetLength</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个【石柱】，攻击范围内目标，对其造成200%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击100%+100)，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对单体目标造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定的目标造成100%+200伤害，附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，并对其半径5米范围内敌人造成3*80%空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，并对其半径8米范围内的敌人造成150%伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成4*120%地属性伤害。同时自身获得【再生】效果，每5秒回复自身3%生命，持续50秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成4*120%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续60秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的目标造成360%空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成100%+200伤害，并有50%概率触发【打退】效果，使其COM条减少35%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的敌人造成240%时属性伤害，若造成击杀，则提升自身COM条进度35%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>【行动提前】选定单体友军，提升COM条进度50%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -822,26 +754,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>使用战技1时，传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>友方小圆</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动经过【石柱】1米范围内时，战技2技能CD重置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗MP</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动至目标附近，对选定范围内的目标造成4*80%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>男主-天赋A1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -862,18 +782,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>战技1使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击攻击自身。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对选定的目标造成2段伤害，第1段40%+80伤害，第2段60%+120伤害并附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战技2使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>行动速度描述</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -898,10 +806,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>对选定范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>友方自身</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -922,10 +826,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>战技2使用时，将选定范围内的敌人【聚拢】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -934,10 +834,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>移动至目标附近，并对选定目标造成100%+200伤害，附带【打断】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>洛基-天赋A1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -946,14 +842,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击暴击时，可额外【追加】一次普通攻击。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用战技2时，自身COM进度同时提升35%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>技能攻击</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1050,11 +938,139 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>被动技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>血量达到50%时，分裂成5个小史莱姆国王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-普通攻击
+2-一般技能
+3-奥义技能
+4-被动技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011,20012</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa_shilaimu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_shilaimu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法后
+速度条
+1表示整个条
+%条/秒
+参数&gt;0
+参数=0表示瞬满,没有吟唱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序写死的50%血量释放技能，在COM过程中瞬间触发，ACT过程中要等本次行动结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成100%+200伤害，附带【打断】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>为选定友军生成【护盾】，持续40秒。【护盾】根据施法者生命上限15%抵消受到的伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤【石柱】，对范围内目标造成200%地属性伤害。【石柱】存在期间，每3秒产生瓦尔基里攻击100%+100地属性伤害效果，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成4*120%地属性伤害。自身获得【再生】效果，每5秒回复3%生命，持续50秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成伤害。第1段40%+80伤害，第2段60%+120伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成100%+200伤害，附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内敌人造成3*80%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标造成360%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成100%+200伤害，并有50%概率触发【打退】效果，使其行动条减少35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【行动提前】选定单体友军，提升行动条进度50%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成360%时属性伤害。自身获得【加速】效果，行动速度提升20%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内敌人造成240%时属性伤害。若造成击杀，则提升自身行动条进度35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内的敌人造成150%伤害，并将敌人【聚拢】。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成4*80%火属性伤害。自身生成【烈焰光环】，对5米内的敌方每3秒造成1次攻击*100%+200火属性伤害，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成600%火属性伤害。同时附加【破甲】效果，使其防御降低50%，持续60秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用【誓言之盾】时，传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动经过【审判之碑】1米范围内时，【审判之碑】的技能CD重置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【命运之刃】使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【圣火裁决】使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【湮灭黑洞】使用时，将选定范围内的敌人【聚拢】</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓光线暴击时，可额外【追加】一次普通攻击。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用【时空旅行】时，自身行动条进度同时提升35%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2223,11 +2239,11 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2277,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -2295,16 +2311,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2316,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>15</v>
@@ -2349,13 +2365,13 @@
         <v>24</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG1" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH1" s="41" t="s">
         <v>25</v>
@@ -2376,241 +2392,241 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="Y2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="AA2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AI2" s="42" t="s">
         <v>38</v>
-      </c>
-      <c r="AI2" s="42" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="U3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="X3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="AE3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3" s="45" t="s">
         <v>162</v>
-      </c>
-      <c r="AG3" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="39" t="s">
         <v>68</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>69</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>15</v>
@@ -2622,41 +2638,41 @@
         <v>17</v>
       </c>
       <c r="X4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="AE4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF4" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2694,96 +2710,96 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="L6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="Y6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AB6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="AC6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF6" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG6" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="AG6" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
@@ -2792,7 +2808,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2841,7 +2857,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2894,36 +2910,36 @@
         <v>1</v>
       </c>
       <c r="E9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="13">
         <v>10</v>
@@ -2948,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y9" s="19">
         <v>3</v>
@@ -2985,13 +3001,13 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3000,27 +3016,27 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S10" s="14">
         <v>300</v>
@@ -3075,13 +3091,13 @@
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -3090,20 +3106,20 @@
         <v>2</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="13">
         <v>1</v>
@@ -3128,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="X11" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="19">
         <v>3</v>
@@ -3137,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="13">
         <v>0</v>
@@ -3165,13 +3181,13 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="27" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3180,20 +3196,20 @@
         <v>3</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="14">
         <v>10</v>
@@ -3203,7 +3219,7 @@
         <v>0.1</v>
       </c>
       <c r="S12" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T12" s="14">
         <v>0</v>
@@ -3254,36 +3270,36 @@
         <v>1</v>
       </c>
       <c r="E13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="L13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="13">
         <v>10</v>
@@ -3308,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="19">
         <v>3</v>
@@ -3329,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="22" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3345,13 +3361,13 @@
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="27" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -3360,22 +3376,22 @@
         <v>2</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P14" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="14">
         <v>2</v>
@@ -3394,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="14">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W14" s="14">
         <v>1</v>
@@ -3437,13 +3453,13 @@
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="23" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -3452,22 +3468,22 @@
         <v>2</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P15" s="23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="13">
         <v>1</v>
@@ -3492,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="19">
         <v>3</v>
@@ -3529,13 +3545,13 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="14" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -3544,22 +3560,22 @@
         <v>3</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P16" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="14">
         <v>10</v>
@@ -3569,7 +3585,7 @@
         <v>0.1</v>
       </c>
       <c r="S16" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T16" s="14">
         <v>0</v>
@@ -3620,34 +3636,34 @@
         <v>1</v>
       </c>
       <c r="E17" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="L17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="13">
         <v>10</v>
@@ -3709,13 +3725,13 @@
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="27" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3724,20 +3740,20 @@
         <v>2</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="14">
         <v>2</v>
@@ -3799,13 +3815,13 @@
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="23" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3814,20 +3830,20 @@
         <v>2</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="13">
         <v>1</v>
@@ -3846,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="W19" s="13">
         <v>1</v>
@@ -3889,13 +3905,13 @@
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="27" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3904,20 +3920,20 @@
         <v>3</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="14">
         <v>10</v>
@@ -3927,7 +3943,7 @@
         <v>0.1</v>
       </c>
       <c r="S20" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T20" s="14">
         <v>0</v>
@@ -3978,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -3996,16 +4012,16 @@
         <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
@@ -4067,35 +4083,35 @@
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
       </c>
       <c r="J22" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="14">
         <v>0.2</v>
@@ -4156,16 +4172,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -4174,18 +4190,18 @@
         <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
       <c r="O23" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q23" s="13">
         <v>2</v>
@@ -4210,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="19">
         <v>3</v>
@@ -4247,13 +4263,13 @@
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="H24" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
@@ -4262,18 +4278,18 @@
         <v>2</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q24" s="14">
         <v>0.5</v>
@@ -4298,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="14">
         <v>3</v>
@@ -4334,36 +4350,36 @@
         <v>1</v>
       </c>
       <c r="E25" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="L25" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="13">
         <v>2</v>
@@ -4388,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="X25" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="19">
         <v>3</v>
@@ -4425,13 +4441,13 @@
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="H26" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -4440,18 +4456,18 @@
         <v>2</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="14">
         <v>0.5</v>
@@ -4476,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="X26" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="14">
         <v>3</v>
@@ -4512,16 +4528,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -4530,18 +4546,18 @@
         <v>1</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="13">
         <v>2</v>
@@ -4603,13 +4619,13 @@
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="H28" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
@@ -4618,22 +4634,22 @@
         <v>2</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P28" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="14">
         <v>0.2</v>
@@ -4694,16 +4710,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -4712,16 +4728,16 @@
         <v>1</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
       <c r="P29" s="23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="13">
         <v>10</v>
@@ -4783,13 +4799,13 @@
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="27" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="I30" s="14">
         <v>0</v>
@@ -4798,20 +4814,20 @@
         <v>2</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O30" s="33"/>
       <c r="P30" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="14">
         <v>2</v>
@@ -4873,13 +4889,13 @@
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="23" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -4888,20 +4904,20 @@
         <v>2</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="13">
         <v>1</v>
@@ -4963,13 +4979,13 @@
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="27" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="I32" s="14">
         <v>0</v>
@@ -4978,20 +4994,20 @@
         <v>3</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O32" s="34"/>
       <c r="P32" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="14">
         <v>10</v>
@@ -5001,7 +5017,7 @@
         <v>0.1</v>
       </c>
       <c r="S32" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T32" s="14">
         <v>0</v>
@@ -5052,17 +5068,17 @@
         <v>1</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
@@ -5070,16 +5086,16 @@
         <v>1</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q33" s="13">
         <v>2</v>
@@ -5089,7 +5105,7 @@
         <v>0.5</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -5139,45 +5155,45 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="24" t="s">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>123</v>
+      <c r="M34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="O34" s="36"/>
       <c r="P34" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R34" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -5220,36 +5236,42 @@
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
-        <v>209001</v>
+        <v>109003</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="55" t="s">
+        <v>225</v>
+      </c>
       <c r="F35" s="32" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L35" s="32"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="13"/>
+      <c r="P35" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
       <c r="R35" s="13"/>
       <c r="S35" s="2">
         <v>0</v>
@@ -5288,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="AE35" s="30">
-        <v>29001</v>
+        <v>9003</v>
       </c>
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
@@ -5301,25 +5323,25 @@
         <v>1</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="I36" s="31">
         <v>0</v>
       </c>
       <c r="J36" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="23"/>
@@ -5378,25 +5400,25 @@
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
       </c>
       <c r="J37" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="23"/>
@@ -5455,25 +5477,25 @@
         <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="I38" s="31">
         <v>0</v>
       </c>
       <c r="J38" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="23"/>
@@ -5532,25 +5554,25 @@
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
       </c>
       <c r="J39" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="23"/>
@@ -5609,25 +5631,25 @@
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="I40" s="31">
         <v>0</v>
       </c>
       <c r="J40" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="23"/>
@@ -5686,25 +5708,25 @@
         <v>1</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I41" s="31">
         <v>0</v>
       </c>
       <c r="J41" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="23"/>
@@ -5763,25 +5785,25 @@
         <v>1</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
       </c>
       <c r="J42" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="23"/>
@@ -5840,25 +5862,25 @@
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
       </c>
       <c r="J43" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="23"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F0BB61-FC46-4C6C-9499-BD16849BBCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22B91C-7466-45DF-AA83-6AA7F2394BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,15 +745,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军
-6-仅施法者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>友方小圆</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1066,11 +1057,20 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>迟缓光线暴击时，可额外【追加】一次普通攻击。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>使用【时空旅行】时，自身行动条进度同时提升35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-仅选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军
+6-仅施法者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓光线暴击时，可额外【追加】一次【迟缓光线】。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2239,11 +2239,11 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2332,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>15</v>
@@ -2404,7 +2404,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
@@ -2423,7 +2423,7 @@
         <v>131</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
@@ -2460,7 +2460,7 @@
         <v>156</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>120</v>
@@ -2520,10 +2520,10 @@
         <v>47</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
@@ -2616,7 +2616,7 @@
         <v>64</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>66</v>
@@ -2913,13 +2913,13 @@
         <v>81</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>132</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -2939,14 +2939,14 @@
         <v>84</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="13">
-        <v>10</v>
-      </c>
-      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S9" s="13">
         <v>200</v>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" s="19">
         <v>3</v>
@@ -3001,13 +3001,13 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>133</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3029,14 +3029,14 @@
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>10</v>
-      </c>
-      <c r="R10" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S10" s="14">
         <v>300</v>
@@ -3091,13 +3091,13 @@
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>134</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S11" s="13">
         <v>400</v>
@@ -3181,13 +3181,13 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="14">
         <v>10</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="X12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="14">
         <v>3</v>
@@ -3273,13 +3273,13 @@
         <v>88</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -3299,14 +3299,14 @@
         <v>84</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="13">
-        <v>10</v>
-      </c>
-      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S13" s="13">
         <v>200</v>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="19">
         <v>3</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3361,13 +3361,13 @@
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -3391,14 +3391,14 @@
         <v>84</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>2</v>
-      </c>
-      <c r="R14" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S14" s="14">
         <v>300</v>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="X14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="14">
         <v>3</v>
@@ -3453,13 +3453,13 @@
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>134</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -3483,14 +3483,14 @@
         <v>84</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q15" s="13">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15" s="13">
         <v>400</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="19">
         <v>3</v>
@@ -3545,13 +3545,13 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>132</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>84</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="14">
         <v>10</v>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="X16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="14">
         <v>3</v>
@@ -3639,13 +3639,13 @@
         <v>93</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -3663,14 +3663,14 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="13">
-        <v>10</v>
-      </c>
-      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S17" s="13">
         <v>200</v>
@@ -3725,13 +3725,13 @@
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3753,14 +3753,14 @@
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>2</v>
-      </c>
-      <c r="R18" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S18" s="14">
         <v>350</v>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>136</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="13">
-        <v>1</v>
-      </c>
-      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S19" s="13">
         <v>450</v>
@@ -3905,13 +3905,13 @@
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>136</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="14">
         <v>10</v>
@@ -4021,7 +4021,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>136</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="14">
         <v>0.2</v>
@@ -4201,7 +4201,7 @@
         <v>84</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="13">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>84</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="14">
         <v>0.5</v>
@@ -4379,7 +4379,7 @@
         <v>84</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="13">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>84</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="14">
         <v>0.5</v>
@@ -4557,7 +4557,7 @@
         <v>84</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="13">
         <v>2</v>
@@ -4649,7 +4649,7 @@
         <v>84</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="14">
         <v>0.2</v>
@@ -4713,13 +4713,13 @@
         <v>123</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>132</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -4737,14 +4737,14 @@
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
       <c r="P29" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="13">
-        <v>10</v>
-      </c>
-      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S29" s="13">
         <v>200</v>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="X29" s="13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="19">
         <v>3</v>
@@ -4799,13 +4799,13 @@
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30" s="14">
         <v>0</v>
@@ -4827,14 +4827,14 @@
       </c>
       <c r="O30" s="33"/>
       <c r="P30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>2</v>
-      </c>
-      <c r="R30" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S30" s="14">
         <v>300</v>
@@ -4889,13 +4889,13 @@
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>133</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -4917,14 +4917,14 @@
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="13">
-        <v>1</v>
-      </c>
-      <c r="R31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S31" s="13">
         <v>400</v>
@@ -4979,13 +4979,13 @@
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I32" s="14">
         <v>0</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="O32" s="34"/>
       <c r="P32" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="14">
         <v>10</v>
@@ -5095,7 +5095,7 @@
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="13">
         <v>2</v>
@@ -5176,14 +5176,14 @@
         <v>147</v>
       </c>
       <c r="M34" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N34" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="O34" s="36"/>
       <c r="P34" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="14">
         <v>0.25</v>
@@ -5242,16 +5242,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -5267,7 +5267,7 @@
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
       <c r="P35" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="13">
         <v>0</v>
@@ -5323,16 +5323,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I36" s="31">
         <v>0</v>
@@ -5400,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
@@ -5477,16 +5477,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I38" s="31">
         <v>0</v>
@@ -5554,16 +5554,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>176</v>
-      </c>
       <c r="H39" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
@@ -5631,16 +5631,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I40" s="31">
         <v>0</v>
@@ -5708,16 +5708,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>186</v>
-      </c>
       <c r="H41" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I41" s="31">
         <v>0</v>
@@ -5785,16 +5785,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -5862,16 +5862,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22B91C-7466-45DF-AA83-6AA7F2394BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D82D59D-7E3F-436E-8D37-567440C89C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="248">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -104,9 +104,6 @@
     <t>ACT秒</t>
   </si>
   <si>
-    <t>自身怒气</t>
-  </si>
-  <si>
     <t>初始CD</t>
   </si>
   <si>
@@ -165,19 +162,7 @@
     <t>配置箭头指向还是抛物线指向</t>
   </si>
   <si>
-    <t>增加：&gt;0
-消耗：＜0
-仅自身</t>
-  </si>
-  <si>
     <t>仅残响类技能消耗MP</t>
-  </si>
-  <si>
-    <t>进入战斗后，首次可使用该技能的冷却CD
-(秒)</t>
-  </si>
-  <si>
-    <t>首次技能使用后，每次使用技能需要间隔的最少CD(秒)</t>
   </si>
   <si>
     <t>距离目标多远开始静帧使用技能
@@ -278,9 +263,6 @@
     <t>Act条速度</t>
   </si>
   <si>
-    <t>怒气增减</t>
-  </si>
-  <si>
     <t>MP消耗</t>
   </si>
   <si>
@@ -409,10 +391,6 @@
   </si>
   <si>
     <t>actAnimate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -445,22 +423,12 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_time_wait_chufa</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>技能图标</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>普攻支持配多个技能就1个</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait_chufa</t>
-  </si>
-  <si>
-    <t>Fx_time_wait</t>
   </si>
   <si>
     <t>洛基</t>
@@ -944,14 +912,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_time_wait_chufa_shilaimu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_time_wait_shilaimu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>施法后
 速度条
 1表示整个条
@@ -1071,6 +1031,43 @@
   </si>
   <si>
     <t>迟缓光线暴击时，可额外【追加】一次【迟缓光线】。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_com_wait_wuli_start</t>
+  </si>
+  <si>
+    <t>Fx_com_wait_wuli_loop</t>
+  </si>
+  <si>
+    <t>Fx_magic_wait_start</t>
+  </si>
+  <si>
+    <t>Fx_magic_wait_01</t>
+  </si>
+  <si>
+    <t>Fx_magic_wait_02</t>
+  </si>
+  <si>
+    <t>进入战斗后，首次可使用该技能的冷却CD
+(回合)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次技能使用后，每次使用技能需要间隔的最少CD(回合)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗怒气值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：＜0
+仅自身</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +1953,7 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="自身怒气"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="消耗怒气值"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="消耗MP"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始CD"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
@@ -2239,11 +2236,11 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -2311,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2329,55 +2326,55 @@
         <v>13</v>
       </c>
       <c r="S1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG1" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AI1" s="41" t="s">
         <v>25</v>
-      </c>
-      <c r="AI1" s="41" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
@@ -2385,294 +2382,294 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="20" t="s">
+      <c r="P2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="38" t="s">
+      <c r="AF2" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="AI2" s="42" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="42" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="M3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="X3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="AE3" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF3" s="45" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="45" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="AE4" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF4" s="45" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2710,96 +2707,96 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="21" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>79</v>
+        <v>115</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF6" s="45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
@@ -2808,7 +2805,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="51" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2857,7 +2854,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="52" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2910,16 +2907,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -2928,18 +2925,18 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="13">
         <v>0</v>
@@ -2949,7 +2946,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T9" s="13">
         <v>0</v>
@@ -2958,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="13">
         <v>1</v>
@@ -3001,13 +2998,13 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3016,20 +3013,16 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="P10" s="27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="13">
         <v>0</v>
@@ -3039,7 +3032,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T10" s="14">
         <v>0</v>
@@ -3048,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="W10" s="14">
         <v>1</v>
@@ -3091,13 +3084,13 @@
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -3106,20 +3099,16 @@
         <v>2</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="13">
         <v>0</v>
@@ -3129,7 +3118,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S11" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T11" s="13">
         <v>0</v>
@@ -3138,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="13">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="W11" s="13">
         <v>1</v>
@@ -3181,13 +3170,13 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="27" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3196,30 +3185,30 @@
         <v>3</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="14">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="R12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T12" s="14">
         <v>0</v>
@@ -3228,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W12" s="14">
         <v>1</v>
@@ -3270,16 +3259,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -3288,18 +3277,18 @@
         <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="13">
         <v>0</v>
@@ -3309,7 +3298,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T13" s="13">
         <v>0</v>
@@ -3318,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="13">
         <v>1</v>
@@ -3345,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3361,13 +3350,13 @@
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="27" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -3376,22 +3365,18 @@
         <v>2</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>110</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="13">
         <v>0</v>
@@ -3401,7 +3386,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T14" s="14">
         <v>0</v>
@@ -3410,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="W14" s="14">
         <v>1</v>
@@ -3453,13 +3438,13 @@
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -3468,22 +3453,18 @@
         <v>2</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
       <c r="O15" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="13">
         <v>0</v>
@@ -3493,7 +3474,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T15" s="13">
         <v>0</v>
@@ -3502,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="13">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="W15" s="13">
         <v>1</v>
@@ -3545,13 +3526,13 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -3560,32 +3541,32 @@
         <v>3</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="14">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="R16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T16" s="14">
         <v>0</v>
@@ -3594,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W16" s="14">
         <v>1</v>
@@ -3636,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -3654,16 +3635,16 @@
         <v>1</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
@@ -3673,7 +3654,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S17" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T17" s="13">
         <v>0</v>
@@ -3682,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="13">
         <v>1</v>
@@ -3725,13 +3706,13 @@
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="27" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3740,20 +3721,16 @@
         <v>2</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
@@ -3763,7 +3740,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="14">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="T18" s="14">
         <v>0</v>
@@ -3772,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="14">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="W18" s="14">
         <v>1</v>
@@ -3815,13 +3792,13 @@
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3830,20 +3807,16 @@
         <v>2</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="33"/>
       <c r="P19" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="13">
         <v>0</v>
@@ -3853,7 +3826,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="13">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="T19" s="13">
         <v>0</v>
@@ -3862,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W19" s="13">
         <v>1</v>
@@ -3905,13 +3878,13 @@
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3920,30 +3893,30 @@
         <v>3</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="14">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="R20" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
         <v>0</v>
@@ -3952,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W20" s="14">
         <v>1</v>
@@ -3994,17 +3967,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>138</v>
-      </c>
       <c r="I21" s="13">
         <v>0</v>
       </c>
@@ -4012,16 +3985,16 @@
         <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
@@ -4031,7 +4004,7 @@
         <v>0.1</v>
       </c>
       <c r="S21" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T21" s="13">
         <v>0</v>
@@ -4040,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13">
         <v>1</v>
@@ -4083,13 +4056,13 @@
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="27" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
@@ -4098,20 +4071,20 @@
         <v>2</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="14">
         <v>0.2</v>
@@ -4121,7 +4094,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T22" s="14">
         <v>0</v>
@@ -4130,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14">
         <v>1</v>
@@ -4172,16 +4145,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -4190,18 +4163,18 @@
         <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
       <c r="O23" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="13">
         <v>2</v>
@@ -4220,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
@@ -4263,13 +4236,13 @@
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
@@ -4278,18 +4251,18 @@
         <v>2</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="14">
         <v>0.5</v>
@@ -4308,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W24" s="14">
         <v>1</v>
@@ -4350,16 +4323,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -4368,18 +4341,18 @@
         <v>1</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="13">
         <v>2</v>
@@ -4398,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="13">
         <v>1</v>
@@ -4441,13 +4414,13 @@
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -4456,18 +4429,18 @@
         <v>2</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="14">
         <v>0.5</v>
@@ -4486,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W26" s="14">
         <v>1</v>
@@ -4528,16 +4501,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -4546,18 +4519,18 @@
         <v>1</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="13">
         <v>2</v>
@@ -4576,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
@@ -4619,13 +4592,13 @@
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
@@ -4634,22 +4607,22 @@
         <v>2</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="14">
         <v>0.2</v>
@@ -4668,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="14">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14">
         <v>1</v>
@@ -4710,16 +4683,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="H29" s="24" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -4728,16 +4701,16 @@
         <v>1</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
       <c r="P29" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="13">
         <v>0</v>
@@ -4747,7 +4720,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T29" s="13">
         <v>0</v>
@@ -4756,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13">
         <v>1</v>
@@ -4799,13 +4772,13 @@
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="I30" s="14">
         <v>0</v>
@@ -4814,20 +4787,16 @@
         <v>2</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="33"/>
       <c r="P30" s="27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="13">
         <v>0</v>
@@ -4837,7 +4806,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T30" s="14">
         <v>0</v>
@@ -4846,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="W30" s="14">
         <v>1</v>
@@ -4889,13 +4858,13 @@
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -4904,20 +4873,16 @@
         <v>2</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>122</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="33"/>
       <c r="P31" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="13">
         <v>0</v>
@@ -4927,7 +4892,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T31" s="13">
         <v>0</v>
@@ -4936,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="13">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13">
         <v>1</v>
@@ -4979,13 +4944,13 @@
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="27" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I32" s="14">
         <v>0</v>
@@ -4994,30 +4959,30 @@
         <v>3</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="O32" s="34"/>
       <c r="P32" s="27" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="14">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="R32" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T32" s="14">
         <v>0</v>
@@ -5026,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W32" s="14">
         <v>1</v>
@@ -5068,16 +5033,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -5086,16 +5051,16 @@
         <v>1</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="13">
         <v>2</v>
@@ -5105,7 +5070,7 @@
         <v>0.5</v>
       </c>
       <c r="S33" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -5113,8 +5078,8 @@
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2">
-        <v>3</v>
+      <c r="V33" s="13">
+        <v>0</v>
       </c>
       <c r="W33" s="2">
         <v>1</v>
@@ -5155,14 +5120,14 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="32" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
@@ -5170,20 +5135,18 @@
         <v>2</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>219</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M34" s="24"/>
       <c r="N34" s="24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O34" s="36"/>
       <c r="P34" s="27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q34" s="14">
         <v>0.25</v>
@@ -5193,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="S34" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -5201,8 +5164,8 @@
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="2">
-        <v>20</v>
+      <c r="V34" s="14">
+        <v>2</v>
       </c>
       <c r="W34" s="2">
         <v>1</v>
@@ -5242,16 +5205,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -5260,14 +5223,14 @@
         <v>4</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L35" s="32"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
       <c r="P35" s="23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="13">
         <v>0</v>
@@ -5323,16 +5286,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I36" s="31">
         <v>0</v>
@@ -5341,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="23"/>
@@ -5400,16 +5363,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>182</v>
-      </c>
       <c r="H37" s="50" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
@@ -5418,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="23"/>
@@ -5477,16 +5440,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I38" s="31">
         <v>0</v>
@@ -5495,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="23"/>
@@ -5554,16 +5517,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
@@ -5572,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="23"/>
@@ -5631,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I40" s="31">
         <v>0</v>
@@ -5649,7 +5612,7 @@
         <v>4</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="23"/>
@@ -5708,16 +5671,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I41" s="31">
         <v>0</v>
@@ -5726,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="23"/>
@@ -5785,16 +5748,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -5803,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="23"/>
@@ -5862,16 +5825,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
@@ -5880,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="23"/>
